--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10250799-EBDF-4426-B4C4-7DFCDF9AFFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17FBA61-CAAE-409B-8713-9C919D92FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="830">
   <si>
     <t>IN</t>
   </si>
@@ -324,6 +324,9 @@
     <t>signal a : STD_LOGIC_VECTOR (1 downto 0) := "0000010";</t>
   </si>
   <si>
+    <t>Pongo zero poichè non gli ho indicato di inizializzarlo</t>
+  </si>
+  <si>
     <t>round_counter is an input std_logic_vector of 5 bits</t>
   </si>
   <si>
@@ -387,6 +390,27 @@
     <t>signal t_btn_plaintext, t_switchdisplay, t_btn_key : std_logic;</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assegno Zeo poichè non sono </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>signal</t>
+    </r>
+  </si>
+  <si>
     <t>temp_p is a std_logic_vector signal of 16 bit</t>
   </si>
   <si>
@@ -456,6 +480,9 @@
     <t>signal TbClockA : std_logic; entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;</t>
   </si>
   <si>
+    <t>Metto zero poichè ha inizializzato una ROM non richiesta</t>
+  </si>
+  <si>
     <t>Define a signal named en_tmp of type std_logic</t>
   </si>
   <si>
@@ -465,6 +492,9 @@
     <t>signal en_tmp: STD_LOGIC_VECTOR (15 downto 0);</t>
   </si>
   <si>
+    <t>Metto zero poichè ha inizializzato un vettore e non un singolo signal</t>
+  </si>
+  <si>
     <t>current_state is a signal of type state initialized to idle</t>
   </si>
   <si>
@@ -507,6 +537,36 @@
     <t>type direction is (LITTLE_ENDIAN, BIG_ENDIAN); signal data_out : out std_logic_vector(63 downto 0);</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Perchè anche signal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data_out : out std_logic_vector(63 downto 0);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
     <t>define an enumerative type ciao with 3 values</t>
   </si>
   <si>
@@ -516,6 +576,9 @@
     <t>type ciao is (x, y, z); mux_4_1 is an entity with b0 as input std_logic signal, b1 as input std_logic signal, b2 as input std_logic signal, b3 as input std_logic signal, s0 as input std_logic signal, s1 as input std_logic signal, y0 as output std_logic signal</t>
   </si>
   <si>
+    <t xml:space="preserve">Perchè mi ha generato nache il mux ? </t>
+  </si>
+  <si>
     <t>define an enumerative type named hex_number that is an array with a range of POSITIVE indices of type hex_digit</t>
   </si>
   <si>
@@ -549,6 +612,9 @@
     <t>a:process(clock) begin if(clock'event and clock='1') then if(reset = '1') then value := 0; enable &lt;= '1'; value := value + 1; end if; end if; end process;</t>
   </si>
   <si>
+    <t xml:space="preserve">In questo caso gli do 1 poichè anche generando più di quello che ho richiesto si è tenuto nella traccia </t>
+  </si>
+  <si>
     <t>if DSETS is greater than 1, if the integer conversion of signal r.rndcnt is equal to DSETS - 1 then set all elements of thr signal v.rndcnt equal to '0' otherwise set v.rndcnt equal to v.rndcnt + 1</t>
   </si>
   <si>
@@ -570,6 +636,9 @@
     <t>rst_n_i &lt;= '0', S0;</t>
   </si>
   <si>
+    <t>Manca lo statement</t>
+  </si>
+  <si>
     <t>if rst_n_i signal is low</t>
   </si>
   <si>
@@ -615,6 +684,9 @@
     <t>count &lt;= c; if rising_edge(clk_i) then; if rst_n_i = '0' then ; end if;; i_sck_cpy &lt;= i_scl when rst_n_i = '0' else '0';</t>
   </si>
   <si>
+    <t>Mi ha aggiunto roba in più non richiesta</t>
+  </si>
+  <si>
     <t>tempq0 signal is set to the first element of temp_p signal</t>
   </si>
   <si>
@@ -622,6 +694,9 @@
   </si>
   <si>
     <t>signal tempq0: std_logic_vector(temp_p(0) downto 1);</t>
+  </si>
+  <si>
+    <t>Non assegna al primo elemento, ma ne dichiara la dimensione tramite il primo elemento</t>
   </si>
   <si>
     <t>set i_cs signal to '1'</t>
@@ -2497,7 +2572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2512,6 +2587,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2553,12 +2634,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2863,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3615,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -3638,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -3661,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -3684,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -3707,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3730,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -3753,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -3775,16 +3857,19 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3799,15 +3884,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3822,15 +3907,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3845,15 +3930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3868,15 +3953,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3891,15 +3976,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3911,18 +3996,18 @@
         <v>0.86755233494363915</v>
       </c>
       <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3937,15 +4022,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3960,15 +4045,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3982,16 +4067,19 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4006,15 +4094,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4029,15 +4117,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4052,15 +4140,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4075,15 +4163,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4095,18 +4183,18 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4121,15 +4209,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4144,15 +4232,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4167,15 +4255,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4190,15 +4278,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4213,15 +4301,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4235,16 +4323,19 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4258,16 +4349,19 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4282,15 +4376,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4305,15 +4399,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4328,15 +4422,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4351,15 +4445,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4374,15 +4468,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4397,15 +4491,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4419,16 +4513,19 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4442,16 +4539,19 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -4466,15 +4566,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4486,18 +4586,18 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4509,18 +4609,18 @@
         <v>0.86538461538461542</v>
       </c>
       <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4532,18 +4632,21 @@
         <v>0.22222222222222229</v>
       </c>
       <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4558,15 +4661,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4581,15 +4684,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4603,16 +4706,19 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4626,16 +4732,19 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -4650,15 +4759,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4673,15 +4782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4695,16 +4804,19 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4716,18 +4828,18 @@
         <v>0.22222222222222229</v>
       </c>
       <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4742,15 +4854,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4764,16 +4876,19 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4787,16 +4902,19 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4811,15 +4929,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4834,15 +4952,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4857,15 +4975,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4880,15 +4998,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -4903,15 +5021,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B89" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -4926,15 +5044,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -4949,15 +5067,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -4972,15 +5090,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4992,18 +5110,18 @@
         <v>0.87372448979591832</v>
       </c>
       <c r="G92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5018,15 +5136,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5041,15 +5159,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5064,15 +5182,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5089,13 +5207,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -5112,13 +5230,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5135,13 +5253,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5158,13 +5276,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5181,13 +5299,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -5204,13 +5322,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5227,13 +5345,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5250,13 +5368,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5273,13 +5391,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5296,13 +5414,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -5319,13 +5437,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C107" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5342,13 +5460,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5365,13 +5483,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5388,13 +5506,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C110" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5411,13 +5529,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5434,13 +5552,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C112" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5457,13 +5575,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5480,13 +5598,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5503,13 +5621,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5526,13 +5644,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C116" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5549,13 +5667,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5572,13 +5690,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -5595,13 +5713,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C119" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5618,13 +5736,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C120" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5641,13 +5759,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
+        <v>283</v>
+      </c>
+      <c r="B121" t="s">
         <v>273</v>
       </c>
-      <c r="B121" t="s">
-        <v>263</v>
-      </c>
       <c r="C121" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5664,13 +5782,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C122" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -5687,13 +5805,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C123" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5710,13 +5828,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5733,13 +5851,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C125" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -5756,13 +5874,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B126" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C126" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5779,13 +5897,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B127" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C127" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -5802,13 +5920,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B128" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C128" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5825,13 +5943,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C129" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5848,13 +5966,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C130" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -5871,13 +5989,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C131" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -5894,13 +6012,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C132" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5917,13 +6035,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B133" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C133" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -5940,13 +6058,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C134" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -5963,13 +6081,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B135" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -5986,13 +6104,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B136" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C136" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6009,13 +6127,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B137" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C137" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6032,13 +6150,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B138" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -6055,13 +6173,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B139" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C139" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6078,13 +6196,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B140" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C140" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6101,13 +6219,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B141" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C141" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6124,13 +6242,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B142" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6147,13 +6265,13 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B143" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C143" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6170,13 +6288,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B144" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C144" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6193,13 +6311,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B145" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C145" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6216,13 +6334,13 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C146" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6239,13 +6357,13 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B147" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -6262,13 +6380,13 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B148" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C148" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6285,13 +6403,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B149" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C149" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6308,13 +6426,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B150" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C150" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6331,13 +6449,13 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B151" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C151" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6354,13 +6472,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B152" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C152" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6377,13 +6495,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B153" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C153" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6400,13 +6518,13 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B154" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6423,13 +6541,13 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B155" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C155" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -6446,13 +6564,13 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B156" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C156" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -6469,13 +6587,13 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B157" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6492,13 +6610,13 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B158" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C158" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6515,13 +6633,13 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B159" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C159" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6538,13 +6656,13 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B160" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C160" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6561,13 +6679,13 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B161" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C161" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6584,13 +6702,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B162" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C162" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6607,13 +6725,13 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B163" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C163" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6630,13 +6748,13 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B164" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C164" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6653,13 +6771,13 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B165" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C165" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6676,13 +6794,13 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B166" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C166" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6699,13 +6817,13 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B167" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C167" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -6722,13 +6840,13 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B168" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C168" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -6745,13 +6863,13 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B169" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C169" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -6768,13 +6886,13 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B170" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C170" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6791,13 +6909,13 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B171" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C171" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -6814,13 +6932,13 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B172" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C172" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -6837,13 +6955,13 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -6860,13 +6978,13 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B174" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C174" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -6883,13 +7001,13 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B175" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C175" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -6906,13 +7024,13 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B176" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C176" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -6929,13 +7047,13 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B177" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -6952,13 +7070,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B178" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C178" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -6975,13 +7093,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B179" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C179" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -6998,13 +7116,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B180" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C180" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7021,13 +7139,13 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B181" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C181" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7044,13 +7162,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B182" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C182" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7067,13 +7185,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B183" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C183" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7090,13 +7208,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B184" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C184" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -7113,13 +7231,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B185" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C185" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7136,13 +7254,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B186" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C186" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7159,13 +7277,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B187" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7182,13 +7300,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B188" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C188" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7205,13 +7323,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B189" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C189" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7228,13 +7346,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B190" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C190" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7251,13 +7369,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B191" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C191" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7274,13 +7392,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B192" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C192" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7297,13 +7415,13 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C193" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7320,13 +7438,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B194" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C194" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7343,13 +7461,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B195" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C195" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7366,13 +7484,13 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B196" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C196" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -7389,13 +7507,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B197" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="C197" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7412,13 +7530,13 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B198" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C198" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7435,13 +7553,13 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B199" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C199" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7458,13 +7576,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B200" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C200" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7481,13 +7599,13 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B201" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C201" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7504,13 +7622,13 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B202" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C202" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7527,13 +7645,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B203" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C203" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7550,13 +7668,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B204" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C204" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7573,13 +7691,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B205" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C205" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7596,13 +7714,13 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B206" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C206" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7619,13 +7737,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B207" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C207" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -7642,13 +7760,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B208" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C208" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7665,13 +7783,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B209" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C209" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -7688,13 +7806,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B210" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C210" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -7711,13 +7829,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B211" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C211" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7734,13 +7852,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B212" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C212" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7757,13 +7875,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B213" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C213" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7780,13 +7898,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="B214" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C214" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -7803,13 +7921,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B215" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C215" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -7826,13 +7944,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B216" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C216" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -7849,13 +7967,13 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B217" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C217" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -7872,13 +7990,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B218" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C218" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -7895,13 +8013,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B219" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C219" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -7918,13 +8036,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B220" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C220" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -7941,13 +8059,13 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B221" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C221" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -7964,13 +8082,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B222" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="C222" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -7987,13 +8105,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B223" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="C223" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8010,13 +8128,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="B224" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="C224" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8033,13 +8151,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B225" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="C225" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8056,13 +8174,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B226" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C226" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8079,13 +8197,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="B227" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="C227" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8102,13 +8220,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B228" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C228" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8125,13 +8243,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B229" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C229" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8148,13 +8266,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B230" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="C230" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8171,13 +8289,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B231" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C231" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8194,13 +8312,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B232" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="C232" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8217,13 +8335,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B233" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="C233" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8240,13 +8358,13 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B234" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="C234" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8263,13 +8381,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B235" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="C235" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8286,13 +8404,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B236" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C236" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8309,13 +8427,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="B237" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="C237" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8332,13 +8450,13 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="B238" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="C238" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8355,13 +8473,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B239" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C239" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8378,13 +8496,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="B240" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="C240" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8401,13 +8519,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B241" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="C241" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8424,13 +8542,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B242" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="C242" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8447,13 +8565,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B243" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="C243" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8470,13 +8588,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B244" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="C244" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8493,13 +8611,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B245" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C245" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8516,13 +8634,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B246" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C246" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8539,13 +8657,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B247" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C247" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8562,13 +8680,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B248" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C248" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8585,13 +8703,13 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B249" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C249" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8608,13 +8726,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B250" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="C250" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8631,13 +8749,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B251" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="C251" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8654,13 +8772,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B252" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="C252" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8677,13 +8795,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B253" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C253" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8700,13 +8818,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B254" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="C254" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8723,13 +8841,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B255" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="C255" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8746,13 +8864,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B256" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="C256" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8769,13 +8887,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B257" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="C257" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8792,13 +8910,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B258" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="C258" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8815,13 +8933,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B259" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="C259" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8838,13 +8956,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B260" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="C260" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8861,13 +8979,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B261" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="C261" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8884,13 +9002,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B262" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="C262" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -8907,13 +9025,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B263" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C263" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -8930,13 +9048,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B264" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="C264" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -8953,13 +9071,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B265" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="C265" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -8976,13 +9094,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B266" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="C266" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -8999,13 +9117,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B267" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="C267" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9022,13 +9140,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B268" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="C268" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9045,13 +9163,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="B269" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C269" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9068,13 +9186,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B270" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="C270" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9091,13 +9209,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B271" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="C271" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9114,13 +9232,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="B272" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="C272" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9137,13 +9255,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B273" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="C273" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9160,13 +9278,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B274" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="C274" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9183,13 +9301,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B275" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="C275" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9206,13 +9324,13 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B276" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="C276" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9229,13 +9347,13 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B277" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C277" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9252,13 +9370,13 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B278" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="C278" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9275,13 +9393,13 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="B279" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="C279" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9298,13 +9416,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B280" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="C280" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9321,13 +9439,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B281" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="C281" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9344,13 +9462,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="B282" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="C282" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -9367,13 +9485,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="B283" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="C283" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9390,13 +9508,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B284" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="C284" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -9413,13 +9531,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="B285" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="C285" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -9436,13 +9554,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B286" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="C286" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9459,13 +9577,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="B287" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="C287" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9482,13 +9600,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B288" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="C288" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9505,13 +9623,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B289" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="C289" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9528,13 +9646,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B290" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="C290" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9551,13 +9669,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="B291" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="C291" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9574,13 +9692,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="B292" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="C292" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9597,13 +9715,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="B293" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="C293" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -9620,13 +9738,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="B294" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="C294" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9643,13 +9761,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B295" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="C295" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9666,13 +9784,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="B296" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="C296" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9689,13 +9807,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B297" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="C297" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -9712,13 +9830,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B298" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="C298" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9735,13 +9853,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="B299" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="C299" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -9758,13 +9876,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="B300" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="C300" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -9781,13 +9899,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="B301" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="C301" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9804,13 +9922,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B302" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C302" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -9827,13 +9945,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="B303" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="C303" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -9850,13 +9968,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="B304" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="C304" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -9873,13 +9991,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="B305" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="C305" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -9896,13 +10014,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="B306" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="C306" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -9919,13 +10037,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="B307" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C307" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -9942,13 +10060,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B308" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="C308" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -9965,13 +10083,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="B309" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="C309" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -9988,13 +10106,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="B310" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C310" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10011,13 +10129,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="B311" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="C311" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -10034,13 +10152,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="B312" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="C312" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10057,13 +10175,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B313" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="C313" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10080,13 +10198,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="B314" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="C314" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10103,13 +10221,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="B315" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="C315" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10126,13 +10244,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="B316" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="C316" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10149,13 +10267,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="B317" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="C317" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10172,13 +10290,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="B318" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="C318" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10195,13 +10313,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="B319" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="C319" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10218,13 +10336,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="B320" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="C320" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10241,13 +10359,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="B321" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="C321" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10264,13 +10382,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="B322" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="C322" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10287,13 +10405,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="B323" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="C323" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10310,13 +10428,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="B324" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C324" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10333,13 +10451,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B325" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="C325" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10356,13 +10474,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="B326" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="C326" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10379,13 +10497,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="B327" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="C327" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17FBA61-CAAE-409B-8713-9C919D92FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E50306-E1A0-4689-BC80-E1FC74ED3BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="847">
   <si>
     <t>IN</t>
   </si>
@@ -828,6 +828,9 @@
     <t>process(clk_process) begin if rising_edge(clk_process) then TbClockA &lt;= not TbClockA; end if; end process;</t>
   </si>
   <si>
+    <t xml:space="preserve">Non fa quello specificato </t>
+  </si>
+  <si>
     <t>define a process FF_D sensitive to clock signal: on the rising edge of clock signal, if reset signal is high, set y signal to '0', otherwise set it to d</t>
   </si>
   <si>
@@ -843,6 +846,9 @@
     <t>clk_tb : in std_logic;</t>
   </si>
   <si>
+    <t>Non esegue nulla, dichiara solo</t>
+  </si>
+  <si>
     <t>on the rising edge of clk_in, if reset_n signal is high set temp variable to 25, set start_sig signal to '1', decrement the variable temp by one</t>
   </si>
   <si>
@@ -864,6 +870,9 @@
     <t>prova: process begin rst &lt;= '1'; wait for 100ns; rst &lt;='0'; input &lt;= '1'; wait for 100ns; input &lt;= '0'; end process;</t>
   </si>
   <si>
+    <t>Non fa l'ultimo set</t>
+  </si>
+  <si>
     <t>define a process sck_edge sensitive to clk_i that, on the rising edge of clk_i, if rst_n_i signal is low, set i_sck_cpy signal to '0', otherwise set it to i_scl</t>
   </si>
   <si>
@@ -879,6 +888,9 @@
     <t>signal t_rst_n : std_logic; i_start_counter &lt;= 0; t_start &lt;= '0'; t_stb &lt;= '0';</t>
   </si>
   <si>
+    <t>Non effettua l'IF</t>
+  </si>
+  <si>
     <t>set sda_o signal to i_sda when rst_n_i signal is high, otherwise set it to low</t>
   </si>
   <si>
@@ -909,6 +921,9 @@
     <t>gmiii.tx_dv &lt;= cnt_en when gmiio.tx_en = '1' else '1'; entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;; i_ldac &lt;= '1' when rst_n_i = '1' and i_ldac = '0' else '0';</t>
   </si>
   <si>
+    <t>Mi genera anche una ROM non richiesta</t>
+  </si>
+  <si>
     <t>Sequential logic: done_o is assigned i_done when rst_n_i is '1', otherwise, it is set to '0'.</t>
   </si>
   <si>
@@ -984,6 +999,9 @@
     <t>wait for 10 ns; wait for 5 ns; wait for 10 ns; wait for 5 ns; wait for 10 ns;</t>
   </si>
   <si>
+    <t>Non corrisponde proprio alla traccia</t>
+  </si>
+  <si>
     <t>A case statement is used with ra.raddr(2 downto 2) as the selector, where if the value of ra.raddr(2 downto 2) is '0', then rdata is assigned the first 128 bits of r.hrdata; otherwise, rdata is assigned the second 128 bits of r.hrdata.</t>
   </si>
   <si>
@@ -993,6 +1011,9 @@
     <t>case mcmmo.data(1 downto 0) is when "00" =&gt; rdata &lt;= r.hrdata(0); when "01" =&gt; rdata &lt;= r.hrdata(1); when "10" =&gt; rdata &lt;= r.hrdata(2); when "11" =&gt; rdata &lt;= r.hrdata(3); when others =&gt; rdata &lt;= (others =&gt; '0'); end case;</t>
   </si>
   <si>
+    <t xml:space="preserve">Non usa il nome specificato e fa una cosa diversa </t>
+  </si>
+  <si>
     <t>case statement on current_state with the cases idle, primo, secondo, terzo</t>
   </si>
   <si>
@@ -1095,6 +1116,9 @@
     <t>abox: data_in; data_out: out std_logic_vector(3 downto 0);</t>
   </si>
   <si>
+    <t>Definisce tutti e due i segnali come output</t>
+  </si>
+  <si>
     <t>cathodes_manager is a component with value as input std_logic_vector signal of 4 bit, dot as input std_logic signal, cathodes_dot as output std_logic_vector signal of 8 bit</t>
   </si>
   <si>
@@ -1104,6 +1128,9 @@
     <t>component value is port( value : in STD_LOGIC_VECTOR(3 downto 0); dot : in STD_LOGIC; cathodes_dot : out STD_LOGIC_VECTOR(7 downto 0); cathodes : out STD_LOGIC_VECTOR(7 downto 0)); end component;</t>
   </si>
   <si>
+    <t>Non definisce il componente</t>
+  </si>
+  <si>
     <t>cathodes_manager is a component with value as input std_logic_vector signal of 4 bit, dot as input std_logic signal, cathodes_dot as output std_logic_vector signal of 8 bit.</t>
   </si>
   <si>
@@ -1131,6 +1158,27 @@
     <t>component read_pointer is port(rptr: out std_logic_vector(4 downto 0); fifo_rd: out std_logic; clk: in std_logic; rst_n: in std_logic; rd: in std_logic; fifo_empty: in std_logic; data_out: out std_logic_vector(7 downto 0)); end component;</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ha incluso un parametro in più </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data_out: out std_logic_vector(7 downto 0)</t>
+    </r>
+  </si>
+  <si>
     <t>ROM is a component with RST, ADDR and DATA signals as described.</t>
   </si>
   <si>
@@ -1149,6 +1197,9 @@
     <t>ark: button_debouncer generic map ( clk_period =&gt; 10, btn_noise_time =&gt; 10000000) port map (rst, clock, btn_switch_display, t_switchdisplay, t_btn_display);</t>
   </si>
   <si>
+    <t>Il nome specificato non è corretto</t>
+  </si>
+  <si>
     <t>debouncer_plaintext_btn is an instance of button_debouncer with parameters clk_period set to 10, btn_noise_time set to 10000000 and signals rst, clock, btn_plainText_in, t_btn_plaintext are connected</t>
   </si>
   <si>
@@ -1158,6 +1209,9 @@
     <t>ark: button_debouncer generic map ( clk_period =&gt; 10, btn_noise_time =&gt; 10000000) port map (rst, clock, btn_plainText_in, t_btn_plainText); entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;</t>
   </si>
   <si>
+    <t>Il nome specificato non è corretto e ha creato una ROM a caso</t>
+  </si>
+  <si>
     <t>uut is an instance of Riconoscitore_Mealy with signal i mapped to signal i, CLK mapped to CLK, RST mapped to RST, Y mapped to Y</t>
   </si>
   <si>
@@ -1176,6 +1230,9 @@
     <t>sbox_inst : sbox port map (); component abox port (); end component</t>
   </si>
   <si>
+    <t>Ha aggiunto codice non richiesto</t>
+  </si>
+  <si>
     <t>input_mag is an instance of inputmanager with signals clock, rst, value_in t_btn_plainText, plaintext64.</t>
   </si>
   <si>
@@ -1209,6 +1266,27 @@
     <t>myFA_0: myFA port map(OP_A =&gt; OP_A_RCA(0), OP_B =&gt; OP_B_RCA(0), CIN =&gt; CIN_RCA, S =&gt; s_int(0), COUT =&gt; cout_int(0));</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ha sbagliato il nome </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(magari da discutere)</t>
+    </r>
+  </si>
+  <si>
     <t>debouncer is an instance of ButtonDebouncer with generics CLK_period set to 10, btn_noise_time set to 10000000, RST signal mapped to reset_n, CLK signal mapped to clock_in, BTN signal mapped to addr_strobe_in, CLEARED_BTN signal mapped to read_strobe</t>
   </si>
   <si>
@@ -1227,6 +1305,9 @@
     <t>an : divisore_frequenza;</t>
   </si>
   <si>
+    <t>Non ha messo i parametri ne completato il task</t>
+  </si>
+  <si>
     <t>wait until the signal clock becomes '1'</t>
   </si>
   <si>
@@ -1269,6 +1350,27 @@
     <t>constant count_nxt : std_logic_vector(6 downto 0) := "1000000";</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ha sbagliato il nome della costante </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( magari da discutere)</t>
+    </r>
+  </si>
+  <si>
     <t>define a constant called TbClockB of type time initialized to 40 ns</t>
   </si>
   <si>
@@ -1288,6 +1390,9 @@
   </si>
   <si>
     <t>constant LATCH_CNT : boolean := '0' report "Clatch not equal to 0" severity error when clatch /= 0;</t>
+  </si>
+  <si>
+    <t>Non Fa quello che gli ho chiesto</t>
   </si>
   <si>
     <t>n is a constant of type integer initialized to 1000</t>
@@ -2945,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5205,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>232</v>
       </c>
@@ -5228,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>234</v>
       </c>
@@ -5251,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -5274,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -5297,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>238</v>
       </c>
@@ -5320,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>240</v>
       </c>
@@ -5343,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>242</v>
       </c>
@@ -5366,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>244</v>
       </c>
@@ -5386,10 +5491,10 @@
         <v>0.99999218749999996</v>
       </c>
       <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>247</v>
       </c>
@@ -5411,16 +5516,19 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -5435,15 +5543,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5457,16 +5565,19 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5481,15 +5592,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5504,15 +5615,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5526,16 +5637,19 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5550,15 +5664,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B112" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5572,16 +5686,19 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5596,15 +5713,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5619,15 +5736,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5642,15 +5759,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C116" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5665,15 +5782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C117" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5687,16 +5804,19 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C118" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -5711,15 +5831,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B119" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5734,15 +5854,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5757,15 +5877,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C121" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5780,15 +5900,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -5803,15 +5923,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5823,18 +5943,18 @@
         <v>0.99999218749999996</v>
       </c>
       <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B124" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5849,15 +5969,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -5869,18 +5989,18 @@
         <v>0.99998321640763987</v>
       </c>
       <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C126" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5895,15 +6015,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B127" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -5918,15 +6038,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B128" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C128" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5940,16 +6060,19 @@
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B129" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5963,16 +6086,19 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C130" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -5984,18 +6110,18 @@
         <v>0.95322094451267159</v>
       </c>
       <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C131" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -6010,15 +6136,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B132" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C132" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6030,18 +6156,18 @@
         <v>0.60697115384615385</v>
       </c>
       <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C133" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -6056,15 +6182,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B134" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6079,15 +6205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C135" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -6102,15 +6228,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B136" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C136" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6125,15 +6251,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B137" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C137" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6148,15 +6274,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B138" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C138" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -6171,15 +6297,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B139" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6194,15 +6320,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B140" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6214,18 +6340,18 @@
         <v>0.94540816326530619</v>
       </c>
       <c r="G140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B141" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C141" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6240,15 +6366,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C142" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6263,15 +6389,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B143" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C143" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6286,15 +6412,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B144" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C144" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6308,16 +6434,19 @@
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B145" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C145" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6331,16 +6460,19 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B146" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C146" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6354,16 +6486,19 @@
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B147" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C147" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -6378,15 +6513,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B148" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C148" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6401,15 +6536,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B149" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C149" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6423,16 +6558,19 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B150" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6444,18 +6582,18 @@
         <v>0.96636907571752284</v>
       </c>
       <c r="G150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B151" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C151" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6469,16 +6607,19 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B152" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C152" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6492,16 +6633,19 @@
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B153" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C153" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6513,18 +6657,18 @@
         <v>0.96293556870479957</v>
       </c>
       <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B154" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C154" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6538,16 +6682,19 @@
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C155" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -6562,15 +6709,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B156" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C156" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -6582,18 +6729,18 @@
         <v>0.917730388035364</v>
       </c>
       <c r="G156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B157" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C157" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6607,16 +6754,19 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B158" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C158" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6630,16 +6780,19 @@
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C159" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6653,16 +6806,19 @@
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B160" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C160" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6676,16 +6832,19 @@
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B161" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C161" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6697,18 +6856,18 @@
         <v>0.82942097026604067</v>
       </c>
       <c r="G161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="B162" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C162" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6723,15 +6882,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B163" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C163" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6746,15 +6905,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B164" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C164" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6769,15 +6928,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B165" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C165" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6792,15 +6951,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B166" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C166" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6814,16 +6973,19 @@
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B167" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C167" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -6838,15 +7000,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="B168" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C168" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -6861,15 +7023,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B169" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C169" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -6883,16 +7045,19 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B170" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C170" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6907,15 +7072,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B171" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C171" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -6929,16 +7094,19 @@
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B172" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C172" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -6953,15 +7121,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B173" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="C173" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -6976,15 +7144,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B174" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C174" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -6999,15 +7167,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B175" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="C175" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7022,15 +7190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B176" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C176" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7047,7 +7215,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B177" t="s">
         <v>107</v>
@@ -7070,13 +7238,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B178" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C178" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7093,13 +7261,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B179" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C179" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7116,13 +7284,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B180" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C180" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7139,13 +7307,13 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B181" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="C181" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7162,13 +7330,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B182" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C182" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7185,13 +7353,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B183" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C183" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7208,13 +7376,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B184" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C184" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -7231,13 +7399,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="B185" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C185" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7254,13 +7422,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B186" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="C186" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7277,13 +7445,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="B187" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="C187" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7300,13 +7468,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="B188" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C188" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7323,13 +7491,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="B189" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C189" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7346,13 +7514,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="B190" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="C190" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7369,13 +7537,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="B191" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C191" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7392,13 +7560,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="B192" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="C192" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7415,13 +7583,13 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B193" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C193" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7438,13 +7606,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B194" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="C194" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7461,13 +7629,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="B195" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C195" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7484,13 +7652,13 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B196" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C196" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -7507,13 +7675,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="B197" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="C197" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7530,13 +7698,13 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B198" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C198" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7553,13 +7721,13 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="B199" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="C199" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7576,13 +7744,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B200" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="C200" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7599,13 +7767,13 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="B201" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="C201" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7622,13 +7790,13 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="B202" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="C202" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7645,13 +7813,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B203" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="C203" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7668,13 +7836,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B204" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="C204" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7691,13 +7859,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="B205" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="C205" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7714,13 +7882,13 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="B206" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="C206" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7737,13 +7905,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="B207" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="C207" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -7760,13 +7928,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="B208" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="C208" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7783,13 +7951,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="B209" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="C209" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -7806,13 +7974,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="B210" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="C210" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -7829,13 +7997,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="B211" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="C211" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7852,13 +8020,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B212" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="C212" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7875,13 +8043,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="B213" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="C213" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7898,13 +8066,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="B214" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C214" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -7921,13 +8089,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="B215" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="C215" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -7944,13 +8112,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="B216" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C216" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -7967,13 +8135,13 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="B217" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="C217" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -7990,13 +8158,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="B218" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="C218" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -8013,13 +8181,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="B219" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="C219" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8036,13 +8204,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="B220" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="C220" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8059,13 +8227,13 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="B221" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="C221" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -8082,13 +8250,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="B222" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="C222" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -8105,13 +8273,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="B223" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="C223" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8128,13 +8296,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="B224" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="C224" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8151,13 +8319,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="B225" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="C225" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8174,13 +8342,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="B226" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="C226" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8197,13 +8365,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="B227" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="C227" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8220,13 +8388,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="B228" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="C228" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8243,13 +8411,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="B229" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="C229" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8266,13 +8434,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="B230" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="C230" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8289,13 +8457,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="B231" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="C231" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8312,13 +8480,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="B232" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="C232" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8335,13 +8503,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="C233" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8358,13 +8526,13 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="B234" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="C234" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8381,13 +8549,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="B235" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C235" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8404,13 +8572,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="B236" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="C236" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8427,13 +8595,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="B237" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="C237" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8450,13 +8618,13 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="B238" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="C238" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8473,13 +8641,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="B239" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="C239" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8496,13 +8664,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="B240" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="C240" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8519,13 +8687,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="B241" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C241" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8542,13 +8710,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="B242" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="C242" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8565,13 +8733,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="B243" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="C243" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8588,13 +8756,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="B244" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="C244" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8611,13 +8779,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="B245" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="C245" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8634,13 +8802,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="B246" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="C246" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8657,13 +8825,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="B247" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="C247" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8680,13 +8848,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="B248" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="C248" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8703,13 +8871,13 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="B249" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="C249" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8726,13 +8894,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="B250" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="C250" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8749,13 +8917,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="B251" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="C251" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8772,13 +8940,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="B252" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="C252" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8795,13 +8963,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="B253" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="C253" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8818,13 +8986,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="B254" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="C254" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8841,13 +9009,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="B255" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="C255" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8864,13 +9032,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="B256" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="C256" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8887,13 +9055,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="B257" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="C257" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8910,13 +9078,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="B258" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8933,13 +9101,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="B259" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="C259" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8956,13 +9124,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="B260" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="C260" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8979,13 +9147,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="B261" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="C261" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9002,13 +9170,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="B262" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="C262" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9025,13 +9193,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="B263" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="C263" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9048,13 +9216,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="B264" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="C264" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9071,13 +9239,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="B265" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="C265" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9094,13 +9262,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="B266" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="C266" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9117,13 +9285,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="B267" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="C267" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9140,13 +9308,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="B268" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="C268" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9163,13 +9331,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="B269" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="C269" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9186,13 +9354,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="B270" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="C270" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9209,13 +9377,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="B271" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="C271" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9232,13 +9400,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="B272" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="C272" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9255,13 +9423,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="B273" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="C273" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9278,13 +9446,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="B274" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="C274" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9301,13 +9469,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="B275" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="C275" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9324,13 +9492,13 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="B276" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="C276" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9347,13 +9515,13 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="B277" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="C277" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9370,13 +9538,13 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="B278" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="C278" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9393,13 +9561,13 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="B279" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="C279" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9416,13 +9584,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="B280" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="C280" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9439,13 +9607,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="B281" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="C281" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9462,13 +9630,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="B282" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="C282" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -9485,13 +9653,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="B283" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="C283" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9508,13 +9676,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="B284" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="C284" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -9531,13 +9699,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="B285" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="C285" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -9554,13 +9722,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="B286" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C286" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9577,13 +9745,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="B287" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="C287" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9600,13 +9768,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="B288" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="C288" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9623,13 +9791,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="B289" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="C289" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9646,13 +9814,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="B290" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="C290" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9669,13 +9837,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="B291" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="C291" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9692,13 +9860,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="B292" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="C292" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9715,13 +9883,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="B293" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="C293" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -9738,13 +9906,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="B294" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="C294" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9761,13 +9929,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="B295" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="C295" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9784,13 +9952,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="B296" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="C296" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9807,13 +9975,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="B297" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="C297" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -9830,13 +9998,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="B298" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="C298" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9853,13 +10021,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="B299" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="C299" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -9876,13 +10044,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="B300" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="C300" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -9899,13 +10067,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="B301" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="C301" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9922,13 +10090,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="B302" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="C302" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -9945,13 +10113,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="B303" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="C303" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -9968,13 +10136,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="B304" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="C304" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -9991,13 +10159,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="B305" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="C305" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10014,13 +10182,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="B306" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="C306" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10037,13 +10205,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B307" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="C307" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10060,13 +10228,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="B308" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="C308" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10083,13 +10251,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="B309" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="C309" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10106,13 +10274,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="B310" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="C310" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10129,13 +10297,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="B311" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="C311" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -10152,13 +10320,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="B312" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="C312" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10175,13 +10343,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="B313" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="C313" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10198,13 +10366,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="B314" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="C314" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10221,13 +10389,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="B315" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="C315" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10244,13 +10412,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="B316" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="C316" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10267,13 +10435,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="B317" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="C317" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10290,13 +10458,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="B318" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="C318" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10313,13 +10481,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="B319" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="C319" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10336,13 +10504,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="B320" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="C320" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10359,13 +10527,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="B321" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="C321" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10382,13 +10550,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="B322" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="C322" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10405,13 +10573,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="B323" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="C323" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10428,13 +10596,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="B324" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="C324" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10451,13 +10619,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="B325" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="C325" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10474,13 +10642,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="B326" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
       <c r="C326" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10497,13 +10665,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="B327" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="C327" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E50306-E1A0-4689-BC80-E1FC74ED3BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF8E53A-9049-40B6-B21F-93F309FC189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="843">
   <si>
     <t>IN</t>
   </si>
@@ -1011,9 +1016,6 @@
     <t>case mcmmo.data(1 downto 0) is when "00" =&gt; rdata &lt;= r.hrdata(0); when "01" =&gt; rdata &lt;= r.hrdata(1); when "10" =&gt; rdata &lt;= r.hrdata(2); when "11" =&gt; rdata &lt;= r.hrdata(3); when others =&gt; rdata &lt;= (others =&gt; '0'); end case;</t>
   </si>
   <si>
-    <t xml:space="preserve">Non usa il nome specificato e fa una cosa diversa </t>
-  </si>
-  <si>
     <t>case statement on current_state with the cases idle, primo, secondo, terzo</t>
   </si>
   <si>
@@ -1158,27 +1160,6 @@
     <t>component read_pointer is port(rptr: out std_logic_vector(4 downto 0); fifo_rd: out std_logic; clk: in std_logic; rst_n: in std_logic; rd: in std_logic; fifo_empty: in std_logic; data_out: out std_logic_vector(7 downto 0)); end component;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ha incluso un parametro in più </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data_out: out std_logic_vector(7 downto 0)</t>
-    </r>
-  </si>
-  <si>
     <t>ROM is a component with RST, ADDR and DATA signals as described.</t>
   </si>
   <si>
@@ -1197,9 +1178,6 @@
     <t>ark: button_debouncer generic map ( clk_period =&gt; 10, btn_noise_time =&gt; 10000000) port map (rst, clock, btn_switch_display, t_switchdisplay, t_btn_display);</t>
   </si>
   <si>
-    <t>Il nome specificato non è corretto</t>
-  </si>
-  <si>
     <t>debouncer_plaintext_btn is an instance of button_debouncer with parameters clk_period set to 10, btn_noise_time set to 10000000 and signals rst, clock, btn_plainText_in, t_btn_plaintext are connected</t>
   </si>
   <si>
@@ -1266,27 +1244,6 @@
     <t>myFA_0: myFA port map(OP_A =&gt; OP_A_RCA(0), OP_B =&gt; OP_B_RCA(0), CIN =&gt; CIN_RCA, S =&gt; s_int(0), COUT =&gt; cout_int(0));</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ha sbagliato il nome </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(magari da discutere)</t>
-    </r>
-  </si>
-  <si>
     <t>debouncer is an instance of ButtonDebouncer with generics CLK_period set to 10, btn_noise_time set to 10000000, RST signal mapped to reset_n, CLK signal mapped to clock_in, BTN signal mapped to addr_strobe_in, CLEARED_BTN signal mapped to read_strobe</t>
   </si>
   <si>
@@ -1350,27 +1307,6 @@
     <t>constant count_nxt : std_logic_vector(6 downto 0) := "1000000";</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ha sbagliato il nome della costante </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>( magari da discutere)</t>
-    </r>
-  </si>
-  <si>
     <t>define a constant called TbClockB of type time initialized to 40 ns</t>
   </si>
   <si>
@@ -2671,13 +2607,16 @@
   </si>
   <si>
     <t>wait for 10 ns; cs_o : out std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fa una cosa diversa </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2739,16 +2678,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3048,19 +2988,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H327"/>
+  <dimension ref="A1:J327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="H171" sqref="H171"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3109,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3132,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3155,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3178,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3201,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3224,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3247,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3270,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3293,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3316,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3339,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3362,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -3385,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3408,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -3431,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3454,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3477,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -3500,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3523,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3546,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3569,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -3592,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -3615,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3638,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -3661,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -3687,7 +3627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3710,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -3733,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -3756,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -3779,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -3802,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -3825,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -3848,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -3871,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -3894,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3917,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -3940,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -3966,7 +3906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -3989,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -4012,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -4035,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -4058,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -4081,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -4104,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>111</v>
       </c>
@@ -4127,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -4150,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -4176,7 +4116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -4199,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -4222,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -4245,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -4268,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -4291,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -4314,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -4337,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -4360,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -4383,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -4406,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>140</v>
       </c>
@@ -4432,7 +4372,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -4458,7 +4398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -4481,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -4504,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -4527,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -4550,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>156</v>
       </c>
@@ -4573,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -4596,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -4622,7 +4562,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>163</v>
       </c>
@@ -4648,7 +4588,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -4671,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -4694,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -4717,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>175</v>
       </c>
@@ -4743,7 +4683,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -4766,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -4789,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -4815,7 +4755,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -4841,7 +4781,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>189</v>
       </c>
@@ -4864,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>191</v>
       </c>
@@ -4887,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>193</v>
       </c>
@@ -4913,7 +4853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>196</v>
       </c>
@@ -4936,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>197</v>
       </c>
@@ -4959,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>199</v>
       </c>
@@ -4985,7 +4925,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>203</v>
       </c>
@@ -5011,7 +4951,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>207</v>
       </c>
@@ -5034,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -5057,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>211</v>
       </c>
@@ -5080,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>213</v>
       </c>
@@ -5103,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -5126,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>217</v>
       </c>
@@ -5149,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>219</v>
       </c>
@@ -5172,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>221</v>
       </c>
@@ -5195,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -5218,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>219</v>
       </c>
@@ -5241,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>226</v>
       </c>
@@ -5264,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>228</v>
       </c>
@@ -5287,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>230</v>
       </c>
@@ -5310,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>232</v>
       </c>
@@ -5333,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>234</v>
       </c>
@@ -5356,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -5379,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -5402,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>238</v>
       </c>
@@ -5425,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>240</v>
       </c>
@@ -5448,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>242</v>
       </c>
@@ -5471,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>244</v>
       </c>
@@ -5494,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>247</v>
       </c>
@@ -5520,7 +5460,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>251</v>
       </c>
@@ -5543,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>253</v>
       </c>
@@ -5569,7 +5509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>257</v>
       </c>
@@ -5592,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>259</v>
       </c>
@@ -5615,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>261</v>
       </c>
@@ -5641,7 +5581,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>265</v>
       </c>
@@ -5664,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>267</v>
       </c>
@@ -5690,7 +5630,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>265</v>
       </c>
@@ -5713,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -5736,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>273</v>
       </c>
@@ -5759,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -5782,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>278</v>
       </c>
@@ -5808,7 +5748,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>282</v>
       </c>
@@ -5831,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>284</v>
       </c>
@@ -5854,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -5877,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>288</v>
       </c>
@@ -5900,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>289</v>
       </c>
@@ -5923,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>291</v>
       </c>
@@ -5946,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>294</v>
       </c>
@@ -5969,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>297</v>
       </c>
@@ -5992,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>300</v>
       </c>
@@ -6015,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>302</v>
       </c>
@@ -6038,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>304</v>
       </c>
@@ -6064,7 +6004,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>308</v>
       </c>
@@ -6087,18 +6027,18 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>312</v>
       </c>
       <c r="B130" t="s">
         <v>290</v>
       </c>
       <c r="C130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6113,15 +6053,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>313</v>
+      </c>
+      <c r="B131" t="s">
         <v>314</v>
       </c>
-      <c r="B131" t="s">
-        <v>315</v>
-      </c>
       <c r="C131" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -6136,15 +6076,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>315</v>
+      </c>
+      <c r="B132" t="s">
         <v>316</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>317</v>
-      </c>
-      <c r="C132" t="s">
-        <v>318</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6159,15 +6099,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>318</v>
+      </c>
+      <c r="B133" t="s">
         <v>319</v>
       </c>
-      <c r="B133" t="s">
-        <v>320</v>
-      </c>
       <c r="C133" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -6182,15 +6122,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>320</v>
+      </c>
+      <c r="B134" t="s">
         <v>321</v>
       </c>
-      <c r="B134" t="s">
-        <v>322</v>
-      </c>
       <c r="C134" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6205,15 +6145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>322</v>
+      </c>
+      <c r="B135" t="s">
         <v>323</v>
       </c>
-      <c r="B135" t="s">
-        <v>324</v>
-      </c>
       <c r="C135" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -6228,15 +6168,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>324</v>
+      </c>
+      <c r="B136" t="s">
         <v>325</v>
       </c>
-      <c r="B136" t="s">
-        <v>326</v>
-      </c>
       <c r="C136" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6251,15 +6191,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>326</v>
+      </c>
+      <c r="B137" t="s">
         <v>327</v>
       </c>
-      <c r="B137" t="s">
-        <v>328</v>
-      </c>
       <c r="C137" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6274,15 +6214,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>328</v>
+      </c>
+      <c r="B138" t="s">
         <v>329</v>
       </c>
-      <c r="B138" t="s">
-        <v>330</v>
-      </c>
       <c r="C138" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -6297,15 +6237,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>330</v>
+      </c>
+      <c r="B139" t="s">
         <v>331</v>
       </c>
-      <c r="B139" t="s">
-        <v>332</v>
-      </c>
       <c r="C139" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6320,15 +6260,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>332</v>
+      </c>
+      <c r="B140" t="s">
         <v>333</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>334</v>
-      </c>
-      <c r="C140" t="s">
-        <v>335</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6343,15 +6283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>335</v>
+      </c>
+      <c r="B141" t="s">
         <v>336</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>337</v>
-      </c>
-      <c r="C141" t="s">
-        <v>338</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6366,15 +6306,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>338</v>
+      </c>
+      <c r="B142" t="s">
         <v>339</v>
       </c>
-      <c r="B142" t="s">
-        <v>340</v>
-      </c>
       <c r="C142" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6389,15 +6329,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>340</v>
+      </c>
+      <c r="B143" t="s">
         <v>341</v>
       </c>
-      <c r="B143" t="s">
-        <v>342</v>
-      </c>
       <c r="C143" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6412,15 +6352,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>342</v>
+      </c>
+      <c r="B144" t="s">
         <v>343</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>344</v>
-      </c>
-      <c r="C144" t="s">
-        <v>345</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6435,18 +6375,18 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
         <v>347</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>348</v>
-      </c>
-      <c r="C145" t="s">
-        <v>349</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6461,18 +6401,18 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
+        <v>347</v>
+      </c>
+      <c r="C146" t="s">
         <v>351</v>
-      </c>
-      <c r="B146" t="s">
-        <v>348</v>
-      </c>
-      <c r="C146" t="s">
-        <v>352</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6487,18 +6427,18 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>352</v>
+      </c>
+      <c r="B147" t="s">
         <v>353</v>
       </c>
-      <c r="B147" t="s">
-        <v>354</v>
-      </c>
       <c r="C147" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -6513,15 +6453,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>354</v>
+      </c>
+      <c r="B148" t="s">
         <v>355</v>
       </c>
-      <c r="B148" t="s">
-        <v>356</v>
-      </c>
       <c r="C148" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6536,15 +6476,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>356</v>
+      </c>
+      <c r="B149" t="s">
         <v>357</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>358</v>
-      </c>
-      <c r="C149" t="s">
-        <v>359</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6556,21 +6496,19 @@
         <v>0.80949560282017985</v>
       </c>
       <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>359</v>
+      </c>
+      <c r="B150" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
+      <c r="C150" t="s">
         <v>361</v>
-      </c>
-      <c r="B150" t="s">
-        <v>362</v>
-      </c>
-      <c r="C150" t="s">
-        <v>363</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6584,16 +6522,17 @@
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>362</v>
+      </c>
+      <c r="B151" t="s">
+        <v>363</v>
+      </c>
+      <c r="C151" t="s">
         <v>364</v>
-      </c>
-      <c r="B151" t="s">
-        <v>365</v>
-      </c>
-      <c r="C151" t="s">
-        <v>366</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6605,21 +6544,18 @@
         <v>0.93312513984959478</v>
       </c>
       <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>365</v>
+      </c>
+      <c r="B152" t="s">
+        <v>366</v>
+      </c>
+      <c r="C152" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" t="s">
-        <v>368</v>
-      </c>
-      <c r="B152" t="s">
-        <v>369</v>
-      </c>
-      <c r="C152" t="s">
-        <v>370</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6634,18 +6570,18 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>369</v>
+      </c>
+      <c r="B153" t="s">
+        <v>370</v>
+      </c>
+      <c r="C153" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
-        <v>372</v>
-      </c>
-      <c r="B153" t="s">
-        <v>373</v>
-      </c>
-      <c r="C153" t="s">
-        <v>374</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6660,15 +6596,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B154" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C154" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6683,18 +6619,18 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B155" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C155" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -6709,15 +6645,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B156" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C156" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -6732,15 +6668,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B157" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C157" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6755,18 +6691,18 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B158" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C158" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6778,21 +6714,19 @@
         <v>0.9772665814445155</v>
       </c>
       <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B159" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C159" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6804,21 +6738,19 @@
         <v>0.57802325581395353</v>
       </c>
       <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>394</v>
-      </c>
       <c r="B160" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C160" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6833,18 +6765,18 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B161" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C161" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6859,15 +6791,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B162" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C162" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6882,15 +6814,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B163" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C163" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6905,15 +6837,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B164" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C164" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6928,15 +6860,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B165" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C165" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6951,15 +6883,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B166" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C166" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6971,21 +6903,19 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B167" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C167" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -7000,15 +6930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B168" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C168" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -7023,15 +6953,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B169" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C169" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -7046,18 +6976,18 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B170" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C170" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -7072,15 +7002,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B171" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C171" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -7092,21 +7022,19 @@
         <v>0.88194444444444442</v>
       </c>
       <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B172" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C172" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7121,15 +7049,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B173" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C173" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -7144,15 +7072,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B174" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C174" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -7167,15 +7095,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B175" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C175" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7190,15 +7118,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B176" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C176" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7213,9 +7141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B177" t="s">
         <v>107</v>
@@ -7236,15 +7164,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B178" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C178" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7259,15 +7187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B179" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C179" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7282,15 +7210,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B180" t="s">
+        <v>434</v>
+      </c>
+      <c r="C180" t="s">
         <v>439</v>
-      </c>
-      <c r="C180" t="s">
-        <v>444</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7305,15 +7233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B181" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C181" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7328,15 +7256,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B182" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C182" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7351,15 +7279,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B183" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C183" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7374,15 +7302,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B184" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C184" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -7397,15 +7325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C185" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7420,15 +7348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B186" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C186" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7443,15 +7371,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B187" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C187" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7466,15 +7394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B188" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C188" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7489,15 +7417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B189" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C189" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7512,15 +7440,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B190" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C190" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7535,15 +7463,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B191" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C191" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7558,15 +7486,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B192" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C192" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7581,15 +7509,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B193" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C193" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7604,15 +7532,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B194" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C194" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7627,15 +7555,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B195" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C195" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7650,15 +7578,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B196" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C196" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -7673,15 +7601,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B197" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C197" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7696,15 +7624,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B198" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C198" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7719,15 +7647,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B199" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C199" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7742,15 +7670,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B200" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C200" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7765,15 +7693,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B201" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C201" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7788,15 +7716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B202" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C202" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7811,15 +7739,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B203" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C203" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7834,15 +7762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B204" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C204" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7857,15 +7785,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B205" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C205" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7880,15 +7808,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B206" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C206" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7903,15 +7831,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B207" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C207" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -7926,15 +7854,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B208" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C208" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7949,15 +7877,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B209" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C209" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -7972,15 +7900,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B210" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C210" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -7995,15 +7923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B211" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C211" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -8018,15 +7946,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B212" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C212" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -8041,15 +7969,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B213" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C213" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -8064,15 +7992,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B214" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C214" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -8087,15 +8015,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B215" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C215" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -8110,15 +8038,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B216" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C216" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -8133,15 +8061,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B217" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C217" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -8156,15 +8084,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B218" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C218" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -8179,15 +8107,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B219" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C219" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8202,15 +8130,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B220" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C220" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8225,15 +8153,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B221" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C221" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -8248,15 +8176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B222" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C222" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -8271,15 +8199,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B223" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C223" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8294,15 +8222,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B224" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C224" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8317,15 +8245,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B225" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C225" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8340,15 +8268,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B226" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C226" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8363,15 +8291,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B227" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C227" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8386,15 +8314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B228" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C228" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8409,15 +8337,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B229" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C229" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8432,15 +8360,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B230" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C230" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8455,15 +8383,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B231" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C231" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8478,15 +8406,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B232" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C232" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8501,15 +8429,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B233" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C233" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8524,15 +8452,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B234" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C234" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8547,15 +8475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B235" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C235" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8570,15 +8498,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B236" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C236" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8593,15 +8521,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B237" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C237" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8616,15 +8544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B238" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C238" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8639,15 +8567,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B239" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C239" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8662,15 +8590,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B240" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C240" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8685,15 +8613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B241" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C241" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8708,15 +8636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B242" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C242" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8731,15 +8659,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B243" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C243" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8754,15 +8682,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B244" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C244" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8777,15 +8705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B245" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C245" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8800,15 +8728,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B246" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C246" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8823,15 +8751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B247" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C247" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8846,15 +8774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B248" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C248" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8869,15 +8797,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B249" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C249" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8892,15 +8820,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B250" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C250" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8915,15 +8843,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B251" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C251" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8938,15 +8866,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B252" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C252" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8961,15 +8889,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B253" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C253" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8984,15 +8912,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B254" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C254" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -9007,15 +8935,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B255" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C255" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -9030,15 +8958,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B256" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C256" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -9053,15 +8981,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B257" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C257" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -9076,15 +9004,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B258" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C258" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -9099,15 +9027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B259" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C259" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9122,15 +9050,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B260" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C260" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9145,15 +9073,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B261" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C261" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9168,15 +9096,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B262" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C262" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9191,15 +9119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B263" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C263" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9214,15 +9142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B264" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C264" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9237,15 +9165,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B265" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C265" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9260,15 +9188,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B266" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C266" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9283,15 +9211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B267" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C267" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9306,15 +9234,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B268" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C268" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9329,15 +9257,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B269" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C269" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9352,15 +9280,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B270" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C270" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9375,15 +9303,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B271" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C271" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9398,15 +9326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B272" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C272" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9421,15 +9349,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B273" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C273" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9444,15 +9372,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B274" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C274" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9467,15 +9395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B275" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C275" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9490,15 +9418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B276" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C276" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9513,15 +9441,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B277" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C277" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9536,15 +9464,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B278" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C278" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9559,15 +9487,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B279" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C279" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9582,15 +9510,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B280" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C280" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9605,15 +9533,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B281" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C281" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9628,15 +9556,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B282" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C282" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -9651,15 +9579,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B283" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C283" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9674,15 +9602,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B284" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C284" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -9697,15 +9625,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B285" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C285" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -9720,15 +9648,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B286" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C286" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9743,15 +9671,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B287" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C287" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9766,15 +9694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B288" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C288" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9789,15 +9717,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B289" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C289" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9812,15 +9740,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B290" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C290" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9835,15 +9763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B291" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C291" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9858,15 +9786,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B292" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C292" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9881,15 +9809,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B293" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C293" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -9904,15 +9832,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B294" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C294" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9927,15 +9855,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B295" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C295" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9950,15 +9878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B296" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C296" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9973,15 +9901,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B297" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C297" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -9996,15 +9924,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B298" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C298" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10019,15 +9947,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B299" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C299" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -10042,15 +9970,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B300" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C300" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -10065,15 +9993,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B301" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C301" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10088,15 +10016,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B302" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C302" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10111,15 +10039,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B303" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C303" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10134,15 +10062,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B304" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C304" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10157,15 +10085,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B305" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C305" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10180,15 +10108,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B306" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C306" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10203,15 +10131,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B307" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C307" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10226,15 +10154,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B308" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C308" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10249,15 +10177,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B309" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C309" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10272,15 +10200,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B310" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C310" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10295,15 +10223,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B311" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C311" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -10318,15 +10246,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B312" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C312" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10341,15 +10269,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B313" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C313" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10364,15 +10292,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B314" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C314" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10387,15 +10315,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B315" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C315" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10410,15 +10338,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B316" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C316" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10433,15 +10361,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B317" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C317" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10456,15 +10384,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B318" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C318" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10479,15 +10407,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B319" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C319" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10502,15 +10430,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B320" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C320" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10525,15 +10453,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B321" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C321" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10548,15 +10476,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B322" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C322" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10571,15 +10499,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B323" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C323" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10594,15 +10522,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B324" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C324" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10617,15 +10545,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B325" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C325" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10640,15 +10568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B326" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C326" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10663,15 +10591,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B327" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C327" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -10688,5 +10616,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF8E53A-9049-40B6-B21F-93F309FC189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33E729B-A9B8-49B2-B922-8F88DDC7D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="842">
   <si>
     <t>IN</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>architecture behavioral of inputmanager is begin end behavioral;</t>
-  </si>
-  <si>
-    <t>Assegno zero perchè il nome non corrisponde a quello che ho richiesto</t>
   </si>
   <si>
     <t>my_arch is the architecture of cypher_layer</t>
@@ -1016,6 +1013,9 @@
     <t>case mcmmo.data(1 downto 0) is when "00" =&gt; rdata &lt;= r.hrdata(0); when "01" =&gt; rdata &lt;= r.hrdata(1); when "10" =&gt; rdata &lt;= r.hrdata(2); when "11" =&gt; rdata &lt;= r.hrdata(3); when others =&gt; rdata &lt;= (others =&gt; '0'); end case;</t>
   </si>
   <si>
+    <t xml:space="preserve">Fa una cosa diversa </t>
+  </si>
+  <si>
     <t>case statement on current_state with the cases idle, primo, secondo, terzo</t>
   </si>
   <si>
@@ -2607,16 +2607,13 @@
   </si>
   <si>
     <t>wait for 10 ns; cs_o : out std_logic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fa una cosa diversa </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2678,17 +2675,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2988,19 +2984,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J327"/>
+  <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="63.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3049,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3072,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3118,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3141,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3164,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3187,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3210,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3233,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3256,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3279,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3302,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -3325,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3348,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -3371,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3394,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3463,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3486,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3509,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -3555,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3578,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -3601,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -3621,21 +3617,18 @@
         <v>0.74716553287981857</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3650,15 +3643,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3673,15 +3666,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3696,15 +3689,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
         <v>78</v>
       </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3719,15 +3712,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3742,15 +3735,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3765,15 +3758,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3788,15 +3781,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3811,15 +3804,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3834,15 +3827,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3857,15 +3850,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3880,15 +3873,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3903,18 +3896,18 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3929,15 +3922,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3952,15 +3945,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3975,15 +3968,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3998,15 +3991,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
         <v>106</v>
       </c>
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4021,15 +4014,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>109</v>
-      </c>
-      <c r="C45" t="s">
-        <v>110</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4044,15 +4037,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4067,15 +4060,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
         <v>113</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4090,15 +4083,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
         <v>116</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>117</v>
-      </c>
-      <c r="C48" t="s">
-        <v>118</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4113,18 +4106,18 @@
         <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>120</v>
       </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4139,15 +4132,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
         <v>122</v>
       </c>
-      <c r="B50" t="s">
-        <v>123</v>
-      </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4162,15 +4155,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
         <v>124</v>
       </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4185,15 +4178,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" t="s">
-        <v>127</v>
-      </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4208,15 +4201,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
         <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" t="s">
-        <v>129</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4231,15 +4224,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" t="s">
-        <v>131</v>
-      </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4254,15 +4247,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
         <v>132</v>
       </c>
-      <c r="B55" t="s">
-        <v>133</v>
-      </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4277,15 +4270,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
         <v>134</v>
       </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4300,15 +4293,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
         <v>136</v>
       </c>
-      <c r="B57" t="s">
-        <v>137</v>
-      </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4323,15 +4316,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
         <v>138</v>
       </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4346,15 +4339,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
         <v>140</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>141</v>
-      </c>
-      <c r="C59" t="s">
-        <v>142</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4369,18 +4362,18 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>144</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>145</v>
-      </c>
-      <c r="C60" t="s">
-        <v>146</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4395,18 +4388,18 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>148</v>
       </c>
-      <c r="B61" t="s">
-        <v>149</v>
-      </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4421,15 +4414,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
         <v>150</v>
       </c>
-      <c r="B62" t="s">
-        <v>151</v>
-      </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4444,15 +4437,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" t="s">
         <v>152</v>
       </c>
-      <c r="B63" t="s">
-        <v>153</v>
-      </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4467,15 +4460,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
         <v>154</v>
       </c>
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4490,15 +4483,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4513,15 +4506,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" t="s">
         <v>157</v>
       </c>
-      <c r="B66" t="s">
-        <v>158</v>
-      </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4536,15 +4529,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
         <v>159</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>160</v>
-      </c>
-      <c r="C67" t="s">
-        <v>161</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4559,18 +4552,18 @@
         <v>0</v>
       </c>
       <c r="H67" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>163</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>164</v>
-      </c>
-      <c r="C68" t="s">
-        <v>165</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4585,18 +4578,18 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>167</v>
       </c>
-      <c r="B69" t="s">
-        <v>168</v>
-      </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -4611,15 +4604,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
         <v>169</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>170</v>
-      </c>
-      <c r="C70" t="s">
-        <v>171</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4634,15 +4627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
         <v>172</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>173</v>
-      </c>
-      <c r="C71" t="s">
-        <v>174</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4657,15 +4650,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
         <v>175</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>176</v>
-      </c>
-      <c r="C72" t="s">
-        <v>177</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4680,18 +4673,18 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>179</v>
       </c>
-      <c r="B73" t="s">
-        <v>180</v>
-      </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4706,15 +4699,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
         <v>181</v>
       </c>
-      <c r="B74" t="s">
-        <v>182</v>
-      </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4729,15 +4722,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" t="s">
         <v>183</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>184</v>
-      </c>
-      <c r="C75" t="s">
-        <v>185</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4752,18 +4745,18 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" t="s">
         <v>187</v>
-      </c>
-      <c r="B76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" t="s">
-        <v>188</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4778,18 +4771,18 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" t="s">
         <v>189</v>
       </c>
-      <c r="B77" t="s">
-        <v>190</v>
-      </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -4804,15 +4797,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" t="s">
         <v>191</v>
       </c>
-      <c r="B78" t="s">
-        <v>192</v>
-      </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4827,15 +4820,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" t="s">
         <v>193</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>194</v>
-      </c>
-      <c r="C79" t="s">
-        <v>195</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4850,18 +4843,18 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" t="s">
         <v>176</v>
-      </c>
-      <c r="C80" t="s">
-        <v>177</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4876,15 +4869,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
         <v>197</v>
       </c>
-      <c r="B81" t="s">
-        <v>198</v>
-      </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4899,15 +4892,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" t="s">
         <v>199</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>200</v>
-      </c>
-      <c r="C82" t="s">
-        <v>201</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4922,18 +4915,18 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>203</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>204</v>
-      </c>
-      <c r="C83" t="s">
-        <v>205</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4948,18 +4941,18 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>207</v>
       </c>
-      <c r="B84" t="s">
-        <v>208</v>
-      </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4974,15 +4967,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" t="s">
         <v>209</v>
       </c>
-      <c r="B85" t="s">
-        <v>210</v>
-      </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4997,15 +4990,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" t="s">
         <v>211</v>
       </c>
-      <c r="B86" t="s">
-        <v>212</v>
-      </c>
       <c r="C86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5020,15 +5013,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" t="s">
         <v>213</v>
       </c>
-      <c r="B87" t="s">
-        <v>214</v>
-      </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5043,15 +5036,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" t="s">
         <v>215</v>
       </c>
-      <c r="B88" t="s">
-        <v>216</v>
-      </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5066,15 +5059,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" t="s">
         <v>217</v>
       </c>
-      <c r="B89" t="s">
-        <v>218</v>
-      </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -5089,15 +5082,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
+        <v>218</v>
+      </c>
+      <c r="B90" t="s">
         <v>219</v>
       </c>
-      <c r="B90" t="s">
-        <v>220</v>
-      </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -5112,15 +5105,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" t="s">
         <v>221</v>
       </c>
-      <c r="B91" t="s">
-        <v>222</v>
-      </c>
       <c r="C91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -5135,15 +5128,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" t="s">
         <v>223</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>224</v>
-      </c>
-      <c r="C92" t="s">
-        <v>225</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5158,15 +5151,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" t="s">
         <v>219</v>
       </c>
-      <c r="B93" t="s">
-        <v>220</v>
-      </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5181,15 +5174,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94" t="s">
         <v>226</v>
       </c>
-      <c r="B94" t="s">
-        <v>227</v>
-      </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5204,15 +5197,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" t="s">
         <v>228</v>
       </c>
-      <c r="B95" t="s">
-        <v>229</v>
-      </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5227,15 +5220,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" t="s">
         <v>230</v>
       </c>
-      <c r="B96" t="s">
-        <v>231</v>
-      </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5250,15 +5243,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" t="s">
         <v>232</v>
       </c>
-      <c r="B97" t="s">
-        <v>233</v>
-      </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -5273,15 +5266,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5296,15 +5289,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5319,15 +5312,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" t="s">
         <v>236</v>
       </c>
-      <c r="B100" t="s">
-        <v>237</v>
-      </c>
       <c r="C100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5342,15 +5335,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" t="s">
         <v>238</v>
       </c>
-      <c r="B101" t="s">
-        <v>239</v>
-      </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -5365,15 +5358,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
+        <v>239</v>
+      </c>
+      <c r="B102" t="s">
         <v>240</v>
       </c>
-      <c r="B102" t="s">
-        <v>241</v>
-      </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5388,15 +5381,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" t="s">
         <v>242</v>
       </c>
-      <c r="B103" t="s">
-        <v>243</v>
-      </c>
       <c r="C103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5411,15 +5404,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" t="s">
         <v>244</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>245</v>
-      </c>
-      <c r="C104" t="s">
-        <v>246</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5434,15 +5427,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" t="s">
         <v>247</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>248</v>
-      </c>
-      <c r="C105" t="s">
-        <v>249</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5457,18 +5450,18 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>251</v>
       </c>
-      <c r="B106" t="s">
-        <v>252</v>
-      </c>
       <c r="C106" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -5483,15 +5476,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
+        <v>252</v>
+      </c>
+      <c r="B107" t="s">
         <v>253</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>254</v>
-      </c>
-      <c r="C107" t="s">
-        <v>255</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5506,18 +5499,18 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
         <v>257</v>
       </c>
-      <c r="B108" t="s">
-        <v>258</v>
-      </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5532,15 +5525,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
+        <v>258</v>
+      </c>
+      <c r="B109" t="s">
         <v>259</v>
       </c>
-      <c r="B109" t="s">
-        <v>260</v>
-      </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5555,15 +5548,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
+        <v>260</v>
+      </c>
+      <c r="B110" t="s">
         <v>261</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>262</v>
-      </c>
-      <c r="C110" t="s">
-        <v>263</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5578,18 +5571,18 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
         <v>265</v>
       </c>
-      <c r="B111" t="s">
-        <v>266</v>
-      </c>
       <c r="C111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5604,15 +5597,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" t="s">
         <v>267</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>268</v>
-      </c>
-      <c r="C112" t="s">
-        <v>269</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5627,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
+        <v>264</v>
+      </c>
+      <c r="B113" t="s">
         <v>265</v>
       </c>
-      <c r="B113" t="s">
-        <v>266</v>
-      </c>
       <c r="C113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5653,15 +5646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" t="s">
         <v>271</v>
       </c>
-      <c r="B114" t="s">
-        <v>272</v>
-      </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5676,15 +5669,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" t="s">
         <v>273</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>274</v>
-      </c>
-      <c r="C115" t="s">
-        <v>275</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5699,15 +5692,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" t="s">
         <v>276</v>
       </c>
-      <c r="B116" t="s">
-        <v>277</v>
-      </c>
       <c r="C116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5722,15 +5715,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
         <v>278</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>279</v>
-      </c>
-      <c r="C117" t="s">
-        <v>280</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5745,18 +5738,18 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>282</v>
       </c>
-      <c r="B118" t="s">
-        <v>283</v>
-      </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -5771,15 +5764,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
+        <v>283</v>
+      </c>
+      <c r="B119" t="s">
         <v>284</v>
       </c>
-      <c r="B119" t="s">
-        <v>285</v>
-      </c>
       <c r="C119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5794,15 +5787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" t="s">
         <v>286</v>
       </c>
-      <c r="B120" t="s">
-        <v>287</v>
-      </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5817,15 +5810,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C121" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5840,15 +5833,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" t="s">
         <v>289</v>
       </c>
-      <c r="B122" t="s">
-        <v>290</v>
-      </c>
       <c r="C122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -5863,15 +5856,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123" t="s">
         <v>291</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>292</v>
-      </c>
-      <c r="C123" t="s">
-        <v>293</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5886,15 +5879,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
+        <v>293</v>
+      </c>
+      <c r="B124" t="s">
         <v>294</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>295</v>
-      </c>
-      <c r="C124" t="s">
-        <v>296</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5909,15 +5902,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
+        <v>296</v>
+      </c>
+      <c r="B125" t="s">
         <v>297</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>298</v>
-      </c>
-      <c r="C125" t="s">
-        <v>299</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -5932,15 +5925,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" t="s">
         <v>300</v>
       </c>
-      <c r="B126" t="s">
-        <v>301</v>
-      </c>
       <c r="C126" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5955,15 +5948,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" t="s">
         <v>302</v>
       </c>
-      <c r="B127" t="s">
-        <v>303</v>
-      </c>
       <c r="C127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -5978,15 +5971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" t="s">
         <v>304</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>305</v>
-      </c>
-      <c r="C128" t="s">
-        <v>306</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6001,18 +5994,18 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
         <v>308</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>309</v>
-      </c>
-      <c r="C129" t="s">
-        <v>310</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6027,15 +6020,15 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>311</v>
       </c>
       <c r="B130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C130" t="s">
         <v>312</v>
@@ -6053,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>313</v>
       </c>
@@ -6076,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -6099,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>318</v>
       </c>
@@ -6122,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>320</v>
       </c>
@@ -6145,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>322</v>
       </c>
@@ -6168,7 +6161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>324</v>
       </c>
@@ -6191,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>326</v>
       </c>
@@ -6214,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>328</v>
       </c>
@@ -6237,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>330</v>
       </c>
@@ -6260,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -6283,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>335</v>
       </c>
@@ -6306,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>338</v>
       </c>
@@ -6329,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -6352,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>342</v>
       </c>
@@ -6378,7 +6371,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>346</v>
       </c>
@@ -6404,7 +6397,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>350</v>
       </c>
@@ -6430,7 +6423,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>352</v>
       </c>
@@ -6453,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>354</v>
       </c>
@@ -6476,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>356</v>
       </c>
@@ -6500,7 +6493,7 @@
       </c>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>359</v>
       </c>
@@ -6522,9 +6515,8 @@
       <c r="G150">
         <v>1</v>
       </c>
-      <c r="J150" s="4"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>362</v>
       </c>
@@ -6547,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>365</v>
       </c>
@@ -6573,7 +6565,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>369</v>
       </c>
@@ -6596,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>372</v>
       </c>
@@ -6622,7 +6614,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -6645,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>378</v>
       </c>
@@ -6668,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>381</v>
       </c>
@@ -6694,7 +6686,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>384</v>
       </c>
@@ -6718,7 +6710,7 @@
       </c>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>387</v>
       </c>
@@ -6742,7 +6734,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>390</v>
       </c>
@@ -6768,7 +6760,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>394</v>
       </c>
@@ -6791,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>397</v>
       </c>
@@ -6814,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>399</v>
       </c>
@@ -6837,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>401</v>
       </c>
@@ -6860,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>403</v>
       </c>
@@ -6883,7 +6875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>405</v>
       </c>
@@ -6907,7 +6899,7 @@
       </c>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>408</v>
       </c>
@@ -6930,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>410</v>
       </c>
@@ -6953,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>412</v>
       </c>
@@ -6979,7 +6971,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>416</v>
       </c>
@@ -7002,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>418</v>
       </c>
@@ -7026,7 +7018,7 @@
       </c>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>421</v>
       </c>
@@ -7049,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>422</v>
       </c>
@@ -7072,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>424</v>
       </c>
@@ -7095,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>426</v>
       </c>
@@ -7118,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>429</v>
       </c>
@@ -7141,15 +7133,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>432</v>
       </c>
       <c r="B177" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C177" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -7164,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>433</v>
       </c>
@@ -7187,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>436</v>
       </c>
@@ -7210,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>438</v>
       </c>
@@ -7233,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>440</v>
       </c>
@@ -7256,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>443</v>
       </c>
@@ -7279,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>446</v>
       </c>
@@ -7302,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>448</v>
       </c>
@@ -7325,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>450</v>
       </c>
@@ -7348,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>453</v>
       </c>
@@ -7371,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>456</v>
       </c>
@@ -7394,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>459</v>
       </c>
@@ -7417,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>462</v>
       </c>
@@ -7440,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>465</v>
       </c>
@@ -7463,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>467</v>
       </c>
@@ -7486,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>469</v>
       </c>
@@ -7509,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>471</v>
       </c>
@@ -7532,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>474</v>
       </c>
@@ -7555,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>476</v>
       </c>
@@ -7578,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>479</v>
       </c>
@@ -7601,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>482</v>
       </c>
@@ -7624,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>485</v>
       </c>
@@ -7647,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>487</v>
       </c>
@@ -7670,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>490</v>
       </c>
@@ -7693,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>493</v>
       </c>
@@ -7716,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>496</v>
       </c>
@@ -7739,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>499</v>
       </c>
@@ -7762,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>502</v>
       </c>
@@ -7785,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>504</v>
       </c>
@@ -7808,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>506</v>
       </c>
@@ -7831,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>509</v>
       </c>
@@ -7854,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>510</v>
       </c>
@@ -7877,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>512</v>
       </c>
@@ -7900,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>514</v>
       </c>
@@ -7923,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>517</v>
       </c>
@@ -7946,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>519</v>
       </c>
@@ -7969,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>521</v>
       </c>
@@ -7992,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>524</v>
       </c>
@@ -8015,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>526</v>
       </c>
@@ -8038,7 +8030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>528</v>
       </c>
@@ -8061,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>530</v>
       </c>
@@ -8084,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>532</v>
       </c>
@@ -8107,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>534</v>
       </c>
@@ -8130,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>536</v>
       </c>
@@ -8153,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>538</v>
       </c>
@@ -8176,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>541</v>
       </c>
@@ -8199,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>543</v>
       </c>
@@ -8222,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>545</v>
       </c>
@@ -8245,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>548</v>
       </c>
@@ -8268,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>551</v>
       </c>
@@ -8291,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>554</v>
       </c>
@@ -8314,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>557</v>
       </c>
@@ -8337,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>560</v>
       </c>
@@ -8360,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>563</v>
       </c>
@@ -8383,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>566</v>
       </c>
@@ -8406,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>569</v>
       </c>
@@ -8429,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>572</v>
       </c>
@@ -8452,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>575</v>
       </c>
@@ -8475,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>578</v>
       </c>
@@ -8498,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>581</v>
       </c>
@@ -8521,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>584</v>
       </c>
@@ -8544,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>587</v>
       </c>
@@ -8567,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>590</v>
       </c>
@@ -8590,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>593</v>
       </c>
@@ -8613,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>596</v>
       </c>
@@ -8636,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>599</v>
       </c>
@@ -8659,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>602</v>
       </c>
@@ -8682,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>605</v>
       </c>
@@ -8705,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>608</v>
       </c>
@@ -8728,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>611</v>
       </c>
@@ -8751,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>614</v>
       </c>
@@ -8774,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>617</v>
       </c>
@@ -8797,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>620</v>
       </c>
@@ -8820,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>623</v>
       </c>
@@ -8843,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>626</v>
       </c>
@@ -8866,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>629</v>
       </c>
@@ -8889,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>632</v>
       </c>
@@ -8912,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>634</v>
       </c>
@@ -8935,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>637</v>
       </c>
@@ -8958,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>640</v>
       </c>
@@ -8981,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>643</v>
       </c>
@@ -9004,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>646</v>
       </c>
@@ -9027,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>649</v>
       </c>
@@ -9050,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>652</v>
       </c>
@@ -9073,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>655</v>
       </c>
@@ -9096,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>658</v>
       </c>
@@ -9119,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>661</v>
       </c>
@@ -9142,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>664</v>
       </c>
@@ -9165,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>667</v>
       </c>
@@ -9188,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>670</v>
       </c>
@@ -9211,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>673</v>
       </c>
@@ -9234,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>676</v>
       </c>
@@ -9257,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>679</v>
       </c>
@@ -9280,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>682</v>
       </c>
@@ -9303,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>685</v>
       </c>
@@ -9326,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>688</v>
       </c>
@@ -9349,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>691</v>
       </c>
@@ -9372,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>694</v>
       </c>
@@ -9395,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>697</v>
       </c>
@@ -9418,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>700</v>
       </c>
@@ -9441,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>703</v>
       </c>
@@ -9464,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>706</v>
       </c>
@@ -9487,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>708</v>
       </c>
@@ -9510,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>711</v>
       </c>
@@ -9533,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>713</v>
       </c>
@@ -9556,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>716</v>
       </c>
@@ -9579,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>718</v>
       </c>
@@ -9602,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>721</v>
       </c>
@@ -9625,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>724</v>
       </c>
@@ -9648,7 +9640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>726</v>
       </c>
@@ -9671,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>729</v>
       </c>
@@ -9694,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>732</v>
       </c>
@@ -9717,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>735</v>
       </c>
@@ -9740,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>738</v>
       </c>
@@ -9763,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>741</v>
       </c>
@@ -9786,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>744</v>
       </c>
@@ -9809,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>747</v>
       </c>
@@ -9832,7 +9824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>749</v>
       </c>
@@ -9855,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>752</v>
       </c>
@@ -9878,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>755</v>
       </c>
@@ -9901,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>758</v>
       </c>
@@ -9924,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>761</v>
       </c>
@@ -9947,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>764</v>
       </c>
@@ -9970,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>766</v>
       </c>
@@ -9993,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>768</v>
       </c>
@@ -10016,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>771</v>
       </c>
@@ -10039,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>774</v>
       </c>
@@ -10062,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>777</v>
       </c>
@@ -10085,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>780</v>
       </c>
@@ -10108,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>783</v>
       </c>
@@ -10131,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>786</v>
       </c>
@@ -10154,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>789</v>
       </c>
@@ -10177,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>792</v>
       </c>
@@ -10200,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>795</v>
       </c>
@@ -10223,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>797</v>
       </c>
@@ -10246,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>799</v>
       </c>
@@ -10269,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>802</v>
       </c>
@@ -10292,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>805</v>
       </c>
@@ -10315,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>808</v>
       </c>
@@ -10338,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>811</v>
       </c>
@@ -10361,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>814</v>
       </c>
@@ -10384,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>817</v>
       </c>
@@ -10407,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>820</v>
       </c>
@@ -10430,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>823</v>
       </c>
@@ -10453,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>826</v>
       </c>
@@ -10476,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>828</v>
       </c>
@@ -10499,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
         <v>830</v>
       </c>
@@ -10522,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
         <v>832</v>
       </c>
@@ -10545,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>835</v>
       </c>
@@ -10568,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>838</v>
       </c>
@@ -10591,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>840</v>
       </c>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33E729B-A9B8-49B2-B922-8F88DDC7D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3F549F-800E-472A-BD97-64CADD984DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="847">
   <si>
     <t>IN</t>
   </si>
@@ -245,6 +240,9 @@
     <t>architecture behavioral of inputmanager is begin end behavioral;</t>
   </si>
   <si>
+    <t>Assegno zero perchè il nome non corrisponde a quello che ho richiesto</t>
+  </si>
+  <si>
     <t>my_arch is the architecture of cypher_layer</t>
   </si>
   <si>
@@ -326,9 +324,6 @@
     <t>signal a : STD_LOGIC_VECTOR (1 downto 0) := "0000010";</t>
   </si>
   <si>
-    <t>Pongo zero poichè non gli ho indicato di inizializzarlo</t>
-  </si>
-  <si>
     <t>round_counter is an input std_logic_vector of 5 bits</t>
   </si>
   <si>
@@ -392,27 +387,6 @@
     <t>signal t_btn_plaintext, t_switchdisplay, t_btn_key : std_logic;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Assegno Zeo poichè non sono </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>signal</t>
-    </r>
-  </si>
-  <si>
     <t>temp_p is a std_logic_vector signal of 16 bit</t>
   </si>
   <si>
@@ -482,9 +456,6 @@
     <t>signal TbClockA : std_logic; entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;</t>
   </si>
   <si>
-    <t>Metto zero poichè ha inizializzato una ROM non richiesta</t>
-  </si>
-  <si>
     <t>Define a signal named en_tmp of type std_logic</t>
   </si>
   <si>
@@ -494,9 +465,6 @@
     <t>signal en_tmp: STD_LOGIC_VECTOR (15 downto 0);</t>
   </si>
   <si>
-    <t>Metto zero poichè ha inizializzato un vettore e non un singolo signal</t>
-  </si>
-  <si>
     <t>current_state is a signal of type state initialized to idle</t>
   </si>
   <si>
@@ -539,36 +507,6 @@
     <t>type direction is (LITTLE_ENDIAN, BIG_ENDIAN); signal data_out : out std_logic_vector(63 downto 0);</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Perchè anche signal </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data_out : out std_logic_vector(63 downto 0);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
     <t>define an enumerative type ciao with 3 values</t>
   </si>
   <si>
@@ -578,9 +516,6 @@
     <t>type ciao is (x, y, z); mux_4_1 is an entity with b0 as input std_logic signal, b1 as input std_logic signal, b2 as input std_logic signal, b3 as input std_logic signal, s0 as input std_logic signal, s1 as input std_logic signal, y0 as output std_logic signal</t>
   </si>
   <si>
-    <t xml:space="preserve">Perchè mi ha generato nache il mux ? </t>
-  </si>
-  <si>
     <t>define an enumerative type named hex_number that is an array with a range of POSITIVE indices of type hex_digit</t>
   </si>
   <si>
@@ -614,9 +549,6 @@
     <t>a:process(clock) begin if(clock'event and clock='1') then if(reset = '1') then value := 0; enable &lt;= '1'; value := value + 1; end if; end if; end process;</t>
   </si>
   <si>
-    <t xml:space="preserve">In questo caso gli do 1 poichè anche generando più di quello che ho richiesto si è tenuto nella traccia </t>
-  </si>
-  <si>
     <t>if DSETS is greater than 1, if the integer conversion of signal r.rndcnt is equal to DSETS - 1 then set all elements of thr signal v.rndcnt equal to '0' otherwise set v.rndcnt equal to v.rndcnt + 1</t>
   </si>
   <si>
@@ -638,9 +570,6 @@
     <t>rst_n_i &lt;= '0', S0;</t>
   </si>
   <si>
-    <t>Manca lo statement</t>
-  </si>
-  <si>
     <t>if rst_n_i signal is low</t>
   </si>
   <si>
@@ -686,9 +615,6 @@
     <t>count &lt;= c; if rising_edge(clk_i) then; if rst_n_i = '0' then ; end if;; i_sck_cpy &lt;= i_scl when rst_n_i = '0' else '0';</t>
   </si>
   <si>
-    <t>Mi ha aggiunto roba in più non richiesta</t>
-  </si>
-  <si>
     <t>tempq0 signal is set to the first element of temp_p signal</t>
   </si>
   <si>
@@ -698,9 +624,6 @@
     <t>signal tempq0: std_logic_vector(temp_p(0) downto 1);</t>
   </si>
   <si>
-    <t>Non assegna al primo elemento, ma ne dichiara la dimensione tramite il primo elemento</t>
-  </si>
-  <si>
     <t>set i_cs signal to '1'</t>
   </si>
   <si>
@@ -830,9 +753,6 @@
     <t>process(clk_process) begin if rising_edge(clk_process) then TbClockA &lt;= not TbClockA; end if; end process;</t>
   </si>
   <si>
-    <t xml:space="preserve">Non fa quello specificato </t>
-  </si>
-  <si>
     <t>define a process FF_D sensitive to clock signal: on the rising edge of clock signal, if reset signal is high, set y signal to '0', otherwise set it to d</t>
   </si>
   <si>
@@ -848,9 +768,6 @@
     <t>clk_tb : in std_logic;</t>
   </si>
   <si>
-    <t>Non esegue nulla, dichiara solo</t>
-  </si>
-  <si>
     <t>on the rising edge of clk_in, if reset_n signal is high set temp variable to 25, set start_sig signal to '1', decrement the variable temp by one</t>
   </si>
   <si>
@@ -872,9 +789,6 @@
     <t>prova: process begin rst &lt;= '1'; wait for 100ns; rst &lt;='0'; input &lt;= '1'; wait for 100ns; input &lt;= '0'; end process;</t>
   </si>
   <si>
-    <t>Non fa l'ultimo set</t>
-  </si>
-  <si>
     <t>define a process sck_edge sensitive to clk_i that, on the rising edge of clk_i, if rst_n_i signal is low, set i_sck_cpy signal to '0', otherwise set it to i_scl</t>
   </si>
   <si>
@@ -890,9 +804,6 @@
     <t>signal t_rst_n : std_logic; i_start_counter &lt;= 0; t_start &lt;= '0'; t_stb &lt;= '0';</t>
   </si>
   <si>
-    <t>Non effettua l'IF</t>
-  </si>
-  <si>
     <t>set sda_o signal to i_sda when rst_n_i signal is high, otherwise set it to low</t>
   </si>
   <si>
@@ -923,9 +834,6 @@
     <t>gmiii.tx_dv &lt;= cnt_en when gmiio.tx_en = '1' else '1'; entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;; i_ldac &lt;= '1' when rst_n_i = '1' and i_ldac = '0' else '0';</t>
   </si>
   <si>
-    <t>Mi genera anche una ROM non richiesta</t>
-  </si>
-  <si>
     <t>Sequential logic: done_o is assigned i_done when rst_n_i is '1', otherwise, it is set to '0'.</t>
   </si>
   <si>
@@ -1001,9 +909,6 @@
     <t>wait for 10 ns; wait for 5 ns; wait for 10 ns; wait for 5 ns; wait for 10 ns;</t>
   </si>
   <si>
-    <t>Non corrisponde proprio alla traccia</t>
-  </si>
-  <si>
     <t>A case statement is used with ra.raddr(2 downto 2) as the selector, where if the value of ra.raddr(2 downto 2) is '0', then rdata is assigned the first 128 bits of r.hrdata; otherwise, rdata is assigned the second 128 bits of r.hrdata.</t>
   </si>
   <si>
@@ -1013,9 +918,6 @@
     <t>case mcmmo.data(1 downto 0) is when "00" =&gt; rdata &lt;= r.hrdata(0); when "01" =&gt; rdata &lt;= r.hrdata(1); when "10" =&gt; rdata &lt;= r.hrdata(2); when "11" =&gt; rdata &lt;= r.hrdata(3); when others =&gt; rdata &lt;= (others =&gt; '0'); end case;</t>
   </si>
   <si>
-    <t xml:space="preserve">Fa una cosa diversa </t>
-  </si>
-  <si>
     <t>case statement on current_state with the cases idle, primo, secondo, terzo</t>
   </si>
   <si>
@@ -1118,9 +1020,6 @@
     <t>abox: data_in; data_out: out std_logic_vector(3 downto 0);</t>
   </si>
   <si>
-    <t>Definisce tutti e due i segnali come output</t>
-  </si>
-  <si>
     <t>cathodes_manager is a component with value as input std_logic_vector signal of 4 bit, dot as input std_logic signal, cathodes_dot as output std_logic_vector signal of 8 bit</t>
   </si>
   <si>
@@ -1130,9 +1029,6 @@
     <t>component value is port( value : in STD_LOGIC_VECTOR(3 downto 0); dot : in STD_LOGIC; cathodes_dot : out STD_LOGIC_VECTOR(7 downto 0); cathodes : out STD_LOGIC_VECTOR(7 downto 0)); end component;</t>
   </si>
   <si>
-    <t>Non definisce il componente</t>
-  </si>
-  <si>
     <t>cathodes_manager is a component with value as input std_logic_vector signal of 4 bit, dot as input std_logic signal, cathodes_dot as output std_logic_vector signal of 8 bit.</t>
   </si>
   <si>
@@ -1187,9 +1083,6 @@
     <t>ark: button_debouncer generic map ( clk_period =&gt; 10, btn_noise_time =&gt; 10000000) port map (rst, clock, btn_plainText_in, t_btn_plainText); entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;</t>
   </si>
   <si>
-    <t>Il nome specificato non è corretto e ha creato una ROM a caso</t>
-  </si>
-  <si>
     <t>uut is an instance of Riconoscitore_Mealy with signal i mapped to signal i, CLK mapped to CLK, RST mapped to RST, Y mapped to Y</t>
   </si>
   <si>
@@ -1208,9 +1101,6 @@
     <t>sbox_inst : sbox port map (); component abox port (); end component</t>
   </si>
   <si>
-    <t>Ha aggiunto codice non richiesto</t>
-  </si>
-  <si>
     <t>input_mag is an instance of inputmanager with signals clock, rst, value_in t_btn_plainText, plaintext64.</t>
   </si>
   <si>
@@ -1262,9 +1152,6 @@
     <t>an : divisore_frequenza;</t>
   </si>
   <si>
-    <t>Non ha messo i parametri ne completato il task</t>
-  </si>
-  <si>
     <t>wait until the signal clock becomes '1'</t>
   </si>
   <si>
@@ -1328,9 +1215,6 @@
     <t>constant LATCH_CNT : boolean := '0' report "Clatch not equal to 0" severity error when clatch /= 0;</t>
   </si>
   <si>
-    <t>Non Fa quello che gli ho chiesto</t>
-  </si>
-  <si>
     <t>n is a constant of type integer initialized to 1000</t>
   </si>
   <si>
@@ -1370,6 +1254,9 @@
     <t>gen_rx_ddr_lvds : for i in 0 to 4 generate inst_IDDR : IDDR generic map (DDR_CLK_EDGE =&gt; "SAME_EDGE_PIPELINED", SRTYPE =&gt; "ASYNC") port map (Q1 =&gt; rx_data_3x_i(i), Q2 =&gt; rx_data_3x_q(i), C =&gt; clk_rx_3x, CE =&gt; '1', D =&gt; rx_data_3x_DDR(i), R initialized to rx_reset, S initialized to '0'); end generate gen_rx_DDRI;</t>
   </si>
   <si>
+    <t>Non genera tutti i componenti</t>
+  </si>
+  <si>
     <t>gen_num is a for generate statement on variable N over LOOP_COUNT range that generates component rd_gen_inst2 that is an instance of fifo_rng with generic signals WIDTH initialized to 8, SEED initialized to TB_SEED+N and port signals CLK initialized to RD_CLK, RESET initialized to RESET, RANDOM_NUM initialized to elements of rand_num with indices from 8*(N+1)-1 down to 8*N, ENABLE initialized to pr_r_en</t>
   </si>
   <si>
@@ -1379,6 +1266,9 @@
     <t>rd_gen_inst2: for i in 0 to LOOP_COUNT range generate rd_gen_inst2: fifo_rng generic map(WIDTH =&gt; 8, SEED =&gt; TB_SEED+N, port map(CLK =&gt; RD_CLK, RESET =&gt; RESET, RANDOM_NUM =&gt; rand_num(8*(N+1)-1 downto 8*N), ENABLE =&gt; pr_r_en, DIFFICULATION =&gt; diff_dac_val, CINIT =&gt; cin_int, SEL1 =&gt; sel_logic_0, SEL2 =&gt; sel_logic_0, SHIFT =&gt; SHIFT_P, TDI =&gt; TDI_N, UPDATE =&gt; UPDATE_P, TDO1 =&gt; TDO1_N, TDO2 =&gt; TDO2_N, SBOX =&gt; sbox_inst, TDATA =&gt; t_dac_val); end generate rd_gen_inst2;</t>
   </si>
   <si>
+    <t>Mette roba in più però genera quello che ho chiesto</t>
+  </si>
+  <si>
     <t>define a signal round_keys as an array of dataArrayType</t>
   </si>
   <si>
@@ -1403,6 +1293,9 @@
     <t>type hsv_function is array(0 to 255) of integer with default value 0, inclk0 as an input std_logic, e0 as an output std_logic, c0 as an output std_logic, d0 as an output std_logic, a0 as an output std_logic, b0 as an output std_logic, y0 as an output std_logic</t>
   </si>
   <si>
+    <t xml:space="preserve">Mette dei segnali in più non richiesti </t>
+  </si>
+  <si>
     <t>Assign all bits from 7 downto 1 of outrotl signal with all bits from 6 downto 0 of portArotl signal.</t>
   </si>
   <si>
@@ -1412,6 +1305,9 @@
     <t>outrotl(7 downto 1) &lt;= (others =&gt; '0'); portArotl(6 downto 0) &lt;= "00";</t>
   </si>
   <si>
+    <t>Non esegue quello chiesto</t>
+  </si>
+  <si>
     <t>access and display the fourth element of an array named x</t>
   </si>
   <si>
@@ -1442,6 +1338,9 @@
     <t>generic parameter clock_multiplier : integer := 10000000</t>
   </si>
   <si>
+    <t>Sintassi sbagliata</t>
+  </si>
+  <si>
     <t>the element of memory_ram with index address_a converted into n unsigned, increased by index and than converted into a standard integer, is set equal to he elements of data_in_a from the indices ((ram_word_size)*(index + 1) - 1) to ((ram_word_size)*index)</t>
   </si>
   <si>
@@ -1451,6 +1350,9 @@
     <t>memory_ram(address_a) &lt;= n; data_in_a(((ram_word_size)*(index+1) - 1) to ((ram_word_size)*index) ) &lt;= '1';</t>
   </si>
   <si>
+    <t>Non fa quello richiesto</t>
+  </si>
+  <si>
     <t>Create a 32x32 memory array matrix_mem, define a 32-bit signal row_data, and assign the contents of the 25th row of matrix_mem to row_data</t>
   </si>
   <si>
@@ -1469,6 +1371,9 @@
     <t>addr := to_integer(unsigned(ADR_I(9 downto 0))); entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;</t>
   </si>
   <si>
+    <t>Non fa quello chiesto (ho chiesto da 10 a 0)</t>
+  </si>
+  <si>
     <t>Define a 168-bit signal data_block, create a 21-bit signal eighth, and set eighth to bits 125 downto 105 of data_block</t>
   </si>
   <si>
@@ -1478,6 +1383,9 @@
     <t>data_block: in std_logic_vector(167 downto 0); signal eighth : std_logic_vector(22 downto 0); data_block(125 downto 105) &lt;= eighth;</t>
   </si>
   <si>
+    <t>L'istruzione in output ha il significato opposto di quello atteso</t>
+  </si>
+  <si>
     <t>set font_byte equal to the element of ram_font with index equak to font_address converted in to an unsigned integer, converted to an integer</t>
   </si>
   <si>
@@ -1505,6 +1413,9 @@
     <t>EMPY PRED</t>
   </si>
   <si>
+    <t>Vuoto</t>
+  </si>
+  <si>
     <t>Using the selected signal assignment, set constant_out to 42 when selector is "000", set it to 101 when selector is "001", set it to 255 when selector is "010", otherwise set it to 0</t>
   </si>
   <si>
@@ -1520,6 +1431,9 @@
     <t>with pack_mode select packed_data &lt;= data_in &amp; x"00" when ZERO_PAD, x"FF" &amp; data_in when FF_PAD, x"data_in" when DUPLICATE, data_in when others;</t>
   </si>
   <si>
+    <t>Non esegue data_in  data_in</t>
+  </si>
+  <si>
     <t>Using the selected signal assignment, set shifted_data to data_in when shift_amount is "000", set it to data_in(6 downto 0) &amp; '0' when shift_amount is "001", set it to data_in(5 downto 0) &amp; "00" when shift_amount is "010", otherwise set it to all zeros</t>
   </si>
   <si>
@@ -1529,6 +1443,9 @@
     <t>with shift_amount select shifted_data &lt;= data_in when "000", data_in(6 downto 0) &amp; "00", data_in(5 downto 0) &amp; "00", data_in when others;</t>
   </si>
   <si>
+    <t>Mancano le altre condizioni</t>
+  </si>
+  <si>
     <t>Use selected signal assignment to set signal y to '1000' when signal a is '00', '0100' when signal a is '01', '0010' when signal a is '10', and '0001' when signal a is '11'. Otherwise, set y to all don't care.</t>
   </si>
   <si>
@@ -1553,6 +1470,9 @@
     <t>assert not (data_valid = '1' and clock_enable = '0') report "Data marked valid with error severity if 'clock_enable' is high" severity error when clock_enable = '1' and not data_valid;</t>
   </si>
   <si>
+    <t>Fa quello che deve fare (e forse più)</t>
+  </si>
+  <si>
     <t>Verify that 'output' is updated on the falling edge of 'clk' when 'enable' is high</t>
   </si>
   <si>
@@ -1562,6 +1482,9 @@
     <t>update_process: process(clk) begin if rising_edge(clk) then if enable = '1' then output &lt;= input; end if; end if; end process update_process;</t>
   </si>
   <si>
+    <t>Non ho chiesto un process, ma un assert</t>
+  </si>
+  <si>
     <t>Ensure 'reset' pulse width is at least 10 ns</t>
   </si>
   <si>
@@ -1571,6 +1494,9 @@
     <t>assert reset_pulse_width &gt;= 10 ns report "Reset pulse width too high" severity error;</t>
   </si>
   <si>
+    <t>No fa quello chiesto</t>
+  </si>
+  <si>
     <t>Check if 'data_out' matches expected pattern</t>
   </si>
   <si>
@@ -1580,6 +1506,9 @@
     <t>assert data_out'stable(buskeep) report "Data mismatch after buskeep" severity error;</t>
   </si>
   <si>
+    <t>Ho supporto che buskeep sia il pattern</t>
+  </si>
+  <si>
     <t>Check if 'output' toggles every clock cycle when 'toggle_mode' is active</t>
   </si>
   <si>
@@ -1634,6 +1563,9 @@
     <t>entity mul_reg is port(a, b: in std_logic_vector(7 downto 0); product: out std_logic_vector(15 downto 0)); end mul_reg;</t>
   </si>
   <si>
+    <t>Fa quello che gli chiedo tutto sommato</t>
+  </si>
+  <si>
     <t>define the variable size of type integer with values from 10 to 10000 and initialize it to 1000</t>
   </si>
   <si>
@@ -1655,6 +1587,9 @@
     <t>variable acc : std_logic_vector(49 downto 0); variable acc1 : std_logic_vector(49 downto 0); variable acc2 : std_logic_vector(49 downto 0);</t>
   </si>
   <si>
+    <t>Fa quello che gli ho chiesto</t>
+  </si>
+  <si>
     <t>Define a variable counter of type integer with values from 0 to count_max_value and initialize it to 0.</t>
   </si>
   <si>
@@ -1706,6 +1641,9 @@
     <t>A &lt;= "000000000000", "000000000001" after 150 ns, "000000000010" after 250 ns, "000000000011" after 350 ns, "000000000100" after 450 ns, "000000000101" after 550 ns; entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;</t>
   </si>
   <si>
+    <t>Crea una ROM a caso, però fa quello che gli ho chiesto</t>
+  </si>
+  <si>
     <t>set t_rst_n signal to '0', then set it to '1' after 10 times the value of CLK_HPER</t>
   </si>
   <si>
@@ -1727,6 +1665,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity GlitchFilter is Port ( Noisy_In : in STD_LOGIC; Filtered_Out : out STD_LOGIC); end GlitchFilter; architecture Behavioral of GlitchFilter is signal delay_line : std_logic := '0'; begin process (Noisy_In) begin if rising_edge(Noisy_In) then delay_line &lt;= '1'; elsif falling_edge(Noisy_In) then delay_line &lt;= '0'; end if ; end process ; Filtered_Out &lt;= delay_line; end Behavioral;</t>
   </si>
   <si>
+    <t>Fa quello che gli ho chiesto e più</t>
+  </si>
+  <si>
     <t>Implement a basic moving average filter with circular buffer</t>
   </si>
   <si>
@@ -1745,6 +1686,9 @@
     <t>process(clk,rst)begin if rst='1'then manchester_out&lt;='0';shift_reg&lt;=(others=&gt;'0');elsif rising_edge(clk)then manchester_out&lt;=shift_reg(7);shift_reg&lt;=shift_reg(6 downto 0)&amp;'1';end if;end process;</t>
   </si>
   <si>
+    <t>Codici un po diverso da quello che mi aspetto che cambia la sua funzionalità</t>
+  </si>
+  <si>
     <t>Define a register of N-bit with the signals clock, reset, enable, and D (N-bit) as input and the signal Q (N-bit) as output.</t>
   </si>
   <si>
@@ -1772,6 +1716,9 @@
     <t>process(scl,rst)begin if rst='1'then scl&lt;='0';sda&lt;='0';shift_reg&lt;=(others=&gt;'0');bit_count&lt;=0;elsif rising_edge(scl)then if start='1'then sda&lt;='0';shift_reg&lt;=shift_reg(6 downto 0)&amp;sda_out;bit_count&lt;=bit_count+1;end if;end if;end process;</t>
   </si>
   <si>
+    <t>Mancano il miso ed il mosi</t>
+  </si>
+  <si>
     <t>Implement a frequency counter using a process.</t>
   </si>
   <si>
@@ -1781,6 +1728,9 @@
     <t>process(clk,rst)begin if rst='1'then count&lt;="000";elsif rising_edge(clk)then count&lt;=count+1;end if;end process;</t>
   </si>
   <si>
+    <t>Fa un frequency counter effettivamente</t>
+  </si>
+  <si>
     <t>Write a parallel to serial converter of N-bit with the signals clk, parallel_in (N-bit), and load_en as input and the signal serial_out as output.</t>
   </si>
   <si>
@@ -1790,6 +1740,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity ParallelToSerialConverter is Generic ( N : natural := 8 ); Port ( Clk : in STD_LOGIC; Parallel_In : in STD_LOGIC_VECTOR (N-1 downto 0); Load_En : in STD_LOGIC; Serial_Out : out STD_LOGIC); end ParallelToSerialConverter; architecture Behavioral of ParallelToSerialConverter is signal shift_reg : STD_LOGIC_VECTOR(N-1 downto 0); signal bit_count : natural range 0 to N-1; begin process (Clk) begin if rising_edge(Clk) then if Load_En = '1' then shift_reg &lt;= (others =&gt; '0'); bit_count &lt;= 0; elsif Shift_En = '1' then shift_reg &lt;= shift_reg(N-2 downto 0) &amp; Parallel_In(bit_count); bit_count &lt;= bit_count + 1; end if ; end if ; end process ; Serial_Out &lt;= shift_reg(0); end Behavioral;</t>
   </si>
   <si>
+    <t>Non fa il process</t>
+  </si>
+  <si>
     <t>Define a fixed-point converter of M-bit with the signal float_value (M-bit) as input and the signal fixed_point (N-bit) as output.</t>
   </si>
   <si>
@@ -1799,6 +1752,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity fixed_point_converter is Generic ( M : natural := 8; N : natural := 16 ); Port ( float_value : in signed(M-1 downto 0); fixed_point : out signed(N-1 downto 0)); end fixed_point_converter; architecture Behavioral of fixed_point_converter is begin process (float_value) variable temp : signed(M-1 downto 0); variable result : signed(N-1 downto 0); begin temp := resize(float_value, M-1); result := resize(fixed_point, N-1); for i in 0 to M-1 loop result(i) := temp(i); end loop ; float_value &lt;= result; fixed_point &lt;= resize(fixed_point, N-1); end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Codici quasi simili, ma verso il finale non equivalenti</t>
+  </si>
+  <si>
     <t>Create a basic memory controller with read and write operations</t>
   </si>
   <si>
@@ -1808,6 +1764,9 @@
     <t>process(clk) begin if rising_edge(clk) then if wr_en = '1' and not full then memory(to_integer(wr_ptr)) &lt;= data_in; wr_ptr &lt;= wr_ptr + 1; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Fa effettivamente un memory controller</t>
+  </si>
+  <si>
     <t>Define a frequency divider with the signals clock, reset, and divide_ratio (N-bit) as input and the signal divided_clock as output.</t>
   </si>
   <si>
@@ -1817,6 +1776,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity FrequencyDivider is Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Divide_Ratio : in STD_LOGIC_VECTOR (N-1 downto 0); Divided_Clock : out STD_LOGIC); end FrequencyDivider; architecture Behavioral of FrequencyDivider is begin process (Clock, Reset) variable counter : integer range 0 to N-1 := 0; begin if (Reset = '1') then counter := 0; elsif (rising_edge(Clock)) then counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter := counter + 1; if (counter = Divide_Ratio) then counter := 0; else counter :=</t>
   </si>
   <si>
+    <t>Completamente errato</t>
+  </si>
+  <si>
     <t>Create a basic SPI (Serial Peripheral Interface) master with multiple slave select</t>
   </si>
   <si>
@@ -1824,6 +1786,9 @@
   </si>
   <si>
     <t>process(clk) begin if rising_edge(clk) then case state is when IDLE =&gt; if start = '1' then state &lt;= START_BIT; bit_count &lt;= 0; when START_BIT =&gt; sclk &lt;= not sclk; if sclk = '0' then mosi &lt;= tx_data(bit_count); bit_count &lt;= bit_count + 1; if bit_count = 7 then state &lt;= DATA_BITS; bit_count &lt;= 0; else bit_count &lt;= bit_count + 1; end if; when DATA_BITS =&gt; sda_out &lt;= '1'; state &lt;= STOP_BIT; when STOP_BIT =&gt; sclk &lt;= not sclk; if sclk = '0' then mosi &lt;= tx_data(bit_count); bit_count &lt;= bit_count + 1; if bit_count = 7 then state &lt;= IDLE; end if; end case; end if; end process;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non mi supporta il multislave </t>
   </si>
   <si>
     <t>Create a basic PWM (Pulse Width Modulation) generator with variable frequency</t>
@@ -2613,7 +2578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2628,12 +2593,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2675,13 +2634,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2986,11 +2944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" customWidth="1"/>
@@ -3367,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3390,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3413,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -3436,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3459,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3482,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3505,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -3528,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -3551,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3574,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -3597,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -3617,18 +3575,21 @@
         <v>0.74716553287981857</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3643,15 +3604,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3666,15 +3627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3689,15 +3650,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3712,15 +3673,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3735,15 +3696,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3758,15 +3719,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3781,15 +3742,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3804,15 +3765,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3827,15 +3788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3850,15 +3811,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3873,15 +3834,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3895,11 +3856,8 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -3922,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -3945,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -3968,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3991,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -4014,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -4034,10 +3992,10 @@
         <v>0.86755233494363915</v>
       </c>
       <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -4060,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -4083,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -4105,19 +4063,16 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>119</v>
       </c>
-      <c r="B49" t="s">
-        <v>120</v>
-      </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4132,15 +4087,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4155,15 +4110,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
         <v>123</v>
       </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4178,15 +4133,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4201,15 +4156,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4221,18 +4176,18 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="B54" t="s">
-        <v>130</v>
-      </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4247,15 +4202,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="B55" t="s">
-        <v>132</v>
-      </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4270,15 +4225,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4293,15 +4248,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="B57" t="s">
-        <v>136</v>
-      </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4316,15 +4271,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4339,15 +4294,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
         <v>139</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>140</v>
-      </c>
-      <c r="C59" t="s">
-        <v>141</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4361,19 +4316,16 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
         <v>143</v>
-      </c>
-      <c r="B60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4387,19 +4339,16 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4414,15 +4363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4437,15 +4386,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4460,15 +4409,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4483,9 +4432,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
         <v>100</v>
@@ -4506,15 +4455,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4529,15 +4478,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4551,19 +4500,16 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4577,19 +4523,16 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -4604,15 +4547,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4624,18 +4567,18 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4647,18 +4590,18 @@
         <v>0.86538461538461542</v>
       </c>
       <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4670,21 +4613,18 @@
         <v>0.22222222222222229</v>
       </c>
       <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4699,15 +4639,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4722,15 +4662,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4744,19 +4684,16 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4770,19 +4707,16 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -4797,15 +4731,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4820,15 +4754,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4842,19 +4776,16 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4866,18 +4797,18 @@
         <v>0.22222222222222229</v>
       </c>
       <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4892,15 +4823,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4914,19 +4845,16 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4940,19 +4868,16 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4967,15 +4892,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4990,15 +4915,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5013,15 +4938,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5036,15 +4961,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5059,15 +4984,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -5082,15 +5007,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -5105,15 +5030,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -5128,15 +5053,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B92" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5148,18 +5073,18 @@
         <v>0.87372448979591832</v>
       </c>
       <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5174,15 +5099,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5197,15 +5122,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5220,15 +5145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5243,15 +5168,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -5266,15 +5191,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5289,15 +5214,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B99" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5312,15 +5237,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5335,15 +5260,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C101" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -5358,15 +5283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5381,15 +5306,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5404,15 +5329,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C104" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5424,18 +5349,18 @@
         <v>0.99999218749999996</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5449,19 +5374,16 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -5476,15 +5398,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5498,19 +5420,16 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B108" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C108" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5525,15 +5444,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5548,15 +5467,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5570,19 +5489,16 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B111" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C111" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5597,15 +5513,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5619,19 +5535,16 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5646,15 +5559,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C114" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5669,15 +5582,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C115" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5692,15 +5605,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C116" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5715,15 +5628,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C117" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5737,19 +5650,16 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C118" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -5764,15 +5674,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B119" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5787,15 +5697,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C120" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5810,15 +5720,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B121" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C121" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5833,15 +5743,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B122" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C122" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -5856,15 +5766,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C123" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5876,18 +5786,18 @@
         <v>0.99999218749999996</v>
       </c>
       <c r="G123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B124" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C124" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5902,15 +5812,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C125" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -5922,18 +5832,18 @@
         <v>0.99998321640763987</v>
       </c>
       <c r="G125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C126" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5948,15 +5858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C127" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -5971,15 +5881,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B128" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C128" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5993,19 +5903,16 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6019,19 +5926,16 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B130" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C130" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6043,18 +5947,18 @@
         <v>0.95322094451267159</v>
       </c>
       <c r="G130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C131" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -6069,15 +5973,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B132" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C132" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6089,18 +5993,18 @@
         <v>0.60697115384615385</v>
       </c>
       <c r="G132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B133" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -6115,15 +6019,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B134" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C134" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6138,15 +6042,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B135" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C135" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -6161,15 +6065,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B136" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C136" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6184,15 +6088,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B137" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C137" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6207,15 +6111,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B138" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C138" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -6230,15 +6134,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B139" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C139" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6253,15 +6157,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B140" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C140" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6273,18 +6177,18 @@
         <v>0.94540816326530619</v>
       </c>
       <c r="G140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B141" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C141" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6299,15 +6203,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B142" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C142" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6322,15 +6226,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B143" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C143" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6345,15 +6249,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B144" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C144" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6367,19 +6271,16 @@
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="H144" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B145" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C145" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6393,19 +6294,16 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B146" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C146" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6419,19 +6317,16 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B147" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C147" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -6446,15 +6341,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B148" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6469,15 +6364,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B149" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C149" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6489,19 +6384,18 @@
         <v>0.80949560282017985</v>
       </c>
       <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149" s="3"/>
-    </row>
-    <row r="150" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B150" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C150" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6513,18 +6407,18 @@
         <v>0.96636907571752284</v>
       </c>
       <c r="G150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B151" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="C151" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6536,18 +6430,18 @@
         <v>0.93312513984959478</v>
       </c>
       <c r="G151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B152" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C152" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6561,19 +6455,16 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="H152" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B153" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C153" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6585,18 +6476,18 @@
         <v>0.96293556870479957</v>
       </c>
       <c r="G153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B154" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C154" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6610,19 +6501,16 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B155" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C155" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -6637,15 +6525,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B156" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C156" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -6657,18 +6545,18 @@
         <v>0.917730388035364</v>
       </c>
       <c r="G156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B157" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C157" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6682,19 +6570,16 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="B158" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C158" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6706,19 +6591,18 @@
         <v>0.9772665814445155</v>
       </c>
       <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158" s="3"/>
-    </row>
-    <row r="159" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B159" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C159" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6730,19 +6614,18 @@
         <v>0.57802325581395353</v>
       </c>
       <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159" s="3"/>
-    </row>
-    <row r="160" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="C160" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6756,19 +6639,16 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B161" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C161" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6780,18 +6660,18 @@
         <v>0.82942097026604067</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B162" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C162" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6808,13 +6688,13 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B163" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="C163" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6831,13 +6711,13 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B164" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C164" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6854,13 +6734,13 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B165" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C165" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6877,13 +6757,13 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B166" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C166" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6895,19 +6775,18 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B167" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="C167" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -6924,13 +6803,13 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B168" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="C168" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -6947,13 +6826,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B169" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="C169" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -6967,19 +6846,16 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="H169" t="s">
-        <v>415</v>
-      </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B170" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C170" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6996,13 +6872,13 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="B171" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C171" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -7014,19 +6890,18 @@
         <v>0.88194444444444442</v>
       </c>
       <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="B172" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="C172" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7043,13 +6918,13 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B173" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C173" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -7066,13 +6941,13 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B174" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C174" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -7089,13 +6964,13 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B175" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="C175" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7109,16 +6984,19 @@
       <c r="G175">
         <v>0</v>
       </c>
+      <c r="H175" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B176" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C176" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7130,12 +7008,15 @@
         <v>0.79622439007903945</v>
       </c>
       <c r="G176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B177" t="s">
         <v>106</v>
@@ -7156,15 +7037,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B178" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C178" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7176,18 +7057,18 @@
         <v>0.97592213114754112</v>
       </c>
       <c r="G178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B179" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C179" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7202,15 +7083,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="B180" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C180" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7224,16 +7105,19 @@
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="B181" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="C181" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7247,16 +7131,19 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B182" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C182" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7270,16 +7157,19 @@
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B183" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C183" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7294,15 +7184,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="B184" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C184" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -7317,15 +7207,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B185" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C185" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7339,16 +7229,19 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B186" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C186" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7362,16 +7255,19 @@
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B187" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C187" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7385,16 +7281,19 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C188" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7408,16 +7307,19 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B189" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C189" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7431,16 +7333,19 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B190" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C190" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7455,15 +7360,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B191" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C191" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7478,15 +7383,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B192" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="C192" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7501,15 +7406,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B193" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C193" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7523,16 +7428,19 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B194" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C194" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7547,15 +7455,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B195" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C195" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7569,16 +7477,19 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B196" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C196" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -7592,16 +7503,19 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B197" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C197" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7613,18 +7527,18 @@
         <v>0.99999451303155007</v>
       </c>
       <c r="G197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B198" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C198" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7639,15 +7553,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B199" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C199" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7659,18 +7573,21 @@
         <v>0.76334895086535937</v>
       </c>
       <c r="G199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B200" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C200" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7684,16 +7601,19 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B201" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C201" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7707,16 +7627,19 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B202" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C202" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7728,18 +7651,21 @@
         <v>0.38163265306122451</v>
       </c>
       <c r="G202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B203" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C203" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7753,16 +7679,19 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B204" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C204" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7777,15 +7706,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B205" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C205" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7800,15 +7729,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B206" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C206" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7820,18 +7749,18 @@
         <v>0.98963202572828235</v>
       </c>
       <c r="G206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B207" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C207" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -7846,15 +7775,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B208" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C208" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7869,15 +7798,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B209" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C209" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -7892,15 +7821,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B210" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C210" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -7912,18 +7841,21 @@
         <v>0.58942586525994922</v>
       </c>
       <c r="G210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H210" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B211" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C211" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7938,15 +7870,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B212" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C212" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7961,15 +7893,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B213" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C213" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7981,18 +7913,21 @@
         <v>0.67201737656283123</v>
       </c>
       <c r="G213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H213" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B214" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C214" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -8007,15 +7942,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B215" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C215" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -8030,15 +7965,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B216" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C216" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -8053,15 +7988,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B217" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C217" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -8076,15 +8011,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B218" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C218" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -8099,15 +8034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B219" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C219" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8122,15 +8057,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B220" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C220" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8145,15 +8080,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B221" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C221" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -8165,18 +8100,21 @@
         <v>0.9030312877535136</v>
       </c>
       <c r="G221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H221" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B222" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C222" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -8191,15 +8129,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B223" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C223" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8214,15 +8152,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B224" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C224" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8234,18 +8172,21 @@
         <v>0.77376782742309236</v>
       </c>
       <c r="G224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H224" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B225" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C225" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8257,18 +8198,21 @@
         <v>0.63123007957615673</v>
       </c>
       <c r="G225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H225" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B226" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C226" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8282,16 +8226,19 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
+        <v>552</v>
+      </c>
+      <c r="B227" t="s">
+        <v>553</v>
+      </c>
+      <c r="C227" t="s">
         <v>554</v>
-      </c>
-      <c r="B227" t="s">
-        <v>555</v>
-      </c>
-      <c r="C227" t="s">
-        <v>556</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8306,15 +8253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
+        <v>555</v>
+      </c>
+      <c r="B228" t="s">
+        <v>556</v>
+      </c>
+      <c r="C228" t="s">
         <v>557</v>
-      </c>
-      <c r="B228" t="s">
-        <v>558</v>
-      </c>
-      <c r="C228" t="s">
-        <v>559</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8326,18 +8273,18 @@
         <v>0.98532291452975518</v>
       </c>
       <c r="G228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
+        <v>558</v>
+      </c>
+      <c r="B229" t="s">
+        <v>559</v>
+      </c>
+      <c r="C229" t="s">
         <v>560</v>
-      </c>
-      <c r="B229" t="s">
-        <v>561</v>
-      </c>
-      <c r="C229" t="s">
-        <v>562</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8351,16 +8298,19 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
+        <v>562</v>
+      </c>
+      <c r="B230" t="s">
         <v>563</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>564</v>
-      </c>
-      <c r="C230" t="s">
-        <v>565</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8372,10 +8322,13 @@
         <v>0.59725039441063776</v>
       </c>
       <c r="G230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>566</v>
       </c>
@@ -8397,16 +8350,19 @@
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B232" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C232" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8420,16 +8376,19 @@
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B233" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C233" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8441,18 +8400,21 @@
         <v>0.38247527000651133</v>
       </c>
       <c r="G233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H233" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B234" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C234" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8466,16 +8428,19 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B235" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C235" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8489,16 +8454,19 @@
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B236" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C236" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8513,15 +8481,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B237" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C237" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8536,15 +8504,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B238" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C238" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8559,15 +8527,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B239" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C239" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8582,15 +8550,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B240" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C240" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8607,13 +8575,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B241" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C241" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8630,13 +8598,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B242" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C242" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8653,13 +8621,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B243" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C243" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8676,13 +8644,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B244" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C244" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8699,13 +8667,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B245" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C245" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8722,13 +8690,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B246" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C246" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8745,13 +8713,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B247" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C247" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8768,13 +8736,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B248" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C248" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8791,13 +8759,13 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B249" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C249" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8814,13 +8782,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B250" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C250" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8837,13 +8805,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B251" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="C251" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8860,13 +8828,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B252" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C252" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8883,13 +8851,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B253" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C253" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8906,13 +8874,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B254" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C254" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8929,13 +8897,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B255" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C255" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8952,13 +8920,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B256" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C256" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8975,13 +8943,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B257" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="C257" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8998,13 +8966,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B258" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -9021,13 +8989,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B259" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C259" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9044,13 +9012,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B260" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C260" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9067,13 +9035,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B261" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C261" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9090,13 +9058,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B262" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C262" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9113,13 +9081,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B263" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C263" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9136,13 +9104,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B264" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C264" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9159,13 +9127,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B265" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C265" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9182,13 +9150,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B266" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C266" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9205,13 +9173,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B267" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C267" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9228,13 +9196,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B268" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C268" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9251,13 +9219,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B269" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="C269" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9274,13 +9242,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B270" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C270" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9297,13 +9265,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B271" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C271" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9320,13 +9288,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B272" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C272" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9343,13 +9311,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B273" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C273" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9366,13 +9334,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B274" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C274" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9389,13 +9357,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B275" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C275" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9412,13 +9380,13 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B276" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C276" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9435,13 +9403,13 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B277" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C277" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9458,13 +9426,13 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B278" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C278" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9481,13 +9449,13 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B279" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C279" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9504,13 +9472,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B280" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="C280" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9527,13 +9495,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B281" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C281" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9550,13 +9518,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B282" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C282" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -9573,13 +9541,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B283" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C283" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9596,13 +9564,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B284" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C284" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -9619,13 +9587,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B285" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C285" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -9642,13 +9610,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B286" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C286" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9665,13 +9633,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B287" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C287" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9688,13 +9656,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B288" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C288" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9711,13 +9679,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B289" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C289" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9734,13 +9702,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B290" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C290" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9757,13 +9725,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B291" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="C291" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9780,13 +9748,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B292" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C292" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9803,13 +9771,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B293" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C293" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -9826,13 +9794,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B294" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C294" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9849,13 +9817,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B295" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C295" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9872,13 +9840,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B296" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C296" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9895,13 +9863,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B297" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C297" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -9918,13 +9886,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B298" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C298" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9941,13 +9909,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B299" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C299" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -9964,13 +9932,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B300" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C300" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -9987,13 +9955,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B301" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C301" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10010,13 +9978,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B302" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="C302" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10033,13 +10001,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B303" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C303" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10056,13 +10024,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B304" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C304" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10079,13 +10047,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="B305" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C305" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10102,13 +10070,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B306" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C306" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10125,13 +10093,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="B307" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="C307" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10148,13 +10116,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B308" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C308" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10171,13 +10139,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B309" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C309" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10194,13 +10162,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B310" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C310" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10217,13 +10185,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B311" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C311" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -10240,13 +10208,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B312" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="C312" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10263,13 +10231,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B313" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="C313" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10286,13 +10254,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B314" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C314" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10309,13 +10277,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B315" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C315" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10332,13 +10300,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="B316" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="C316" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10355,13 +10323,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="B317" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="C317" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10378,13 +10346,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B318" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="C318" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10401,13 +10369,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B319" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C319" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10424,13 +10392,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="B320" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C320" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10447,13 +10415,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B321" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C321" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10470,13 +10438,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B322" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C322" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10493,13 +10461,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B323" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C323" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10516,13 +10484,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B324" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="C324" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10539,13 +10507,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="B325" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="C325" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10562,13 +10530,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="B326" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="C326" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10585,13 +10553,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B327" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="C327" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -10608,6 +10576,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3F549F-800E-472A-BD97-64CADD984DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AA68D5-BF92-4DC9-8954-CA6483AFA676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="866">
   <si>
     <t>IN</t>
   </si>
@@ -1800,6 +1800,9 @@
     <t>process(clk) begin if rising_edge(clk) then if counter = DIV - 1 then pwm_out &lt;= '1'; else pwm_out &lt;= '0'; end if; counter &lt;= counter + 1; end if; end process;</t>
   </si>
   <si>
+    <t>Credo sia un codice equivalente</t>
+  </si>
+  <si>
     <t>Generate a CRC checker of N-bit with the signals data_in (N-bit), received_CRC (M-bit), and polynomial (M-bit) as input and the signal CRC_match as output.</t>
   </si>
   <si>
@@ -1809,6 +1812,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity crc_checker is Generic (N : natural := 8; M : natural := 16); Port ( Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Received_CRC : in STD_LOGIC_VECTOR (M-1 downto 0); Polynomial : in STD_LOGIC_VECTOR (M-1 downto 0); CRC_Match : out STD_LOGIC); end crc_checker; architecture Behavioral of crc_checker is begin process (Data_In, Received_CRC, Polynomial) variable received_crc : STD_LOGIC_VECTOR (M-1 downto 0); variable polynomial : STD_LOGIC_VECTOR (M-1 downto 0); begin received_crc := Data_In; polynomial := Polynomial; for i in 0 to N-1 loop if received_crc(M-1) = '1' then received_crc := received_crc(M-2 downto 0) &amp; '0'; else received_crc := received_crc(M-1 downto 1) &amp; '0'; end if ; end loop ; CRC_Match &lt;= '1' when (received_crc = Polynomial) else '0'; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Codice equivalente</t>
+  </si>
+  <si>
     <t>Define a fixed-point divider of N-bit with the signals dividend (N-bit) and divisor (N-bit) as input and the signals quotient (N-bit) and remainder (N-bit) as output.</t>
   </si>
   <si>
@@ -1827,6 +1833,27 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity magnitude_comparator is Port ( A1 : in STD_LOGIC; A0 : in STD_LOGIC; B1 : in STD_LOGIC; B0 : in STD_LOGIC; A_greater : out STD_LOGIC; A_equal : out STD_LOGIC; A_smaller : out STD_LOGIC); end magnitude_comparator; architecture Behavioral of magnitude_comparator is begin process (A1, A0, B1, B0) variable a, b: integer range 0 to 3; begin a := 0; b := 0; if (A1 = '1') then a := 1; elsif (A1 = '0') then a := 0; elsif (A1 = '+') then a := 1; elsif (A1 = '-'') then a := 0; elsif (A1 = '+' and A2 = '0') then a := 1; elsif (A1 = '-' and A2 = '0') then a := 0; else a := 1; end if ; if (A2 = '1') then b := 1; elsif (A2 = '0') then b := 0; elsif (A2 = '+') then b := 1; elsif (A2 = '-') then b := 0; else b := 1; end if ; if (b = a) then A_greater &lt;= '1'; A_equal &lt;= '0'; A_Smaller &lt;= '0'; elsif (b = a) then A_Greater &lt;= '1'; A_Equal &lt;= '0'; A_Smaller &lt;= '0'; else A_Greater &lt;= '0'; A_E</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Contiene errori logici e sintattici </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elsif (A1 = '+')</t>
+    </r>
+  </si>
+  <si>
     <t>Write a binary to gray converter of N-bit with the signal binary (N-bit) as input and the signal gray_code (N-bit) as output.</t>
   </si>
   <si>
@@ -1836,6 +1863,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity B2GConverter is Generic ( N : natural := 8 ); Port ( Binary : in STD_LOGIC_VECTOR (N-1 downto 0); Gray_Code : out STD_LOGIC_VECTOR (N-1 downto 0)); end B2GConverter; architecture Behavioral of B2GConverter is begin process (Binary) variable Gray_Code_temp : STD_LOGIC_VECTOR (N-1 downto 0); begin for i in 0 to N-1 loop if Binary(i) = '1' then Gray_Code_temp(i) := '0'; else Gray_Code_temp(i) := '1'; end if ; end loop ; Gray_Code &lt;= Gray_Code_temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Non implementa il convertitore ma il complemento a due </t>
+  </si>
+  <si>
     <t>Implement a basic quadrature encoder interface</t>
   </si>
   <si>
@@ -1845,6 +1875,9 @@
     <t>process(clk) begin if rising_edge(clk) then a_prev &lt;= a; b_prev &lt;= b; if a /= a_prev then if b /= a then count &lt;= count + 1; else count &lt;= count - 1; end if; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Diversa logica ma dovrebbe essere un QEI</t>
+  </si>
+  <si>
     <t>Define a debouncer with the signal noisy_button as input and the signal clean_button_pulse as output.</t>
   </si>
   <si>
@@ -1854,6 +1887,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity debouncer is Port ( Noisy_Button : in STD_LOGIC; Clean_Button_Pulse : out STD_LOGIC); end debouncer; architecture Behavioral of debouncer is begin process (Noisy_Button) variable counter : integer range 0 to 10 := 0; begin if (Noisy_Button = '1') then counter := counter + 1; if (counter &gt;= 5) then Clean_Button_Pulse &lt;= '1'; else Clean_Button_Pulse &lt;= '0'; end if ; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Tutti e due implementano il debouncer</t>
+  </si>
+  <si>
     <t>Define a Johnson ring counter of N-bit with the signals clock and reset as input and the signal count (N-bit) as output.</t>
   </si>
   <si>
@@ -1872,6 +1908,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity pulse_generator is Port ( Clk : in STD_LOGIC; Reset : in STD_LOGIC; Pulse_Width : in STD_LOGIC_VECTOR (N-1 downto 0); Pulse_Out : out STD_LOGIC); end pulse_generator; architecture Behavioral of pulse_generator is signal count: unsigned(Pulse_Width) := (others =&gt; '0'); begin process (Clk, Reset) begin if Reset = '1' then count &lt;= (others =&gt; '0'); elsif rising_edge(Clk) then count &lt;= count + 1; end if ; end process ; Pulse_Out &lt;= '1' when count = Pulse_Width else '0'; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa un pulse generator circuit</t>
+  </si>
+  <si>
     <t>Define a magnitude comparator of K-bit with the signals A (K-bit) and B (K-bit) as input and the signals A_GT_B, A_EQ_B, and A_LT_B as output.</t>
   </si>
   <si>
@@ -1881,6 +1920,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity magnitude_comparator is Generic ( K : natural := 8 ); Port ( A : in STD_LOGIC_VECTOR (K-1 downto 0); B : in STD_LOGIC_VECTOR (K-1 downto 0); A_GT_B : out STD_LOGIC; A_EQ_B : out STD_LOGIC; A_LT_B : out STD_LOGIC); end magnitude_comparator; architecture Behavioral of magnitude_comparator is begin process (A, B) variable a, b : integer range 0 to K-1; begin a := 0; b := 0; for i in 0 to K-1 loop if A(i) &gt; B(i) then a := i; b := i; end if ; end loop ; A_GT_B &lt;= a &gt; b; A_EQ_B &lt;= a = b; A_LT_B &lt;= a &lt; b; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Equivalenti, con logica diversa </t>
+  </si>
+  <si>
     <t>Define a pseudo-random number generator of N-bit with the signals clock and seed_value (N-bit) as input and the signal random_number (N-bit) as output.</t>
   </si>
   <si>
@@ -1890,6 +1932,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity PRNG is Generic(N : integer := 8); Port(Clock : in std_logic; Seed_Value : in std_logic_vector(N-1 downto 0); Random_Number : out std_logic_vector(N-1 downto 0)); end PRNG; architecture Behavioral of PRNG is begin process (Clock) variable seed : std_logic_vector(N-1 downto 0); variable random_number : std_logic_vector(N-1 downto 0); begin if (rising_edge(Clock)) then random_number := seed; for i in 0 to N-1 loop random_number(i) := random_number(i) xor random_number(i-1); end loop ; seed := random_number; end if ; end process ; Random_Number &lt;= random_number; end Behavioral;</t>
   </si>
   <si>
+    <t>La logica è diversa, forse questa meno corretta, ma implementano un codice di generazione pseudo-casuale dei numeri</t>
+  </si>
+  <si>
     <t>Create a configurable clock divider</t>
   </si>
   <si>
@@ -1899,6 +1944,9 @@
     <t>process(clk,rst)begin if rst='1'then clk_div&lt;=0;counter&lt;=0;elsif rising_edge(clk)then if counter=divisore_frequenza.duration then clk_div&lt;=1;counter&lt;=0;else clk_div&lt;=0;counter&lt;=counter+1;end if;end if;end process;</t>
   </si>
   <si>
+    <t>Logiche diverse ma sempre un divisore</t>
+  </si>
+  <si>
     <t>Write an astable multivibrator with the signals clk and reset as input and the signal oscillating_out as output.</t>
   </si>
   <si>
@@ -1908,6 +1956,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity AstableMultivibrator is Port ( Clk : in STD_LOGIC; Reset : in STD_LOGIC; Oscillating_Out : out STD_LOGIC); end AstableMultivibrator; architecture Behavioral of AstableMultivibrator is signal Counter : unsigned(31 downto 0) := (others =&gt; '0'); begin process (Clk, Reset) begin if Reset = '1' then Counter &lt;= (others =&gt; '0'); elsif rising_edge(Clk) then Counter &lt;= Counter + 1; end if ; end process ; Oscillating_Out &lt;= '1' when Counter = unsigned(31) else '0'; end Behavioral;</t>
   </si>
   <si>
+    <t>Tutti e due multivibratori astabili</t>
+  </si>
+  <si>
     <t>Define a rotating priority encoder with the signal request (N-bit) as input and the signals grant (log2N-bit), valid, and rotation_bit as output.</t>
   </si>
   <si>
@@ -1917,6 +1968,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity PriorityEncoder is Generic(N : integer := 8); Port ( Request : in STD_LOGIC_VECTOR (N-1 downto 0); Grant : out STD_LOGIC_VECTOR (log2(N)-1 downto 0); Valid : out STD_LOGIC; Rotation_Bit : out STD_LOGIC); end PriorityEncoder; architecture Behavioral of PriorityEncoder is begin process (Request) variable temp : STD_LOGIC_VECTOR (N-1 downto 0); begin temp := Request; for i in 0 to N-1 loop if temp(i) = '1' then Valid &lt;= '1'; Rotation_Bit &lt;= '0'; elsif Valid = '0' then Valid &lt;= '0'; Rotation_Bit &lt;= '1'; else Valid &lt;= '0'; Rotation_Bit &lt;= '0'; end if ; end loop ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa un encode correttamente</t>
+  </si>
+  <si>
     <t>Generate a floating-point adder of N-bit with the signals A (N-bit) and B (N-bit) as input and the signal sum (N-bit) as output.</t>
   </si>
   <si>
@@ -1935,6 +1989,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity Digital_Comparator is Port ( A1 : in STD_LOGIC; A0 : in STD_LOGIC; B1 : in STD_LOGIC; B0 : in STD_LOGIC; A_GT_B : out STD_LOGIC; A_EQ_B : out STD_LOGIC; A_LT_B : out STD_LOGIC); end Digital_Comparator; architecture Behavioral of Digital_Comparator is begin process (A1, A0, B1, B0) variable a: std_logic_vector(3 downto 0); variable b: std_logic_vector(3 downto 0); begin a := (A1 &amp; A0) | (B1 &amp; B0); b := (A1 &amp; A0) | (B1 &amp; B0); if (a &gt; b) then A_GT_B &lt;= '1'; A_EQ_B &lt;= '0'; A_LT_B &lt;= '0'; elsif (a = b) then A_GT_B &lt;= '0'; A_EQ_B &lt;= '1'; A_LT_B &lt;= '0'; else A_GT_B &lt;= '0'; A_EQ_B &lt;= '0'; A_LT_B &lt;= '1'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Contiene errori logici e sintattici </t>
+  </si>
+  <si>
     <t>Define a 2-to-1 multiplexer with the signals data0, data1, and select as input and the signal data_out as output.</t>
   </si>
   <si>
@@ -1950,6 +2007,9 @@
     <t>process(clk,rst)begin if rst='1'then sclk&lt;='0';mosi&lt;='0';cs&lt;='1';shift_reg&lt;=(others=&gt;'0');elsif rising_edge(clk)then cs&lt;='0';sclk&lt;=not sclk;if sclk='0'then shift_reg&lt;=shift_reg(6 downto 0)&amp;miso;mosi&lt;=shift_reg(7);if bit_count=7 then cs&lt;='1';end if;end if;end if;end process;</t>
   </si>
   <si>
+    <t>Due protocolli diversi</t>
+  </si>
+  <si>
     <t>Detect falling edge of a signal using a process.</t>
   </si>
   <si>
@@ -1959,6 +2019,9 @@
     <t>signal prev_signal: std_logic:='0';process(clk,rst)begin if rst='1'then prev_signal&lt;='0';elsif rising_edge(clk)then prev_signal&lt;=signal;end if;end process;</t>
   </si>
   <si>
+    <t>Lo do buono anche se non c'è output e non c'è reset</t>
+  </si>
+  <si>
     <t>Define a universal shift register of P-bit with the signals clock, shift_enable, shift_direction, and serial_in as input and the signals parallel_out (P-bit) and serial_out as output.</t>
   </si>
   <si>
@@ -1968,6 +2031,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity UniversalShiftRegister is Generic ( P : natural := 8 ); Port ( Clock : in STD_LOGIC; ShiftEnable : in STD_LOGIC; ShiftDirection : in STD_LOGIC; SerialIn : in STD_LOGIC_VECTOR (P-1 downto 0); ParallelOut : out STD_LOGIC_VECTOR (P-1 downto 0); SerialOut : out STD_LOGIC); end UniversalShiftRegister; architecture Behavioral of UniversalShiftRegister is signal shiftReg : STD_LOGIC_VECTOR(P-1 downto 0); begin process (Clock, ShiftEnable, ShiftDirection, SerialIn) begin if rising_edge(Clock) then if ShiftEnable = '1' then if ShiftDirection = '0' then shiftReg &lt;= shiftReg(P-2 downto 0) &amp; SerialIn; else shiftReg &lt;= shiftReg(P-1 downto 1) &amp; SerialIn; end if ; end if ; end if ; end process ; ParallelOut &lt;= shiftReg; SerialOut &lt;= shiftReg(P-1 downto 0); end Behavioral;</t>
   </si>
   <si>
+    <t>Non funziona lo shift a destra</t>
+  </si>
+  <si>
     <t>Implement a basic priority encoder</t>
   </si>
   <si>
@@ -1995,6 +2061,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity BinaryToBCDConverter is Generic ( N : natural := 8; M : natural := 3 ); Port ( Binary_Value : in STD_LOGIC_VECTOR (N-1 downto 0); BCD_Value : out STD_LOGIC_VECTOR ((M/3)+1-1 downto 0)); end BinaryToBCDConverter; architecture Behavioral of BinaryToBCDConverter is begin process (Binary_Value) variable temp : STD_LOGIC_VECTOR (N-1 downto 0); begin for i in 0 to N-1 loop temp(i) := Binary_Value(i); end loop ; BCD_Value &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa la logica BCD</t>
+  </si>
+  <si>
     <t>Create a pulse generator that outputs a single pulse every N clock cycles</t>
   </si>
   <si>
@@ -2004,6 +2073,9 @@
     <t>process(clk) begin if rising_edge(clk) then if counter = N - 1 then counter &lt;= 0; pulse &lt;= '1'; elsif counter = N - 2 then counter &lt;= 0; pulse &lt;= '0'; else counter &lt;= counter + 1; pulse &lt;= '1'; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Va migliorato però grossomodo genera quello che ho chiesto</t>
+  </si>
+  <si>
     <t>Define a binary to BCD converter of (N/3)+1-digit with the signal binary_value (N-bit) as input and the signal BCD_value ((N/3)+1-digit) as output.</t>
   </si>
   <si>
@@ -2011,6 +2083,9 @@
   </si>
   <si>
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity BinaryToBCDConverter is Generic (N : integer := 8); Port ( Binary_Value : in STD_LOGIC_VECTOR (N-1 downto 0); BCD_Value : out STD_LOGIC_VECTOR ((N/3)+1-1 downto 0)); end BinaryToBCDConverter; architecture Behavioral of BinaryToBCDConverter is begin process (Binary_Value) variable temp : STD_LOGIC_VECTOR (N-1 downto 0); begin for i in 0 to N-1 loop temp(i) := Binary_Value(i); end loop ; BCD_Value &lt;= temp; end process ; end Behavioral;</t>
+  </si>
+  <si>
+    <t>Non corretto</t>
   </si>
   <si>
     <t>Define a dual-port RAM of K x L with the signals clock, write_enable, read_enable, write_address (log2K-bit), read_address (log2K-bit), and data_in (L-bit) as input and the signal data_out (L-bit) as output.</t>
@@ -2578,7 +2653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2593,6 +2668,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2634,12 +2715,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2944,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="G236" sqref="G236"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="G261" sqref="G261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8478,18 +8560,21 @@
         <v>0.70188492063492058</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H236" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B237" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C237" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8501,18 +8586,21 @@
         <v>0.62499124171466203</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H237" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B238" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C238" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8524,18 +8612,21 @@
         <v>0.61077903654581056</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H238" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B239" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C239" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8549,16 +8640,19 @@
       <c r="G239">
         <v>0</v>
       </c>
+      <c r="H239" s="3" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B240" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C240" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8572,16 +8666,19 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B241" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C241" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8593,18 +8690,21 @@
         <v>0.31288072588951238</v>
       </c>
       <c r="G241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H241" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B242" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C242" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8616,18 +8716,21 @@
         <v>0.49607158826516312</v>
       </c>
       <c r="G242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H242" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B243" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C243" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8639,18 +8742,18 @@
         <v>0.8377679543852905</v>
       </c>
       <c r="G243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B244" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C244" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8664,16 +8767,19 @@
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B245" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C245" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8685,18 +8791,21 @@
         <v>0.57943898965099838</v>
       </c>
       <c r="G245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H245" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B246" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C246" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8708,18 +8817,21 @@
         <v>0.60428249294544478</v>
       </c>
       <c r="G246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H246" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="B247" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="C247" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8731,18 +8843,21 @@
         <v>0.65513154380341887</v>
       </c>
       <c r="G247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H247" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B248" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="C248" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8754,18 +8869,21 @@
         <v>0.76545995282535129</v>
       </c>
       <c r="G248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H248" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="B249" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="C249" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8779,16 +8897,19 @@
       <c r="G249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="B250" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="C250" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8800,18 +8921,18 @@
         <v>0.59366365984966929</v>
       </c>
       <c r="G250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="B251" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="C251" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8825,16 +8946,19 @@
       <c r="G251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="B252" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="C252" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8846,15 +8970,15 @@
         <v>0.71172702986774106</v>
       </c>
       <c r="G252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="B253" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="C253" t="s">
         <v>560</v>
@@ -8871,16 +8995,19 @@
       <c r="G253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B254" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="C254" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8892,18 +9019,21 @@
         <v>0.86962368001147439</v>
       </c>
       <c r="G254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H254" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B255" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="C255" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8917,16 +9047,19 @@
       <c r="G255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="B256" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C256" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8938,18 +9071,18 @@
         <v>0.55212772253787867</v>
       </c>
       <c r="G256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="B257" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="C257" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8961,18 +9094,18 @@
         <v>0.55186559491960985</v>
       </c>
       <c r="G257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="B258" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="C258" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8986,16 +9119,19 @@
       <c r="G258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="B259" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="C259" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9007,18 +9143,21 @@
         <v>0.41822372462464602</v>
       </c>
       <c r="G259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H259" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="B260" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="C260" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9032,16 +9171,19 @@
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="B261" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="C261" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9056,15 +9198,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="B262" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="C262" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9079,15 +9221,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="B263" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="C263" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9102,15 +9244,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="B264" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="C264" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9125,15 +9267,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="B265" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="C265" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9148,15 +9290,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="B266" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="C266" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9171,15 +9313,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="B267" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="C267" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9194,15 +9336,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="B268" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="C268" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9217,15 +9359,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="B269" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="C269" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9240,15 +9382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="B270" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="C270" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9263,15 +9405,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="B271" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="C271" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9286,15 +9428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="B272" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="C272" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9311,13 +9453,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="B273" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="C273" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9334,13 +9476,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="B274" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="C274" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9357,13 +9499,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="B275" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="C275" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9380,13 +9522,13 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="B276" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="C276" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9403,13 +9545,13 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="B277" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="C277" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9426,13 +9568,13 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="B278" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="C278" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9449,13 +9591,13 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="B279" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="C279" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9472,13 +9614,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="B280" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="C280" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9495,13 +9637,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="B281" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="C281" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9518,13 +9660,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="B282" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="C282" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -9541,13 +9683,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="B283" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="C283" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9564,13 +9706,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="B284" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="C284" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -9587,13 +9729,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="B285" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="C285" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -9610,13 +9752,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="B286" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="C286" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9633,13 +9775,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="B287" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="C287" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9656,13 +9798,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="B288" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="C288" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9679,13 +9821,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="B289" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="C289" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9702,13 +9844,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="B290" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="C290" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9725,13 +9867,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="B291" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="C291" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9748,13 +9890,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="B292" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="C292" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9771,13 +9913,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="B293" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="C293" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -9794,13 +9936,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="B294" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="C294" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9817,13 +9959,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="B295" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="C295" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9840,13 +9982,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="B296" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="C296" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9863,13 +10005,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="B297" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="C297" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -9886,13 +10028,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="B298" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="C298" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9909,13 +10051,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="B299" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="C299" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -9932,13 +10074,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="B300" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="C300" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -9955,13 +10097,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="B301" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="C301" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9978,13 +10120,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="B302" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="C302" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10001,13 +10143,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="B303" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="C303" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10024,13 +10166,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="B304" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="C304" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10047,13 +10189,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="B305" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="C305" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10070,13 +10212,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="B306" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="C306" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10093,13 +10235,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="B307" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="C307" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10116,13 +10258,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="B308" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="C308" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10139,13 +10281,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="B309" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="C309" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10162,13 +10304,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="B310" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="C310" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10185,13 +10327,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="B311" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="C311" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -10208,13 +10350,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="B312" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="C312" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10231,13 +10373,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="B313" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="C313" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10254,13 +10396,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="B314" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="C314" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10277,13 +10419,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="B315" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="C315" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10300,13 +10442,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="B316" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="C316" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10323,13 +10465,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="B317" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="C317" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10346,13 +10488,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="B318" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="C318" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10369,13 +10511,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="B319" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="C319" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10392,13 +10534,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="B320" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="C320" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10415,13 +10557,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="B321" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="C321" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10438,13 +10580,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="B322" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="C322" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10461,13 +10603,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="B323" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="C323" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10484,13 +10626,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="B324" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="C324" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10507,13 +10649,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="B325" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="C325" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10530,13 +10672,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="B326" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="C326" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10553,13 +10695,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="B327" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="C327" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AA68D5-BF92-4DC9-8954-CA6483AFA676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A141B2D-AF37-4311-AC6B-159E6CFFA02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="882">
   <si>
     <t>IN</t>
   </si>
@@ -2097,6 +2097,27 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity dual_port_ram is Generic(K : integer := 8; L : integer := 32); Port ( Clock : in STD_LOGIC; Write_Enable : in STD_LOGIC; Read_Enable : in STD_LOGIC; Write_Address : in STD_LOGIC_VECTOR (log2K-1 downto 0); Read_Address : in STD_LOGIC_VECTOR (log2K-1 downto 0); Data_In : in STD_LOGIC_VECTOR (L-1 downto 0); Data_Out : out STD_LOGIC_VECTOR (L-1 downto 0)); end dual_port_ram; architecture Behavioral of dual_port_ram is type ram_type is array (0 to K-1) of std_logic_vector(L-1 downto 0); signal ram : ram_type; begin process (Clock) begin if rising_edge(Clock) then if Write_Enable = '1' then ram(Write_Address) &lt;= Data_In; end if ; if Read_Enable = '1' then Data_Out &lt;= ram(Read_Address); end if ; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Contiene un errore sintattico ma tolto quello è corretto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(log2K-1)</t>
+    </r>
+  </si>
+  <si>
     <t>Generate a dual-port memory of K x L with the signals clock, write, address_w (log2K-bit), address_r (log2K-bit), and data_write (L-bit) as input and the signal data_read (L-bit) as output.</t>
   </si>
   <si>
@@ -2106,6 +2127,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity dual_port_memory is Generic(K : integer := 8; L : integer := 32); Port ( Clock : in STD_LOGIC; Write : in STD_LOGIC; Address_W : in STD_LOGIC_VECTOR (log2K-1 downto 0); Address_R : in STD_LOGIC_VECTOR (log2K-1 downto 0); Data_Write : in STD_LOGIC_VECTOR (L-1 downto 0); Data_Read : out STD_LOGIC_VECTOR (L-1 downto 0)); end dual_port_memory; architecture Behavioral of dual_port_memory is type mem_array is array (0 to K-1) of std_logic_vector(L-1 downto 0); signal memory : mem_array := (others =&gt; (others =&gt; '0')); begin process (Clock, Write, Address_W, Data_Write) begin if rising_edge(Clock) then if Write = '1' then memory(to_integer(unsigned(Address_W))) &lt;= Data_Write; end if ; end if ; end process ; Data_Read &lt;= memory(to_integer(unsigned(Address_R))); end Behavioral;</t>
   </si>
   <si>
+    <t>La do buona anche se ci sarebbero delle correzioni da fare</t>
+  </si>
+  <si>
     <t>Create a 4-bit binary counter that increments on each clock pulse and resets asynchronously</t>
   </si>
   <si>
@@ -2124,6 +2148,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity fir_filter is Generic ( N : natural := 8; M : natural := 5 ); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Data_In : in signed(N-1 downto 0); Coefficients : in signed(M*N-1 downto 0); Filtered_Output : out signed(N-1 downto 0) ); end fir_filter; architecture Behavioral of fir_filter is signal accumulator : signed(M*N downto 0) := (others =&gt; '0'); begin process (Clock, Reset) begin if Reset = '1' then accumulator &lt;= (others =&gt; '0'); elsif rising_edge(Clock) then for i in 0 to M-1 loop accumulator(i) &lt;= accumulator(i) xor Data_In; end loop ; end if ; end process ; Filtered_Output &lt;= accumulator(N-1 downto 0); end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Semanticamente simile </t>
+  </si>
+  <si>
     <t>Implement a basic clock gating circuit</t>
   </si>
   <si>
@@ -2133,6 +2160,9 @@
     <t>process(clk, rst) begin if rst = '1' then q &lt;= '0'; elsif rising_edge(clk) then if q = '0' then q &lt;= '1'; else q &lt;= '0'; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non fa il clock gating, ma un flip-flop</t>
+  </si>
+  <si>
     <t>Write a floating-point multiplier of N-bit with the signals A (N-bit) and B (N-bit) as input and the signal product (N-bit) as output.</t>
   </si>
   <si>
@@ -2142,6 +2172,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity Floating_Point_Multiplier is Generic (N : natural := 32); Port (A : in STD_LOGIC_VECTOR (N-1 downto 0); B : in STD_LOGIC_VECTOR (N-1 downto 0); Product : out STD_LOGIC_VECTOR (N-1 downto 0)); end Floating_Point_Multiplier; architecture Behavioral of Floating_Point_Multiplier is signal A_float, B_float, Product_float : float32; begin A_float &lt;= to_float(A, 8, 23); B_float &lt;= to_float(B, 8, 23); Product_float &lt;= A_float * B_float; Product &lt;= to_slv(Product_float); end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Necessita di funzioni specifiche però grossomodo ci sta </t>
+  </si>
+  <si>
     <t>Define a BCD to binary converter of (N/3)+1-digit with the signal BCD_value ((N/3)+1-digit) as input and the signal binary_value (N-bit) as output.</t>
   </si>
   <si>
@@ -2151,6 +2184,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity BCD_to_Binary is Generic (N : integer := 8); Port (BCD_Value : in STD_LOGIC_VECTOR ((N/3)+1-1 downto 0); Binary_Value : out STD_LOGIC_VECTOR (N-1 downto 0)); end BCD_to_Binary; architecture Behavioral of BCD_to_Binary is begin process (BCD_Value) variable temp : STD_LOGIC_VECTOR ((N/3)+1-1 downto 0); begin for i in 0 to N/3 loop temp(i) := BCD_Value((i+1)*3-1 downto i*3); end loop ; Binary_Value &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Non esegue la conversione </t>
+  </si>
+  <si>
     <t>Create a basic frequency meter</t>
   </si>
   <si>
@@ -2169,6 +2205,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity Digital_Differentiator is Generic ( N : natural := 8 ); Port ( Clk : in STD_LOGIC; Input_Data : in STD_LOGIC_VECTOR (N-1 downto 0); Differentiated_Data : out STD_LOGIC_VECTOR (N-1 downto 0)); end Digital_Differentiator; architecture Behavioral of Digital_Differentiator is signal Differentiated_Data_Reg : STD_LOGIC_VECTOR (N-1 downto 0); begin process (Clk) begin if rising_edge(Clk) then Differentiated_Data_Reg &lt;= Input_Data; end if ; end process ; Differentiated_Data &lt;= Differentiated_Data_Reg; end Behavioral;</t>
   </si>
   <si>
+    <t>Non effettua la differenziazione</t>
+  </si>
+  <si>
     <t>Define a digital integrator of N-bit with the signals clock, reset, and data_in (N-bit) as input and the signal integrated_output (N-bit) as output.</t>
   </si>
   <si>
@@ -2178,6 +2217,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity DigitalIntegrator is Generic ( N : natural := 8 ); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Integrated_Output : out STD_LOGIC_VECTOR (N-1 downto 0)); end DigitalIntegrator; architecture Behavioral of DigitalIntegrator is signal Accumulator : STD_LOGIC_VECTOR (N-1 downto 0) := (others =&gt; '0'); begin process (Clock, Reset) begin if Reset = '1' then Accumulator &lt;= (others =&gt; '0'); elsif rising_edge(Clock) then Accumulator &lt;= Accumulator + Data_In; end if ; end process ; Integrated_Output &lt;= Accumulator; end Behavioral;</t>
   </si>
   <si>
+    <t>E' un differenziatore</t>
+  </si>
+  <si>
     <t>Define a CRC generator of N-bit with the signals data_in (N-bit) and polynomial (M-bit) as input and the signal CRC_value (M-bit) as output.</t>
   </si>
   <si>
@@ -2187,6 +2229,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity crc_generator is Generic (N : natural := 8; M : natural := 16); Port ( Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Polynomial : in STD_LOGIC_VECTOR (M-1 downto 0); CRC_Value : out STD_LOGIC_VECTOR (M-1 downto 0)); end crc_generator; architecture Behavioral of crc_generator is begin process (Data_In, Polynomial) variable temp_crc : STD_LOGIC_VECTOR (M-1 downto 0); begin temp_crc := (others =&gt; '0'); for i in 0 to N-1 loop if Data_In(i) = '1' then temp_crc := temp_crc xor Polynomial; end if ; end loop ; CRC_Value &lt;= temp_crc; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Un CRC non preciso, ma un CRC</t>
+  </si>
+  <si>
     <t>Generate a priority encoder of 2^M-to-M with the signal requests (2^M-bit) as input and the signals encoded (M-bit) and valid as output.</t>
   </si>
   <si>
@@ -2196,6 +2241,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity PriorityEncoder is Generic(M: integer := 2); Port ( Requests : in STD_LOGIC_VECTOR (2**M-1 downto 0); Encoded : out STD_LOGIC_VECTOR (M-1 downto 0); Valid : out STD_LOGIC); end PriorityEncoder; architecture Behavioral of PriorityEncoder is begin process (Requests) variable temp: std_logic_vector(2**M-1 downto 0); begin Valid &lt;= '0'; for i in Requests'range loop if Requests(2**i - 1) = '1' then Valid &lt;= '1'; end if ; end loop ; Encoded &lt;= temp; Valid &lt;= '1'; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa correttemente l'encoder</t>
+  </si>
+  <si>
     <t>Define an unsigned divider of N-bit with the signals dividend (N-bit) and divisor (N-bit) as input and the signals quotient (N-bit) and remainder (N-bit) as output.</t>
   </si>
   <si>
@@ -2205,6 +2253,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity UnsignedDivider is Generic (N : natural := 8); Port ( Dividend : in STD_LOGIC_VECTOR (N-1 downto 0); Divisor : in STD_LOGIC_VECTOR (N-1 downto 0); Quotient : out STD_LOGIC_VECTOR (N-1 downto 0); Remainder : out STD_LOGIC_VECTOR (N-1 downto 0)); end UnsignedDivider; architecture Behavioral of UnsignedDivider is begin process (Dividend, Divisor) variable temp_quotient : STD_LOGIC_VECTOR (N-1 downto 0); variable temp_remainder : STD_LOGIC_VECTOR (N-1 downto 0); begin temp_quotient := (others =&gt; '0'); temp_remainder := Dividend; for i in 0 to N-1 loop if temp_remainder &gt;= Divisor then temp_quotient(i) := '1'; temp_remainder := temp_remainder - Divisor; end if ; end loop ; Quotient &lt;= temp_quotient; Remainder &lt;= temp_remainder; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Vanno aggiustate un po di cose, ma la semantica va bene</t>
+  </si>
+  <si>
     <t>Implement a basic I2C master controller</t>
   </si>
   <si>
@@ -2214,6 +2265,9 @@
     <t>process(clk) begin if rising_edge(clk) then case state is when IDLE =&gt; if start = '1' then state &lt;= START_BIT; bit_count &lt;= 0; when START_BIT =&gt; sclk &lt;= '0'; if bit_timer = BIT_PERIOD - 1 then sda_out &lt;= '0'; bit_timer &lt;= 0; else bit_timer &lt;= bit_timer + 1; end if; when STOP_BIT =&gt; sclk &lt;= '1'; if bit_timer = BIT_PERIOD - 1 then sda_out &lt;= '1'; bit_timer &lt;= 0; else bit_timer &lt;= bit_timer + 1; end if; when IDLE =&gt; sclk &lt;= '0'; if bit_timer = BIT_PERIOD - 1 then sda_out &lt;= '0'; bit_timer &lt;= 0; else bit_timer &lt;= bit_timer + 1; end if; end case; end if; end process;</t>
   </si>
   <si>
+    <t>Implementa un I2C master controller</t>
+  </si>
+  <si>
     <t>Create a basic DDS (Direct Digital Synthesis) waveform generator</t>
   </si>
   <si>
@@ -2223,6 +2277,9 @@
     <t>process(clk) begin if rising_edge(clk) then if counter = DIV - 1 then phase_acc &lt;= phase_acc + phase_inc; sine_out &lt;= sine_lut(to_integer(phase_acc(31 downto 24))); cosine_out &lt;= cosine_lut(to_integer(phase_acc(31 downto 24))); end if; counter &lt;= 0; end if; end process;</t>
   </si>
   <si>
+    <t>Implementana un DDS (Direct Digital Synthesis) waveform generator</t>
+  </si>
+  <si>
     <t>Write a comparator circuit of K-bit with the signals value1 (K-bit) and value2 (K-bit) as input and the signals greater, equal, and smaller as output.</t>
   </si>
   <si>
@@ -2232,6 +2289,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity Comparator is Port ( Value1 : in STD_LOGIC_VECTOR (K-1 downto 0); Value2 : in STD_LOGIC_VECTOR (K-1 downto 0); Greater : out STD_LOGIC; Equal : out STD_LOGIC; Smaller : out STD_LOGIC); end Comparator; architecture Behavioral of Comparator is begin process (Value1, Value2) variable temp : STD_LOGIC_VECTOR (K-1 downto 0); begin temp := (Value1 &amp; Value2); Greater &lt;= temp(K-1) when Equal = '1' else '0'; Equal &lt;= temp(K-1) when Equal = '1' else '0'; Smaller &lt;= temp(K-1) when Equal = '1' else '0'; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa un comparatore</t>
+  </si>
+  <si>
     <t>if rising edge of clk_i; when the case is other_st; set cathodes_dot signal to the concatenation of cathodes and the complement of dot signal</t>
   </si>
   <si>
@@ -2241,6 +2301,9 @@
     <t>if rising_edge(clk_i) then; when other_st =&gt;; cathodes_dot &lt;= (not dot)&amp;cathodes;</t>
   </si>
   <si>
+    <t>Sbagliata l'implementazione</t>
+  </si>
+  <si>
     <t>declare a signal t_tick_o of type std_logic; S signal is set to the result of an XOR operation between CIN and the XOR operation between OP_A and OP_B.</t>
   </si>
   <si>
@@ -2284,6 +2347,9 @@
   </si>
   <si>
     <t>constant CLK_DIV : integer := 100; signal prova : std_logic_vector(3 downto 0);</t>
+  </si>
+  <si>
+    <t>Non effettua la concatenazione</t>
   </si>
   <si>
     <t>i_cs_re_tk is a signal of type std_logic used for something related to rising edge and timekeeping; define an output std_logic_vector of 8 bit called anodes</t>
@@ -3026,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="G261" sqref="G261"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="H283" sqref="H283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9195,18 +9261,21 @@
         <v>0.6489489332562548</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B262" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C262" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9218,18 +9287,21 @@
         <v>0.78764365382535173</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H262" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B263" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C263" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9241,18 +9313,18 @@
         <v>0.93440094834565979</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B264" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C264" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9264,18 +9336,21 @@
         <v>0.54570147431668192</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H264" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B265" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C265" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9289,16 +9364,19 @@
       <c r="G265">
         <v>0</v>
       </c>
+      <c r="H265" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B266" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C266" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9310,18 +9388,21 @@
         <v>0.6536978520598028</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H266" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B267" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C267" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9335,16 +9416,19 @@
       <c r="G267">
         <v>0</v>
       </c>
+      <c r="H267" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B268" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C268" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9356,18 +9440,18 @@
         <v>0.42418181040674502</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B269" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C269" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9381,16 +9465,19 @@
       <c r="G269">
         <v>0</v>
       </c>
+      <c r="H269" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B270" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C270" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9402,18 +9489,21 @@
         <v>0.84284262931425202</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H270" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B271" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C271" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9425,18 +9515,21 @@
         <v>0.66249281383433167</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H271" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="B272" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C272" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9450,16 +9543,19 @@
       <c r="G272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B273" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="C273" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9471,18 +9567,21 @@
         <v>0.94038844209558814</v>
       </c>
       <c r="G273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H273" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="B274" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="C274" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9494,18 +9593,21 @@
         <v>0.50270270270270279</v>
       </c>
       <c r="G274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H274" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="B275" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="C275" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9517,18 +9619,21 @@
         <v>0.3532304111482461</v>
       </c>
       <c r="G275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H275" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="B276" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="C276" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9542,16 +9647,19 @@
       <c r="G276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B277" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="C277" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9565,16 +9673,19 @@
       <c r="G277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="B278" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9589,15 +9700,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="B279" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="C279" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9611,16 +9722,19 @@
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="B280" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="C280" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9635,15 +9749,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="B281" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="C281" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9655,18 +9769,18 @@
         <v>0.99795199999999995</v>
       </c>
       <c r="G281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="B282" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="C282" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -9681,15 +9795,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="B283" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="C283" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9703,16 +9817,19 @@
       <c r="G283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="B284" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="C284" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -9727,15 +9844,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="B285" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="C285" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -9750,15 +9867,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="B286" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="C286" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9773,15 +9890,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="B287" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="C287" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9796,15 +9913,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="B288" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="C288" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9821,13 +9938,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="B289" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="C289" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9844,13 +9961,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="B290" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="C290" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9867,13 +9984,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="B291" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="C291" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9890,13 +10007,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="B292" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="C292" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9913,13 +10030,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="B293" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="C293" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -9936,13 +10053,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="B294" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="C294" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9959,13 +10076,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="B295" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="C295" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9982,13 +10099,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="B296" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="C296" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10005,13 +10122,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="B297" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="C297" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -10028,13 +10145,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="B298" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="C298" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10051,13 +10168,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="B299" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="C299" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -10074,13 +10191,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="B300" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="C300" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -10097,13 +10214,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="B301" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="C301" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10120,13 +10237,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="B302" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="C302" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10143,13 +10260,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="B303" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="C303" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10166,13 +10283,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="B304" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="C304" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10189,13 +10306,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="B305" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="C305" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10212,13 +10329,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="B306" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="C306" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10235,13 +10352,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="B307" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="C307" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10258,13 +10375,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="B308" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="C308" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10281,13 +10398,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="B309" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="C309" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10304,13 +10421,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="B310" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="C310" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10327,13 +10444,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="B311" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="C311" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -10350,13 +10467,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="B312" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="C312" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10373,13 +10490,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="B313" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="C313" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10396,13 +10513,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="B314" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="C314" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10419,13 +10536,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="B315" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="C315" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10442,13 +10559,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="B316" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="C316" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10465,13 +10582,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="B317" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="C317" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10488,13 +10605,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="B318" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="C318" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10511,13 +10628,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="B319" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="C319" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10534,13 +10651,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="B320" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="C320" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10557,13 +10674,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="B321" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="C321" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10580,13 +10697,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="B322" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="C322" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10603,13 +10720,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="B323" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="C323" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10626,13 +10743,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="B324" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="C324" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10649,13 +10766,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="B325" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="C325" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10672,13 +10789,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="B326" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="C326" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10695,13 +10812,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="B327" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="C327" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A141B2D-AF37-4311-AC6B-159E6CFFA02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D787CF9-98E4-40FF-AE98-B88B5A248490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="886">
   <si>
     <t>IN</t>
   </si>
@@ -2394,6 +2394,9 @@
     <t>signal_4 : std_logic_vector(DATA_LEN - 1 downto 0); clk_process : process begin CLK &lt;= '0'; wait for CLK_period / 2; CLK &lt;= '1'; wait for CLK_period / 2; end process;</t>
   </si>
   <si>
+    <t>Non proprio uguali uguali, ma supposto che CLK esista altrove, va bene</t>
+  </si>
+  <si>
     <t>set the counter signal to c; component abox is made up of data_in as input std_logic_vector of 4 bit and data_out as output std_logic_vector of 4 bit; if rst_n_i signal is low</t>
   </si>
   <si>
@@ -2403,6 +2406,9 @@
     <t>counter &lt;= c; component abox is port(data_in: in std_logic_vector(3 downto 0); data_out: out std_logic_vector(3 downto 0)); end component;; if rst_n_i = '0' then i_start_counter &lt;= 0; t_start &lt;= '0'; t_stb &lt;= '0'; end if;</t>
   </si>
   <si>
+    <t>Aggiunge roba in più, però va bene</t>
+  </si>
+  <si>
     <t>t_dac_val_0 is a std_logic_vector signal with length equal to DAC_D_OUT_LEN bits; Assign the value from sign_data at index i_counter_3 to signal i_cs.</t>
   </si>
   <si>
@@ -2412,6 +2418,9 @@
     <t>signal_13_i.val &lt;= sign_data(i_counter_3); i_cs &lt;= i_cs when i_counter_3 = 0 else '1';</t>
   </si>
   <si>
+    <t>Completamente sbagliato</t>
+  </si>
+  <si>
     <t>kupd is an instance of key_update component with the signals reg_key_in, round_counter, reg_key_out; t_rst_n is a signal of type std_logic</t>
   </si>
   <si>
@@ -2428,6 +2437,9 @@
   </si>
   <si>
     <t>if rising_edge(clk_i) then if rst_n_i = '0' then i_bit_counter &lt;= DAC_D_IN_LEN - 1; i_cmd_state &lt;= idle_st; i_done &lt;= '0'; i_cs &lt;= '1'; i_sda &lt;= '0'; i_ldac &lt;= '1'; i_ldac_cnt &lt;= 0; end if; end if; i_scl &lt;= val_vector(i_counter_4);</t>
+  </si>
+  <si>
+    <t>Non ha effettuato l'ultima richiesta</t>
   </si>
   <si>
     <t>define the constant count_max_value of type integer and initialize it to CLKIN_freq divided by CLKOUT_freq minus 1; set sda_o signal to i_sda when rst_n_i signal is high, otherwise set it to low</t>
@@ -3092,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="H283" sqref="H283"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9887,7 +9899,7 @@
         <v>0.89934842249657077</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9910,7 +9922,7 @@
         <v>0.9761833942381235</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9933,18 +9945,21 @@
         <v>0.6111968704346239</v>
       </c>
       <c r="G288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H288" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B289" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C289" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9956,18 +9971,21 @@
         <v>0.91073205401563606</v>
       </c>
       <c r="G289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H289" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B290" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C290" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9981,16 +9999,19 @@
       <c r="G290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B291" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C291" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -10004,16 +10025,19 @@
       <c r="G291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B292" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C292" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10027,16 +10051,19 @@
       <c r="G292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B293" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C293" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -10051,15 +10078,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B294" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C294" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10073,16 +10100,19 @@
       <c r="G294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B295" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C295" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10094,18 +10124,18 @@
         <v>0.9862401608628536</v>
       </c>
       <c r="G295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B296" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C296" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10117,18 +10147,18 @@
         <v>0.99783841243936455</v>
       </c>
       <c r="G296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B297" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C297" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -10143,15 +10173,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B298" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C298" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10166,15 +10196,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B299" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C299" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -10189,15 +10219,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B300" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C300" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -10212,15 +10242,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B301" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C301" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10235,15 +10265,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B302" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C302" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10258,15 +10288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B303" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C303" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10281,15 +10311,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B304" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C304" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10306,13 +10336,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B305" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C305" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10329,13 +10359,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B306" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C306" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10352,13 +10382,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B307" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C307" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10375,13 +10405,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B308" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C308" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10398,13 +10428,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B309" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C309" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10421,13 +10451,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B310" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C310" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10444,13 +10474,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B311" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C311" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -10467,13 +10497,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B312" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C312" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10490,13 +10520,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B313" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C313" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10513,13 +10543,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B314" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C314" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10536,13 +10566,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B315" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C315" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10559,13 +10589,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B316" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C316" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10582,13 +10612,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B317" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C317" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10605,13 +10635,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B318" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C318" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10628,13 +10658,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B319" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C319" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10651,13 +10681,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B320" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C320" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10674,13 +10704,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B321" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C321" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10697,13 +10727,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B322" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C322" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10720,13 +10750,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B323" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C323" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10743,13 +10773,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B324" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C324" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10766,13 +10796,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B325" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C325" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10789,13 +10819,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B326" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C326" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10812,13 +10842,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B327" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C327" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D787CF9-98E4-40FF-AE98-B88B5A248490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{340FD3F4-FACB-4164-9B8A-66C725823AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="891">
   <si>
     <t>IN</t>
   </si>
@@ -2514,6 +2514,9 @@
     <t>use ieee.std_logic_1164.all; signal current_state: state := secondo;</t>
   </si>
   <si>
+    <t xml:space="preserve">Doveva includere tutta la libreria e non solo una parte </t>
+  </si>
+  <si>
     <t>Map sda_i to t_sda, which is an input signal of type std_logic; i_cmd_state is a signal of type cmd_state; component add_round_key is made up of round_key_in, data_in as input std_logic_vector of 64 bit and data_out as output std_logic_vector of 64 bit</t>
   </si>
   <si>
@@ -2532,6 +2535,9 @@
     <t>process(clk_process) begin if rising_edge(clk_process) then if enable = '0' then count_nxt &lt;= count_reg when count_reg = DIV - 1 else 0 when count_reg = DIV + 1 else count_reg; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Sintatticamente sbagliato</t>
+  </si>
+  <si>
     <t>map data_2_o to t_dac_val_2; if bits 21-14 of BAR signal are equal to hexadecimal '2B'; Use the select statement with GPIO_enable signal to determine whether to output data from GPIO_write signal or keep it high impedance (Z).Report an error message with failure severity if the output signal does not equal '0'</t>
   </si>
   <si>
@@ -2550,6 +2556,9 @@
     <t>signal control : STD_LOGIC_VECTOR (1 downto 0) := (others =&gt; '0'); reg_key_in: in std_logic_vector(79 downto 0);; entity ROM is port(RST : in std_logic; ADDR : in std_logic_vector(2 downto 0); DATA : out std_logic_vector(31 downto 0)); end ROM;</t>
   </si>
   <si>
+    <t>Apparte la ROM, tutto apposto</t>
+  </si>
+  <si>
     <t>ytemp is a signal of type std_logic of 4 bit; if the bit 18 to 11 of abc signal are equal to the hexadecimal value "5E"; define an output std_logic_vector of 8 bit called anodes</t>
   </si>
   <si>
@@ -2559,6 +2568,9 @@
     <t>signal temptemp: std_logic; if abc(18 downto 11) = x"5E" then ; end if;; anodes : out    STD_LOGIC_VECTOR (7 downto 0);</t>
   </si>
   <si>
+    <t>Non fa l'inizializzazione con 4 bit</t>
+  </si>
+  <si>
     <t>wait for 100 ns, set plaintext to hexadecimal value '0x0000000000000000', and user_key to hexadecimal value '0x00000000000000000000'; unita_controllo is a component with input std_logic signals q0, clock, reset, start and output std_logic signals count of 3 bits, loadM, count_in, loadAQ, en_shift, selM, selAQ, selF, subtract, stop_cu.; c is a constant of type std_logic_vector of 7 bit initialized to '1000110'</t>
   </si>
   <si>
@@ -2575,6 +2587,9 @@
   </si>
   <si>
     <t>signal enable : std_logic := '1'; with f select z &lt;= 	b0 when '0', a1 when '1', '-' when others;</t>
+  </si>
+  <si>
+    <t>Non dichiara il componente</t>
   </si>
   <si>
     <t>Wait until s0_arready is high; enable is an input signal of type std_logic; This is an behavioral architecture for the entity named counter.</t>
@@ -3104,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="G296" sqref="G296"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="K311" sqref="K311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10170,7 +10185,7 @@
         <v>0.97722356064703286</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10193,7 +10208,7 @@
         <v>0.95755078078176248</v>
       </c>
       <c r="G298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10264,16 +10279,19 @@
       <c r="G301">
         <v>0</v>
       </c>
+      <c r="H301" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B302" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C302" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10285,18 +10303,18 @@
         <v>0.999996</v>
       </c>
       <c r="G302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B303" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C303" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10310,16 +10328,19 @@
       <c r="G303">
         <v>0</v>
       </c>
+      <c r="H303" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B304" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C304" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10333,16 +10354,19 @@
       <c r="G304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B305" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C305" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10354,18 +10378,21 @@
         <v>0.666268656716418</v>
       </c>
       <c r="G305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H305" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B306" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C306" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10379,16 +10406,19 @@
       <c r="G306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B307" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C307" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10400,18 +10430,18 @@
         <v>0.99875914486112183</v>
       </c>
       <c r="G307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B308" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C308" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10425,16 +10455,19 @@
       <c r="G308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="B309" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C309" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10449,15 +10482,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="B310" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C310" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10472,15 +10505,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="B311" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C311" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -10495,15 +10528,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B312" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="C312" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10518,15 +10551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="B313" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="C313" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10541,15 +10574,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="B314" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C314" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10564,15 +10597,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B315" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C315" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10587,15 +10620,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B316" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="C316" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10610,15 +10643,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B317" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="C317" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10633,15 +10666,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B318" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C318" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10656,15 +10689,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="B319" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="C319" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10679,15 +10712,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B320" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C320" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10704,13 +10737,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B321" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="C321" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10727,13 +10760,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B322" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C322" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10750,13 +10783,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B323" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="C323" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10773,13 +10806,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="B324" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="C324" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10796,13 +10829,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B325" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="C325" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10819,13 +10852,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="B326" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="C326" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10842,13 +10875,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B327" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="C327" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{340FD3F4-FACB-4164-9B8A-66C725823AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8546F6C5-CD0D-43DB-89C5-60D4910FC355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="896">
   <si>
     <t>IN</t>
   </si>
@@ -2622,6 +2622,9 @@
     <t>signal output_val : std_logic; if bar(21 downto 14) = x"2B" then ; end if;; if bar(21 downto 14) = x"2B" then ; end if;</t>
   </si>
   <si>
+    <t>u1 non lo inizializza</t>
+  </si>
+  <si>
     <t>Define and declare multiple signals of type std_logic: en_tmp, req_tmp, ack_tmp, write_tmp; i_ldac_cnt is an integer signal ranging from 0 to 4.</t>
   </si>
   <si>
@@ -2640,6 +2643,9 @@
     <t>if ghi(16 downto 9) = x"77" then ; end if; case w is when "U" =&gt; w := "X"; when "X" =&gt; ; when "0" =&gt; w := w2; when "+" | "-" =&gt; if w2 = '0' then w := w1; end if; end case;</t>
   </si>
   <si>
+    <t>Non spiaccicati ma sintatticamente simili</t>
+  </si>
+  <si>
     <t>ROM_selector_onboard is an entity with clock_in as input std_logic signal, reset_in as input std_logic signal, addr_strobe_in as input std_logic signal, anodes_out as output std_logic_vector signal of 8 bit, cathodes_out as output std_logic_vector signal of 8 bit; temp_stop_cu ia s std_logic signal; define a signal of type std_logic initialized to 0 and called TbClockA</t>
   </si>
   <si>
@@ -2649,6 +2655,9 @@
     <t>entity ROM_selector_onboard is port (clock_in : in STD_LOGIC; reset_in : in STD_LOGIC; addr_strobe_in : in STD_LOGIC; anodes_out : out STD_LOGIC_VECTOR(7 downto 0); cathodes_out : out STD_LOGIC_VECTOR(7 downto 0)); end ROM_selector_onboard; signal temp_stop_cu: std_logic;; signal TbClockA : std_logic;</t>
   </si>
   <si>
+    <t>Non a ciò che gli ho richiesto</t>
+  </si>
+  <si>
     <t>Define an entity named ripple_carry with input signals X and Y each of size 8 bits, s_in as a single bit input signal, c_out as a single bit output signal, and Z as an output std_logic_vector of size 8 bits; using the selected signal assignment, the signal c.a_request.be is set to c.sys_master_ctrl_out.be when the signal c.b_request_complete is equal to '1', r.b_request.be when the signal c.b_request_complete is equal to '0', otherwise 'X'; define the ieee standard library</t>
   </si>
   <si>
@@ -2676,6 +2685,9 @@
     <t>clk2xgen: if (clk2xen /= 0) generate clkena(1 downto 0) &lt;= "11"; end generate; signal round_key_temp: std_logic_vector(63 downto 0);; component sbox is port(data_in: in std_logic_vector(3 downto 0); data_out: out std_logic_vector(3 downto 0)); end component;</t>
   </si>
   <si>
+    <t xml:space="preserve">identiche,  a parte la definizione di sbox che però è generica </t>
+  </si>
+  <si>
     <t>t_stb is a signal of type std_logic; concatenate two 18-bit slices from reg_key_in and two 61-bit slices from reg_key_in, store the result in key_temp1</t>
   </si>
   <si>
@@ -2683,6 +2695,9 @@
   </si>
   <si>
     <t>signal_t_stb : std_logic; reg_key_in( 18 downto 0 ) &lt;= reg_key_in( 18 downto 0 ) &amp; reg_key_in( 79 downto 19 ); reg_key_in( 79 downto 19 ) &lt;= reg_key_in( 18 downto 0 ) &amp; reg_key_in( 79 downto 19 );</t>
+  </si>
+  <si>
+    <t>Sbaliata l'assegnazione</t>
   </si>
   <si>
     <t>set signal result_sig as the XOR of input_x and input_y; i_sck_cpy is a signal of type std_logic; pl is an instance of perm_layer component with the signals data_out_temp2, data_out</t>
@@ -3120,7 +3135,7 @@
   <dimension ref="A1:H327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="K311" sqref="K311"/>
+      <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10479,7 +10494,7 @@
         <v>0.99995890523547304</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10550,16 +10565,19 @@
       <c r="G312">
         <v>0</v>
       </c>
+      <c r="H312" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B313" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C313" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10571,18 +10589,18 @@
         <v>0.99993750000000003</v>
       </c>
       <c r="G313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B314" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C314" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10594,18 +10612,21 @@
         <v>0.74591538743156838</v>
       </c>
       <c r="G314">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H314" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B315" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C315" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10619,16 +10640,19 @@
       <c r="G315">
         <v>0</v>
       </c>
+      <c r="H315" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B316" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C316" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10640,18 +10664,18 @@
         <v>0.94454085945451716</v>
       </c>
       <c r="G316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B317" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C317" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10665,16 +10689,19 @@
       <c r="G317">
         <v>0</v>
       </c>
+      <c r="H317" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B318" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C318" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10686,18 +10713,21 @@
         <v>0.87722761852115083</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H318" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B319" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C319" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10711,16 +10741,19 @@
       <c r="G319">
         <v>0</v>
       </c>
+      <c r="H319" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B320" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C320" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10732,18 +10765,18 @@
         <v>0.98943985307621674</v>
       </c>
       <c r="G320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="B321" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="C321" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10760,13 +10793,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="B322" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="C322" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -10783,13 +10816,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B323" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="C323" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -10806,13 +10839,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B324" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="C324" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10824,18 +10857,18 @@
         <v>0.96995416256349587</v>
       </c>
       <c r="G324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B325" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="C325" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10847,18 +10880,18 @@
         <v>0.9999968246710359</v>
       </c>
       <c r="G325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B326" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C326" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10875,13 +10908,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B327" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C327" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9A5304-0368-4C0C-B94C-E5A233CAC083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE53EE1D-6B9C-4617-BA7A-CFF8FD42C706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4272" yWindow="2460" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1232">
   <si>
     <t>IN</t>
   </si>
@@ -3761,12 +3766,15 @@
   <si>
     <t>wait for 10 ns; cs_o : out std_logic;</t>
   </si>
+  <si>
+    <t>SBERT_M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3791,6 +3799,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3828,16 +3842,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4137,24 +4155,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L327"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="11" max="11" width="46" customWidth="1"/>
-    <col min="12" max="12" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="5"/>
+    <col min="12" max="12" width="46" customWidth="1"/>
+    <col min="13" max="13" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4185,14 +4204,17 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4223,11 +4245,14 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4258,11 +4283,14 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4293,11 +4321,14 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4328,11 +4359,14 @@
       <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="5">
+        <v>0.93770146369934082</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4363,11 +4397,14 @@
       <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" s="5">
+        <v>0.90151584148406982</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4398,11 +4435,14 @@
       <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7" s="5">
+        <v>0.98906844854354858</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4433,11 +4473,14 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4468,11 +4511,14 @@
       <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9" s="5">
+        <v>0.94637870788574219</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -4503,11 +4549,14 @@
       <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -4538,11 +4587,14 @@
       <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4573,11 +4625,14 @@
       <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4608,11 +4663,14 @@
       <c r="J13" t="s">
         <v>54</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13" s="5">
+        <v>0.60222941637039185</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -4643,11 +4701,14 @@
       <c r="J14" t="s">
         <v>15</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="K14" s="5">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -4678,11 +4739,14 @@
       <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="K15" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -4713,11 +4777,14 @@
       <c r="J16" t="s">
         <v>15</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -4748,11 +4815,14 @@
       <c r="J17" t="s">
         <v>67</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" s="5">
+        <v>0.98839724063873291</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -4783,11 +4853,14 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -4818,11 +4891,14 @@
       <c r="J19" t="s">
         <v>15</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -4853,11 +4929,14 @@
       <c r="J20" t="s">
         <v>15</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -4888,11 +4967,14 @@
       <c r="J21" t="s">
         <v>78</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" s="5">
+        <v>0.68708539009094238</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -4923,11 +5005,14 @@
       <c r="J22" t="s">
         <v>24</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="K22" s="5">
+        <v>0.64884746074676514</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -4958,11 +5043,14 @@
       <c r="J23" t="s">
         <v>15</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -4993,11 +5081,14 @@
       <c r="J24" t="s">
         <v>15</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="K24" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -5028,11 +5119,14 @@
       <c r="J25" t="s">
         <v>15</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25" s="5">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -5063,11 +5157,14 @@
       <c r="J26" t="s">
         <v>15</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -5098,14 +5195,17 @@
       <c r="J27" t="s">
         <v>78</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="K27" s="5">
+        <v>0.9247506856918335</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -5136,11 +5236,14 @@
       <c r="J28" t="s">
         <v>99</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="K28" s="5">
+        <v>0.97275996208190918</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -5171,11 +5274,14 @@
       <c r="J29" t="s">
         <v>104</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="K29" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -5206,11 +5312,14 @@
       <c r="J30" t="s">
         <v>15</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -5241,11 +5350,14 @@
       <c r="J31" t="s">
         <v>15</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -5276,11 +5388,14 @@
       <c r="J32" t="s">
         <v>15</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -5311,11 +5426,14 @@
       <c r="J33" t="s">
         <v>15</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -5346,11 +5464,14 @@
       <c r="J34" t="s">
         <v>15</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -5381,11 +5502,14 @@
       <c r="J35" t="s">
         <v>15</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -5416,11 +5540,14 @@
       <c r="J36" t="s">
         <v>15</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="K36" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -5451,11 +5578,14 @@
       <c r="J37" t="s">
         <v>15</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -5486,11 +5616,14 @@
       <c r="J38" t="s">
         <v>15</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -5521,11 +5654,14 @@
       <c r="J39" t="s">
         <v>127</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="K39" s="5">
+        <v>0.89366382360458374</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>128</v>
       </c>
@@ -5556,11 +5692,14 @@
       <c r="J40" t="s">
         <v>15</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -5591,11 +5730,14 @@
       <c r="J41" t="s">
         <v>15</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="K41" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -5626,11 +5768,14 @@
       <c r="J42" t="s">
         <v>15</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="K42" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -5661,11 +5806,14 @@
       <c r="J43" t="s">
         <v>15</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="K43" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -5696,11 +5844,14 @@
       <c r="J44" t="s">
         <v>15</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="K44" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -5731,11 +5882,14 @@
       <c r="J45" t="s">
         <v>67</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="K45" s="5">
+        <v>0.98834908008575439</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -5766,11 +5920,14 @@
       <c r="J46" t="s">
         <v>15</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="K46" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -5801,11 +5958,14 @@
       <c r="J47" t="s">
         <v>148</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="K47" s="5">
+        <v>0.7089429497718811</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -5836,11 +5996,14 @@
       <c r="J48" t="s">
         <v>153</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="K48" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -5871,11 +6034,14 @@
       <c r="J49" t="s">
         <v>15</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -5906,11 +6072,14 @@
       <c r="J50" t="s">
         <v>15</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -5941,11 +6110,14 @@
       <c r="J51" t="s">
         <v>15</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="K51" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -5976,11 +6148,14 @@
       <c r="J52" t="s">
         <v>15</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -6011,11 +6186,14 @@
       <c r="J53" t="s">
         <v>165</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="K53" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -6046,11 +6224,14 @@
       <c r="J54" t="s">
         <v>15</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="K54" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -6081,11 +6262,14 @@
       <c r="J55" t="s">
         <v>15</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="K55" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -6116,11 +6300,14 @@
       <c r="J56" t="s">
         <v>15</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="K56" s="5">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -6151,11 +6338,14 @@
       <c r="J57" t="s">
         <v>15</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -6186,11 +6376,14 @@
       <c r="J58" t="s">
         <v>15</v>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="K58" s="5">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>176</v>
       </c>
@@ -6221,11 +6414,14 @@
       <c r="J59" t="s">
         <v>180</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="K59" s="5">
+        <v>0.76025748252868652</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -6256,11 +6452,14 @@
       <c r="J60" t="s">
         <v>185</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="K60" s="5">
+        <v>0.85486292839050293</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -6291,11 +6490,14 @@
       <c r="J61" t="s">
         <v>15</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="K61" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -6326,11 +6528,14 @@
       <c r="J62" t="s">
         <v>15</v>
       </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="K62" s="5">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -6361,11 +6566,14 @@
       <c r="J63" t="s">
         <v>15</v>
       </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="K63" s="5">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>192</v>
       </c>
@@ -6396,11 +6604,14 @@
       <c r="J64" t="s">
         <v>15</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="K64" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>194</v>
       </c>
@@ -6431,11 +6642,14 @@
       <c r="J65" t="s">
         <v>15</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="K65" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -6466,11 +6680,14 @@
       <c r="J66" t="s">
         <v>15</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="K66" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -6501,11 +6718,14 @@
       <c r="J67" t="s">
         <v>201</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="K67" s="5">
+        <v>0.7943655252456665</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -6536,11 +6756,14 @@
       <c r="J68" t="s">
         <v>206</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="K68" s="5">
+        <v>0.67339718341827393</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -6571,11 +6794,14 @@
       <c r="J69" t="s">
         <v>15</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="K69" s="5">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -6606,11 +6832,14 @@
       <c r="J70" t="s">
         <v>213</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="K70" s="5">
+        <v>0.94716519117355347</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -6641,11 +6870,14 @@
       <c r="J71" t="s">
         <v>218</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="K71" s="5">
+        <v>0.93708515167236328</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>219</v>
       </c>
@@ -6676,11 +6908,14 @@
       <c r="J72" t="s">
         <v>223</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="K72" s="5">
+        <v>0.55685055255889893</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>224</v>
       </c>
@@ -6711,11 +6946,14 @@
       <c r="J73" t="s">
         <v>15</v>
       </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="K73" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -6746,11 +6984,14 @@
       <c r="J74" t="s">
         <v>15</v>
       </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="K74" s="5">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>228</v>
       </c>
@@ -6781,11 +7022,14 @@
       <c r="J75" t="s">
         <v>232</v>
       </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="K75" s="5">
+        <v>0.8720245361328125</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -6816,11 +7060,14 @@
       <c r="J76" t="s">
         <v>236</v>
       </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="K76" s="5">
+        <v>0.90311896800994873</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>237</v>
       </c>
@@ -6851,11 +7098,14 @@
       <c r="J77" t="s">
         <v>15</v>
       </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="K77" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -6886,11 +7136,14 @@
       <c r="J78" t="s">
         <v>15</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="K78" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>241</v>
       </c>
@@ -6921,11 +7174,14 @@
       <c r="J79" t="s">
         <v>245</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="K79" s="5">
+        <v>0.76873135566711426</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>246</v>
       </c>
@@ -6956,11 +7212,14 @@
       <c r="J80" t="s">
         <v>223</v>
       </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="K80" s="5">
+        <v>0.55685055255889893</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -6991,11 +7250,14 @@
       <c r="J81" t="s">
         <v>15</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="K81" s="5">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>249</v>
       </c>
@@ -7026,11 +7288,14 @@
       <c r="J82" t="s">
         <v>253</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="K82" s="5">
+        <v>0.48976981639862061</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -7061,11 +7326,14 @@
       <c r="J83" t="s">
         <v>223</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="K83" s="5">
+        <v>0.63186430931091309</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>258</v>
       </c>
@@ -7096,11 +7364,14 @@
       <c r="J84" t="s">
         <v>15</v>
       </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="K84" s="5">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>260</v>
       </c>
@@ -7131,11 +7402,14 @@
       <c r="J85" t="s">
         <v>15</v>
       </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="K85" s="5">
+        <v>0.9999997615814209</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -7166,11 +7440,14 @@
       <c r="J86" t="s">
         <v>15</v>
       </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="K86" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -7201,11 +7478,14 @@
       <c r="J87" t="s">
         <v>15</v>
       </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="K87" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>266</v>
       </c>
@@ -7236,11 +7516,14 @@
       <c r="J88" t="s">
         <v>15</v>
       </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="K88" s="5">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -7271,11 +7554,14 @@
       <c r="J89" t="s">
         <v>15</v>
       </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="K89" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -7306,11 +7592,14 @@
       <c r="J90" t="s">
         <v>15</v>
       </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="K90" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>272</v>
       </c>
@@ -7341,11 +7630,14 @@
       <c r="J91" t="s">
         <v>15</v>
       </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="K91" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -7376,11 +7668,14 @@
       <c r="J92" t="s">
         <v>278</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="K92" s="5">
+        <v>0.95519459247589111</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>270</v>
       </c>
@@ -7411,11 +7706,14 @@
       <c r="J93" t="s">
         <v>15</v>
       </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="K93" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>279</v>
       </c>
@@ -7446,11 +7744,14 @@
       <c r="J94" t="s">
         <v>15</v>
       </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="K94" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -7481,11 +7782,14 @@
       <c r="J95" t="s">
         <v>15</v>
       </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="K95" s="5">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>283</v>
       </c>
@@ -7516,11 +7820,14 @@
       <c r="J96" t="s">
         <v>15</v>
       </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="K96" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -7551,11 +7858,14 @@
       <c r="J97" t="s">
         <v>15</v>
       </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="K97" s="5">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>287</v>
       </c>
@@ -7586,11 +7896,14 @@
       <c r="J98" t="s">
         <v>15</v>
       </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="K98" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>288</v>
       </c>
@@ -7621,11 +7934,14 @@
       <c r="J99" t="s">
         <v>15</v>
       </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="K99" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>289</v>
       </c>
@@ -7656,11 +7972,14 @@
       <c r="J100" t="s">
         <v>15</v>
       </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="K100" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -7691,11 +8010,14 @@
       <c r="J101" t="s">
         <v>15</v>
       </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="K101" s="5">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>293</v>
       </c>
@@ -7726,11 +8048,14 @@
       <c r="J102" t="s">
         <v>15</v>
       </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="K102" s="5">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>295</v>
       </c>
@@ -7761,11 +8086,14 @@
       <c r="J103" t="s">
         <v>15</v>
       </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="K103" s="5">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>297</v>
       </c>
@@ -7796,11 +8124,14 @@
       <c r="J104" t="s">
         <v>301</v>
       </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="K104" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -7831,11 +8162,14 @@
       <c r="J105" t="s">
         <v>306</v>
       </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="K105" s="5">
+        <v>0.84117007255554199</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>307</v>
       </c>
@@ -7866,11 +8200,14 @@
       <c r="J106" t="s">
         <v>15</v>
       </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="K106" s="5">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>309</v>
       </c>
@@ -7901,11 +8238,14 @@
       <c r="J107" t="s">
         <v>313</v>
       </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="K107" s="5">
+        <v>0.5536806583404541</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>314</v>
       </c>
@@ -7936,11 +8276,14 @@
       <c r="J108" t="s">
         <v>15</v>
       </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="K108" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>316</v>
       </c>
@@ -7971,11 +8314,14 @@
       <c r="J109" t="s">
         <v>15</v>
       </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="K109" s="5">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>318</v>
       </c>
@@ -8006,11 +8352,14 @@
       <c r="J110" t="s">
         <v>322</v>
       </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="K110" s="5">
+        <v>0.78941267728805542</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>323</v>
       </c>
@@ -8041,11 +8390,14 @@
       <c r="J111" t="s">
         <v>15</v>
       </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="K111" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -8076,11 +8428,14 @@
       <c r="J112" t="s">
         <v>329</v>
       </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="K112" s="5">
+        <v>0.84814083576202393</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>323</v>
       </c>
@@ -8111,11 +8466,14 @@
       <c r="J113" t="s">
         <v>15</v>
       </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="K113" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>330</v>
       </c>
@@ -8146,11 +8504,14 @@
       <c r="J114" t="s">
         <v>15</v>
       </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="K114" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -8181,11 +8542,14 @@
       <c r="J115" t="s">
         <v>15</v>
       </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="K115" s="5">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>336</v>
       </c>
@@ -8216,11 +8580,14 @@
       <c r="J116" t="s">
         <v>15</v>
       </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="K116" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>338</v>
       </c>
@@ -8251,11 +8618,14 @@
       <c r="J117" t="s">
         <v>342</v>
       </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="K117" s="5">
+        <v>0.68815529346466064</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>343</v>
       </c>
@@ -8286,11 +8656,14 @@
       <c r="J118" t="s">
         <v>15</v>
       </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="K118" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -8321,11 +8694,14 @@
       <c r="J119" t="s">
         <v>15</v>
       </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="K119" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>347</v>
       </c>
@@ -8356,11 +8732,14 @@
       <c r="J120" t="s">
         <v>15</v>
       </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="K120" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>349</v>
       </c>
@@ -8391,11 +8770,14 @@
       <c r="J121" t="s">
         <v>15</v>
       </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="K121" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>350</v>
       </c>
@@ -8426,11 +8808,14 @@
       <c r="J122" t="s">
         <v>15</v>
       </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="K122" s="5">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>352</v>
       </c>
@@ -8461,11 +8846,14 @@
       <c r="J123" t="s">
         <v>356</v>
       </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="K123" s="5">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>357</v>
       </c>
@@ -8496,11 +8884,14 @@
       <c r="J124" t="s">
         <v>361</v>
       </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="K124" s="5">
+        <v>0.92094016075134277</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>362</v>
       </c>
@@ -8531,11 +8922,14 @@
       <c r="J125" t="s">
         <v>366</v>
       </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="K125" s="5">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>367</v>
       </c>
@@ -8566,11 +8960,14 @@
       <c r="J126" t="s">
         <v>15</v>
       </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="K126" s="5">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>369</v>
       </c>
@@ -8601,11 +8998,14 @@
       <c r="J127" t="s">
         <v>15</v>
       </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="K127" s="5">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>371</v>
       </c>
@@ -8636,11 +9036,14 @@
       <c r="J128" t="s">
         <v>223</v>
       </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="K128" s="5">
+        <v>0.32670849561691279</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>375</v>
       </c>
@@ -8671,11 +9074,14 @@
       <c r="J129" t="s">
         <v>379</v>
       </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="K129" s="5">
+        <v>0.60131931304931641</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>380</v>
       </c>
@@ -8706,11 +9112,14 @@
       <c r="J130" t="s">
         <v>366</v>
       </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="K130" s="5">
+        <v>0.99568814039230347</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>383</v>
       </c>
@@ -8741,11 +9150,14 @@
       <c r="J131" t="s">
         <v>15</v>
       </c>
-      <c r="K131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="K131" s="5">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>385</v>
       </c>
@@ -8776,11 +9188,14 @@
       <c r="J132" t="s">
         <v>389</v>
       </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="K132" s="5">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>390</v>
       </c>
@@ -8811,11 +9226,14 @@
       <c r="J133" t="s">
         <v>15</v>
       </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="K133" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>392</v>
       </c>
@@ -8846,11 +9264,14 @@
       <c r="J134" t="s">
         <v>15</v>
       </c>
-      <c r="K134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="K134" s="5">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>394</v>
       </c>
@@ -8881,11 +9302,14 @@
       <c r="J135" t="s">
         <v>15</v>
       </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="K135" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>396</v>
       </c>
@@ -8916,11 +9340,14 @@
       <c r="J136" t="s">
         <v>15</v>
       </c>
-      <c r="K136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="K136" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>398</v>
       </c>
@@ -8951,11 +9378,14 @@
       <c r="J137" t="s">
         <v>15</v>
       </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="K137" s="5">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>400</v>
       </c>
@@ -8986,11 +9416,14 @@
       <c r="J138" t="s">
         <v>15</v>
       </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="K138" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -9021,11 +9454,14 @@
       <c r="J139" t="s">
         <v>15</v>
       </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="K139" s="5">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>404</v>
       </c>
@@ -9056,11 +9492,14 @@
       <c r="J140" t="s">
         <v>408</v>
       </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="K140" s="5">
+        <v>0.99461233615875244</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>409</v>
       </c>
@@ -9091,11 +9530,14 @@
       <c r="J141" t="s">
         <v>15</v>
       </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="K141" s="5">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>413</v>
       </c>
@@ -9126,11 +9568,14 @@
       <c r="J142" t="s">
         <v>15</v>
       </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="K142" s="5">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>415</v>
       </c>
@@ -9161,11 +9606,14 @@
       <c r="J143" t="s">
         <v>15</v>
       </c>
-      <c r="K143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="K143" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -9196,11 +9644,14 @@
       <c r="J144" t="s">
         <v>421</v>
       </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="K144" s="5">
+        <v>0.87065434455871582</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>422</v>
       </c>
@@ -9231,11 +9682,14 @@
       <c r="J145" t="s">
         <v>426</v>
       </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="K145" s="5">
+        <v>0.91317653656005859</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>427</v>
       </c>
@@ -9266,11 +9720,14 @@
       <c r="J146" t="s">
         <v>430</v>
       </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="K146" s="5">
+        <v>0.91443192958831787</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>431</v>
       </c>
@@ -9301,11 +9758,14 @@
       <c r="J147" t="s">
         <v>15</v>
       </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="K147" s="5">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>433</v>
       </c>
@@ -9336,11 +9796,14 @@
       <c r="J148" t="s">
         <v>15</v>
       </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="K148" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>435</v>
       </c>
@@ -9371,11 +9834,14 @@
       <c r="J149" t="s">
         <v>439</v>
       </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="K149" s="5">
+        <v>0.97432982921600342</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>440</v>
       </c>
@@ -9406,11 +9872,14 @@
       <c r="J150" t="s">
         <v>444</v>
       </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="K150" s="5">
+        <v>0.96999210119247437</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>445</v>
       </c>
@@ -9441,11 +9910,14 @@
       <c r="J151" t="s">
         <v>78</v>
       </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="K151" s="5">
+        <v>0.92256712913513184</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>449</v>
       </c>
@@ -9476,11 +9948,14 @@
       <c r="J152" t="s">
         <v>453</v>
       </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="K152" s="5">
+        <v>0.79580259323120117</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>454</v>
       </c>
@@ -9511,11 +9986,14 @@
       <c r="J153" t="s">
         <v>458</v>
       </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="K153" s="5">
+        <v>0.9568030834197998</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>459</v>
       </c>
@@ -9546,11 +10024,14 @@
       <c r="J154" t="s">
         <v>463</v>
       </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="K154" s="5">
+        <v>0.89043211936950684</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>464</v>
       </c>
@@ -9581,11 +10062,14 @@
       <c r="J155" t="s">
         <v>15</v>
       </c>
-      <c r="K155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="K155" s="5">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>466</v>
       </c>
@@ -9616,11 +10100,14 @@
       <c r="J156" t="s">
         <v>470</v>
       </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="K156" s="5">
+        <v>0.91516649723052979</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>471</v>
       </c>
@@ -9651,11 +10138,14 @@
       <c r="J157" t="s">
         <v>475</v>
       </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="K157" s="5">
+        <v>0.67791849374771118</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>476</v>
       </c>
@@ -9686,11 +10176,14 @@
       <c r="J158" t="s">
         <v>480</v>
       </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="K158" s="5">
+        <v>0.9776570200920105</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>481</v>
       </c>
@@ -9721,11 +10214,14 @@
       <c r="J159" t="s">
         <v>485</v>
       </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="K159" s="5">
+        <v>0.90442860126495361</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>486</v>
       </c>
@@ -9756,11 +10252,14 @@
       <c r="J160" t="s">
         <v>223</v>
       </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="K160" s="5">
+        <v>0.49243497848510742</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>490</v>
       </c>
@@ -9791,11 +10290,14 @@
       <c r="J161" t="s">
         <v>494</v>
       </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="K161" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>495</v>
       </c>
@@ -9826,11 +10328,14 @@
       <c r="J162" t="s">
         <v>15</v>
       </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="K162" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>497</v>
       </c>
@@ -9861,11 +10366,14 @@
       <c r="J163" t="s">
         <v>15</v>
       </c>
-      <c r="K163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="K163" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>499</v>
       </c>
@@ -9896,11 +10404,14 @@
       <c r="J164" t="s">
         <v>15</v>
       </c>
-      <c r="K164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="K164" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>501</v>
       </c>
@@ -9931,11 +10442,14 @@
       <c r="J165" t="s">
         <v>15</v>
       </c>
-      <c r="K165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="K165" s="5">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>503</v>
       </c>
@@ -9966,11 +10480,14 @@
       <c r="J166" t="s">
         <v>507</v>
       </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="K166" s="5">
+        <v>0.88592898845672607</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>508</v>
       </c>
@@ -10001,11 +10518,14 @@
       <c r="J167" t="s">
         <v>15</v>
       </c>
-      <c r="K167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="K167" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -10036,11 +10556,14 @@
       <c r="J168" t="s">
         <v>15</v>
       </c>
-      <c r="K168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="K168" s="5">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>512</v>
       </c>
@@ -10071,11 +10594,14 @@
       <c r="J169" t="s">
         <v>516</v>
       </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="K169" s="5">
+        <v>0.87995094060897827</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>517</v>
       </c>
@@ -10106,11 +10632,14 @@
       <c r="J170" t="s">
         <v>15</v>
       </c>
-      <c r="K170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="K170" s="5">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>519</v>
       </c>
@@ -10141,11 +10670,14 @@
       <c r="J171" t="s">
         <v>523</v>
       </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="K171" s="5">
+        <v>0.75529533624649048</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>524</v>
       </c>
@@ -10176,11 +10708,14 @@
       <c r="J172" t="s">
         <v>15</v>
       </c>
-      <c r="K172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="K172" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>525</v>
       </c>
@@ -10211,11 +10746,14 @@
       <c r="J173" t="s">
         <v>15</v>
       </c>
-      <c r="K173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="K173" s="5">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>527</v>
       </c>
@@ -10246,11 +10784,14 @@
       <c r="J174" t="s">
         <v>15</v>
       </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="K174" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>529</v>
       </c>
@@ -10281,14 +10822,17 @@
       <c r="J175" t="s">
         <v>533</v>
       </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175" t="s">
+      <c r="K175" s="5">
+        <v>0.91576802730560303</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>535</v>
       </c>
@@ -10319,14 +10863,17 @@
       <c r="J176" t="s">
         <v>539</v>
       </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176" t="s">
+      <c r="K176" s="5">
+        <v>0.80612003803253174</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>541</v>
       </c>
@@ -10357,11 +10904,14 @@
       <c r="J177" t="s">
         <v>15</v>
       </c>
-      <c r="K177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="K177" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>542</v>
       </c>
@@ -10392,11 +10942,14 @@
       <c r="J178" t="s">
         <v>546</v>
       </c>
-      <c r="K178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="K178" s="5">
+        <v>0.97910624742507935</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>547</v>
       </c>
@@ -10427,11 +10980,14 @@
       <c r="J179" t="s">
         <v>15</v>
       </c>
-      <c r="K179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="K179" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>549</v>
       </c>
@@ -10462,14 +11018,17 @@
       <c r="J180" t="s">
         <v>552</v>
       </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180" t="s">
+      <c r="K180" s="5">
+        <v>0.81044620275497437</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>554</v>
       </c>
@@ -10500,14 +11059,17 @@
       <c r="J181" t="s">
         <v>558</v>
       </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181" t="s">
+      <c r="K181" s="5">
+        <v>0.94833546876907349</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>560</v>
       </c>
@@ -10538,14 +11100,17 @@
       <c r="J182" t="s">
         <v>223</v>
       </c>
-      <c r="K182">
-        <v>0</v>
-      </c>
-      <c r="L182" t="s">
+      <c r="K182" s="5">
+        <v>0.19451224803924561</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>564</v>
       </c>
@@ -10576,11 +11141,14 @@
       <c r="J183" t="s">
         <v>15</v>
       </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="K183" s="5">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>566</v>
       </c>
@@ -10611,11 +11179,14 @@
       <c r="J184" t="s">
         <v>15</v>
       </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="K184" s="5">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>568</v>
       </c>
@@ -10646,14 +11217,17 @@
       <c r="J185" t="s">
         <v>572</v>
       </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185" t="s">
+      <c r="K185" s="5">
+        <v>0.91081517934799194</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>574</v>
       </c>
@@ -10684,14 +11258,17 @@
       <c r="J186" t="s">
         <v>578</v>
       </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186" t="s">
+      <c r="K186" s="5">
+        <v>0.94051820039749146</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>580</v>
       </c>
@@ -10722,14 +11299,17 @@
       <c r="J187" t="s">
         <v>584</v>
       </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187" t="s">
+      <c r="K187" s="5">
+        <v>0.93045830726623535</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>585</v>
       </c>
@@ -10760,14 +11340,17 @@
       <c r="J188" t="s">
         <v>589</v>
       </c>
-      <c r="K188">
-        <v>0</v>
-      </c>
-      <c r="L188" t="s">
+      <c r="K188" s="5">
+        <v>0.67294692993164063</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>591</v>
       </c>
@@ -10798,14 +11381,17 @@
       <c r="J189" t="s">
         <v>595</v>
       </c>
-      <c r="K189">
-        <v>0</v>
-      </c>
-      <c r="L189" t="s">
+      <c r="K189" s="5">
+        <v>0.97756272554397583</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>597</v>
       </c>
@@ -10836,11 +11422,14 @@
       <c r="J190" t="s">
         <v>15</v>
       </c>
-      <c r="K190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
+      <c r="K190" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>599</v>
       </c>
@@ -10871,11 +11460,14 @@
       <c r="J191" t="s">
         <v>15</v>
       </c>
-      <c r="K191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="K191" s="5">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>601</v>
       </c>
@@ -10906,11 +11498,14 @@
       <c r="J192" t="s">
         <v>15</v>
       </c>
-      <c r="K192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
+      <c r="K192" s="5">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>603</v>
       </c>
@@ -10941,14 +11536,17 @@
       <c r="J193" t="s">
         <v>223</v>
       </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193" t="s">
+      <c r="K193" s="5">
+        <v>4.1713863611221307E-2</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>608</v>
       </c>
@@ -10979,11 +11577,14 @@
       <c r="J194" t="s">
         <v>15</v>
       </c>
-      <c r="K194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="K194" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>610</v>
       </c>
@@ -11014,14 +11615,17 @@
       <c r="J195" t="s">
         <v>614</v>
       </c>
-      <c r="K195">
-        <v>0</v>
-      </c>
-      <c r="L195" t="s">
+      <c r="K195" s="5">
+        <v>0.99714303016662598</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>616</v>
       </c>
@@ -11052,14 +11656,17 @@
       <c r="J196" t="s">
         <v>620</v>
       </c>
-      <c r="K196">
-        <v>0</v>
-      </c>
-      <c r="L196" t="s">
+      <c r="K196" s="5">
+        <v>0.97899055480957031</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>622</v>
       </c>
@@ -11090,11 +11697,14 @@
       <c r="J197" t="s">
         <v>626</v>
       </c>
-      <c r="K197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
+      <c r="K197" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>627</v>
       </c>
@@ -11125,11 +11735,14 @@
       <c r="J198" t="s">
         <v>15</v>
       </c>
-      <c r="K198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
+      <c r="K198" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>629</v>
       </c>
@@ -11160,14 +11773,17 @@
       <c r="J199" t="s">
         <v>165</v>
       </c>
-      <c r="K199">
-        <v>1</v>
-      </c>
-      <c r="L199" t="s">
+      <c r="K199" s="5">
+        <v>0.9658966064453125</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>634</v>
       </c>
@@ -11198,14 +11814,17 @@
       <c r="J200" t="s">
         <v>638</v>
       </c>
-      <c r="K200">
-        <v>0</v>
-      </c>
-      <c r="L200" t="s">
+      <c r="K200" s="5">
+        <v>0.47445797920227051</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>640</v>
       </c>
@@ -11236,14 +11855,17 @@
       <c r="J201" t="s">
         <v>644</v>
       </c>
-      <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201" t="s">
+      <c r="K201" s="5">
+        <v>0.83508491516113281</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>646</v>
       </c>
@@ -11274,14 +11896,17 @@
       <c r="J202" t="s">
         <v>578</v>
       </c>
-      <c r="K202">
-        <v>1</v>
-      </c>
-      <c r="L202" t="s">
+      <c r="K202" s="5">
+        <v>0.67153966426849365</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>651</v>
       </c>
@@ -11312,14 +11937,17 @@
       <c r="J203" t="s">
         <v>655</v>
       </c>
-      <c r="K203">
-        <v>0</v>
-      </c>
-      <c r="L203" t="s">
+      <c r="K203" s="5">
+        <v>0.78539806604385376</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>656</v>
       </c>
@@ -11350,11 +11978,14 @@
       <c r="J204" t="s">
         <v>15</v>
       </c>
-      <c r="K204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
+      <c r="K204" s="5">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>658</v>
       </c>
@@ -11385,11 +12016,14 @@
       <c r="J205" t="s">
         <v>15</v>
       </c>
-      <c r="K205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
+      <c r="K205" s="5">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>660</v>
       </c>
@@ -11420,11 +12054,14 @@
       <c r="J206" t="s">
         <v>614</v>
       </c>
-      <c r="K206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
+      <c r="K206" s="5">
+        <v>0.99914586544036865</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>664</v>
       </c>
@@ -11455,11 +12092,14 @@
       <c r="J207" t="s">
         <v>15</v>
       </c>
-      <c r="K207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
+      <c r="K207" s="5">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>665</v>
       </c>
@@ -11490,11 +12130,14 @@
       <c r="J208" t="s">
         <v>15</v>
       </c>
-      <c r="K208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="K208" s="5">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>667</v>
       </c>
@@ -11525,11 +12168,14 @@
       <c r="J209" t="s">
         <v>15</v>
       </c>
-      <c r="K209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="K209" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>669</v>
       </c>
@@ -11560,14 +12206,17 @@
       <c r="J210" t="s">
         <v>673</v>
       </c>
-      <c r="K210">
-        <v>1</v>
-      </c>
-      <c r="L210" t="s">
+      <c r="K210" s="5">
+        <v>0.69410699605941772</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>675</v>
       </c>
@@ -11598,11 +12247,14 @@
       <c r="J211" t="s">
         <v>15</v>
       </c>
-      <c r="K211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="K211" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>677</v>
       </c>
@@ -11633,11 +12285,14 @@
       <c r="J212" t="s">
         <v>15</v>
       </c>
-      <c r="K212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12">
+      <c r="K212" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>679</v>
       </c>
@@ -11668,14 +12323,17 @@
       <c r="J213" t="s">
         <v>683</v>
       </c>
-      <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213" t="s">
+      <c r="K213" s="5">
+        <v>0.89455866813659668</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>685</v>
       </c>
@@ -11706,11 +12364,14 @@
       <c r="J214" t="s">
         <v>15</v>
       </c>
-      <c r="K214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12">
+      <c r="K214" s="5">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>687</v>
       </c>
@@ -11741,11 +12402,14 @@
       <c r="J215" t="s">
         <v>15</v>
       </c>
-      <c r="K215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="K215" s="5">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>689</v>
       </c>
@@ -11776,11 +12440,14 @@
       <c r="J216" t="s">
         <v>15</v>
       </c>
-      <c r="K216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12">
+      <c r="K216" s="5">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>691</v>
       </c>
@@ -11811,11 +12478,14 @@
       <c r="J217" t="s">
         <v>15</v>
       </c>
-      <c r="K217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12">
+      <c r="K217" s="5">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>693</v>
       </c>
@@ -11846,11 +12516,14 @@
       <c r="J218" t="s">
         <v>15</v>
       </c>
-      <c r="K218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12">
+      <c r="K218" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>695</v>
       </c>
@@ -11881,11 +12554,14 @@
       <c r="J219" t="s">
         <v>15</v>
       </c>
-      <c r="K219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12">
+      <c r="K219" s="5">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>697</v>
       </c>
@@ -11916,11 +12592,14 @@
       <c r="J220" t="s">
         <v>15</v>
       </c>
-      <c r="K220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12">
+      <c r="K220" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>699</v>
       </c>
@@ -11951,14 +12630,17 @@
       <c r="J221" t="s">
         <v>703</v>
       </c>
-      <c r="K221">
-        <v>1</v>
-      </c>
-      <c r="L221" t="s">
+      <c r="K221" s="5">
+        <v>0.65596640110015869</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>705</v>
       </c>
@@ -11989,11 +12671,14 @@
       <c r="J222" t="s">
         <v>15</v>
       </c>
-      <c r="K222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12">
+      <c r="K222" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>707</v>
       </c>
@@ -12024,11 +12709,14 @@
       <c r="J223" t="s">
         <v>15</v>
       </c>
-      <c r="K223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12">
+      <c r="K223" s="5">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>709</v>
       </c>
@@ -12059,14 +12747,17 @@
       <c r="J224" t="s">
         <v>713</v>
       </c>
-      <c r="K224">
-        <v>1</v>
-      </c>
-      <c r="L224" t="s">
+      <c r="K224" s="5">
+        <v>0.93256890773773193</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>715</v>
       </c>
@@ -12097,14 +12788,17 @@
       <c r="J225" t="s">
         <v>719</v>
       </c>
-      <c r="K225">
-        <v>1</v>
-      </c>
-      <c r="L225" t="s">
+      <c r="K225" s="5">
+        <v>0.91306805610656738</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>720</v>
       </c>
@@ -12135,14 +12829,17 @@
       <c r="J226" t="s">
         <v>724</v>
       </c>
-      <c r="K226">
-        <v>0</v>
-      </c>
-      <c r="L226" t="s">
+      <c r="K226" s="5">
+        <v>0.84972989559173584</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>726</v>
       </c>
@@ -12173,11 +12870,14 @@
       <c r="J227" t="s">
         <v>730</v>
       </c>
-      <c r="K227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12">
+      <c r="K227" s="5">
+        <v>0.92996203899383545</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>731</v>
       </c>
@@ -12208,11 +12908,14 @@
       <c r="J228" t="s">
         <v>15</v>
       </c>
-      <c r="K228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12">
+      <c r="K228" s="5">
+        <v>0.99912679195404053</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>735</v>
       </c>
@@ -12243,14 +12946,17 @@
       <c r="J229" t="s">
         <v>739</v>
       </c>
-      <c r="K229">
-        <v>0</v>
-      </c>
-      <c r="L229" t="s">
+      <c r="K229" s="5">
+        <v>0.83763939142227173</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>741</v>
       </c>
@@ -12281,14 +12987,17 @@
       <c r="J230" t="s">
         <v>745</v>
       </c>
-      <c r="K230">
-        <v>1</v>
-      </c>
-      <c r="L230" t="s">
+      <c r="K230" s="5">
+        <v>0.91379767656326294</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>747</v>
       </c>
@@ -12319,14 +13028,17 @@
       <c r="J231" t="s">
         <v>751</v>
       </c>
-      <c r="K231">
-        <v>0</v>
-      </c>
-      <c r="L231" t="s">
+      <c r="K231" s="5">
+        <v>0.75833356380462646</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>753</v>
       </c>
@@ -12357,14 +13069,17 @@
       <c r="J232" t="s">
         <v>757</v>
       </c>
-      <c r="K232">
-        <v>0</v>
-      </c>
-      <c r="L232" t="s">
+      <c r="K232" s="5">
+        <v>0.94577717781066895</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>759</v>
       </c>
@@ -12395,14 +13110,17 @@
       <c r="J233" t="s">
         <v>724</v>
       </c>
-      <c r="K233">
-        <v>1</v>
-      </c>
-      <c r="L233" t="s">
+      <c r="K233" s="5">
+        <v>0.83030062913894653</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>764</v>
       </c>
@@ -12433,14 +13151,17 @@
       <c r="J234" t="s">
         <v>768</v>
       </c>
-      <c r="K234">
-        <v>0</v>
-      </c>
-      <c r="L234" t="s">
+      <c r="K234" s="5">
+        <v>0.95690715312957764</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>770</v>
       </c>
@@ -12471,14 +13192,17 @@
       <c r="J235" t="s">
         <v>773</v>
       </c>
-      <c r="K235">
-        <v>0</v>
-      </c>
-      <c r="L235" t="s">
+      <c r="K235" s="5">
+        <v>0.82689476013183594</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>775</v>
       </c>
@@ -12509,14 +13233,17 @@
       <c r="J236" t="s">
         <v>779</v>
       </c>
-      <c r="K236">
-        <v>1</v>
-      </c>
-      <c r="L236" t="s">
+      <c r="K236" s="5">
+        <v>0.91991263628005981</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>781</v>
       </c>
@@ -12547,14 +13274,17 @@
       <c r="J237" t="s">
         <v>785</v>
       </c>
-      <c r="K237">
-        <v>1</v>
-      </c>
-      <c r="L237" t="s">
+      <c r="K237" s="5">
+        <v>0.95025503635406494</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>787</v>
       </c>
@@ -12585,14 +13315,17 @@
       <c r="J238" t="s">
         <v>791</v>
       </c>
-      <c r="K238">
-        <v>1</v>
-      </c>
-      <c r="L238" t="s">
+      <c r="K238" s="5">
+        <v>0.97606837749481201</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>792</v>
       </c>
@@ -12623,14 +13356,17 @@
       <c r="J239" t="s">
         <v>796</v>
       </c>
-      <c r="K239">
-        <v>0</v>
-      </c>
-      <c r="L239" s="3" t="s">
+      <c r="K239" s="5">
+        <v>0.9612424373626709</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>798</v>
       </c>
@@ -12661,14 +13397,17 @@
       <c r="J240" t="s">
         <v>802</v>
       </c>
-      <c r="K240">
-        <v>0</v>
-      </c>
-      <c r="L240" t="s">
+      <c r="K240" s="5">
+        <v>0.82020425796508789</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>804</v>
       </c>
@@ -12699,14 +13438,17 @@
       <c r="J241" t="s">
         <v>808</v>
       </c>
-      <c r="K241">
-        <v>1</v>
-      </c>
-      <c r="L241" t="s">
+      <c r="K241" s="5">
+        <v>0.87945044040679932</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>810</v>
       </c>
@@ -12737,14 +13479,17 @@
       <c r="J242" t="s">
         <v>814</v>
       </c>
-      <c r="K242">
-        <v>1</v>
-      </c>
-      <c r="L242" t="s">
+      <c r="K242" s="5">
+        <v>0.93871605396270752</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>816</v>
       </c>
@@ -12775,11 +13520,14 @@
       <c r="J243" t="s">
         <v>820</v>
       </c>
-      <c r="K243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12">
+      <c r="K243" s="5">
+        <v>0.93832933902740479</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>821</v>
       </c>
@@ -12810,14 +13558,17 @@
       <c r="J244" t="s">
         <v>825</v>
       </c>
-      <c r="K244">
-        <v>0</v>
-      </c>
-      <c r="L244" t="s">
+      <c r="K244" s="5">
+        <v>0.97254782915115356</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>827</v>
       </c>
@@ -12848,14 +13599,17 @@
       <c r="J245" t="s">
         <v>831</v>
       </c>
-      <c r="K245">
-        <v>1</v>
-      </c>
-      <c r="L245" t="s">
+      <c r="K245" s="5">
+        <v>0.95457744598388672</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>833</v>
       </c>
@@ -12886,14 +13640,17 @@
       <c r="J246" t="s">
         <v>837</v>
       </c>
-      <c r="K246">
-        <v>1</v>
-      </c>
-      <c r="L246" t="s">
+      <c r="K246" s="5">
+        <v>0.94909107685089111</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>839</v>
       </c>
@@ -12924,14 +13681,17 @@
       <c r="J247" t="s">
         <v>843</v>
       </c>
-      <c r="K247">
-        <v>1</v>
-      </c>
-      <c r="L247" t="s">
+      <c r="K247" s="5">
+        <v>0.73220163583755493</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>845</v>
       </c>
@@ -12962,14 +13722,17 @@
       <c r="J248" t="s">
         <v>849</v>
       </c>
-      <c r="K248">
-        <v>1</v>
-      </c>
-      <c r="L248" t="s">
+      <c r="K248" s="5">
+        <v>0.84566891193389893</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>851</v>
       </c>
@@ -13000,14 +13763,17 @@
       <c r="J249" t="s">
         <v>855</v>
       </c>
-      <c r="K249">
-        <v>0</v>
-      </c>
-      <c r="L249" t="s">
+      <c r="K249" s="5">
+        <v>0.94167768955230713</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>857</v>
       </c>
@@ -13038,11 +13804,14 @@
       <c r="J250" t="s">
         <v>861</v>
       </c>
-      <c r="K250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12">
+      <c r="K250" s="5">
+        <v>0.9543689489364624</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>862</v>
       </c>
@@ -13073,14 +13842,17 @@
       <c r="J251" t="s">
         <v>866</v>
       </c>
-      <c r="K251">
-        <v>0</v>
-      </c>
-      <c r="L251" t="s">
+      <c r="K251" s="5">
+        <v>0.8312116265296936</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>868</v>
       </c>
@@ -13111,11 +13883,14 @@
       <c r="J252" t="s">
         <v>872</v>
       </c>
-      <c r="K252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12">
+      <c r="K252" s="5">
+        <v>0.85812503099441528</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>873</v>
       </c>
@@ -13146,14 +13921,17 @@
       <c r="J253" t="s">
         <v>876</v>
       </c>
-      <c r="K253">
-        <v>0</v>
-      </c>
-      <c r="L253" t="s">
+      <c r="K253" s="5">
+        <v>0.90870159864425659</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>878</v>
       </c>
@@ -13184,14 +13962,17 @@
       <c r="J254" t="s">
         <v>882</v>
       </c>
-      <c r="K254">
-        <v>1</v>
-      </c>
-      <c r="L254" t="s">
+      <c r="K254" s="5">
+        <v>0.91910994052886963</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>884</v>
       </c>
@@ -13222,14 +14003,17 @@
       <c r="J255" t="s">
         <v>888</v>
       </c>
-      <c r="K255">
-        <v>0</v>
-      </c>
-      <c r="L255" t="s">
+      <c r="K255" s="5">
+        <v>0.97696906328201294</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>890</v>
       </c>
@@ -13260,11 +14044,14 @@
       <c r="J256" t="s">
         <v>894</v>
       </c>
-      <c r="K256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12">
+      <c r="K256" s="5">
+        <v>0.92695349454879761</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>895</v>
       </c>
@@ -13295,11 +14082,14 @@
       <c r="J257" t="s">
         <v>899</v>
       </c>
-      <c r="K257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12">
+      <c r="K257" s="5">
+        <v>0.96976816654205322</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>900</v>
       </c>
@@ -13330,14 +14120,17 @@
       <c r="J258" t="s">
         <v>904</v>
       </c>
-      <c r="K258">
-        <v>0</v>
-      </c>
-      <c r="L258" t="s">
+      <c r="K258" s="5">
+        <v>0.79442054033279419</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>906</v>
       </c>
@@ -13368,14 +14161,17 @@
       <c r="J259" t="s">
         <v>910</v>
       </c>
-      <c r="K259">
-        <v>1</v>
-      </c>
-      <c r="L259" t="s">
+      <c r="K259" s="5">
+        <v>0.78541219234466553</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>912</v>
       </c>
@@ -13406,14 +14202,17 @@
       <c r="J260" t="s">
         <v>916</v>
       </c>
-      <c r="K260">
-        <v>0</v>
-      </c>
-      <c r="L260" t="s">
+      <c r="K260" s="5">
+        <v>0.90610027313232422</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>918</v>
       </c>
@@ -13444,14 +14243,17 @@
       <c r="J261" t="s">
         <v>922</v>
       </c>
-      <c r="K261">
-        <v>1</v>
-      </c>
-      <c r="L261" s="3" t="s">
+      <c r="K261" s="5">
+        <v>0.9806475043296814</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>924</v>
       </c>
@@ -13482,14 +14284,17 @@
       <c r="J262" t="s">
         <v>928</v>
       </c>
-      <c r="K262">
-        <v>1</v>
-      </c>
-      <c r="L262" t="s">
+      <c r="K262" s="5">
+        <v>0.93561214208602905</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>930</v>
       </c>
@@ -13520,11 +14325,14 @@
       <c r="J263" t="s">
         <v>934</v>
       </c>
-      <c r="K263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12">
+      <c r="K263" s="5">
+        <v>0.91442084312438965</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>935</v>
       </c>
@@ -13555,14 +14363,17 @@
       <c r="J264" t="s">
         <v>939</v>
       </c>
-      <c r="K264">
-        <v>1</v>
-      </c>
-      <c r="L264" t="s">
+      <c r="K264" s="5">
+        <v>0.85315096378326416</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>941</v>
       </c>
@@ -13593,14 +14404,17 @@
       <c r="J265" t="s">
         <v>945</v>
       </c>
-      <c r="K265">
-        <v>0</v>
-      </c>
-      <c r="L265" t="s">
+      <c r="K265" s="5">
+        <v>0.51244223117828369</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>947</v>
       </c>
@@ -13631,14 +14445,17 @@
       <c r="J266" t="s">
         <v>951</v>
       </c>
-      <c r="K266">
-        <v>1</v>
-      </c>
-      <c r="L266" t="s">
+      <c r="K266" s="5">
+        <v>0.91720724105834961</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>953</v>
       </c>
@@ -13669,14 +14486,17 @@
       <c r="J267" t="s">
         <v>957</v>
       </c>
-      <c r="K267">
-        <v>0</v>
-      </c>
-      <c r="L267" t="s">
+      <c r="K267" s="5">
+        <v>0.9653586745262146</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>959</v>
       </c>
@@ -13707,11 +14527,14 @@
       <c r="J268" t="s">
         <v>963</v>
       </c>
-      <c r="K268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12">
+      <c r="K268" s="5">
+        <v>0.77140003442764282</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>964</v>
       </c>
@@ -13742,14 +14565,17 @@
       <c r="J269" t="s">
         <v>968</v>
       </c>
-      <c r="K269">
-        <v>0</v>
-      </c>
-      <c r="L269" t="s">
+      <c r="K269" s="5">
+        <v>0.94869077205657959</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>970</v>
       </c>
@@ -13780,14 +14606,17 @@
       <c r="J270" t="s">
         <v>974</v>
       </c>
-      <c r="K270">
-        <v>1</v>
-      </c>
-      <c r="L270" t="s">
+      <c r="K270" s="5">
+        <v>0.91772592067718506</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>976</v>
       </c>
@@ -13818,14 +14647,17 @@
       <c r="J271" t="s">
         <v>980</v>
       </c>
-      <c r="K271">
-        <v>1</v>
-      </c>
-      <c r="L271" t="s">
+      <c r="K271" s="5">
+        <v>0.9635547399520874</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>982</v>
       </c>
@@ -13856,14 +14688,17 @@
       <c r="J272" t="s">
         <v>986</v>
       </c>
-      <c r="K272">
-        <v>0</v>
-      </c>
-      <c r="L272" t="s">
+      <c r="K272" s="5">
+        <v>0.94890314340591431</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>988</v>
       </c>
@@ -13894,14 +14729,17 @@
       <c r="J273" t="s">
         <v>992</v>
       </c>
-      <c r="K273">
-        <v>1</v>
-      </c>
-      <c r="L273" t="s">
+      <c r="K273" s="5">
+        <v>0.94423240423202515</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>994</v>
       </c>
@@ -13932,14 +14770,17 @@
       <c r="J274" t="s">
         <v>997</v>
       </c>
-      <c r="K274">
-        <v>1</v>
-      </c>
-      <c r="L274" t="s">
+      <c r="K274" s="5">
+        <v>0.8831322193145752</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>999</v>
       </c>
@@ -13970,14 +14811,17 @@
       <c r="J275" t="s">
         <v>1003</v>
       </c>
-      <c r="K275">
-        <v>1</v>
-      </c>
-      <c r="L275" t="s">
+      <c r="K275" s="5">
+        <v>0.75477808713912964</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1005</v>
       </c>
@@ -14008,14 +14852,17 @@
       <c r="J276" t="s">
         <v>1009</v>
       </c>
-      <c r="K276">
-        <v>0</v>
-      </c>
-      <c r="L276" t="s">
+      <c r="K276" s="5">
+        <v>0.94254601001739502</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1011</v>
       </c>
@@ -14046,14 +14893,17 @@
       <c r="J277" t="s">
         <v>1015</v>
       </c>
-      <c r="K277">
-        <v>0</v>
-      </c>
-      <c r="L277" t="s">
+      <c r="K277" s="5">
+        <v>0.98617422580718994</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1017</v>
       </c>
@@ -14084,11 +14934,14 @@
       <c r="J278" t="s">
         <v>15</v>
       </c>
-      <c r="K278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12">
+      <c r="K278" s="5">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1019</v>
       </c>
@@ -14119,14 +14972,17 @@
       <c r="J279" t="s">
         <v>1023</v>
       </c>
-      <c r="K279">
-        <v>0</v>
-      </c>
-      <c r="L279" t="s">
+      <c r="K279" s="5">
+        <v>0.84280014038085938</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1024</v>
       </c>
@@ -14157,11 +15013,14 @@
       <c r="J280" t="s">
         <v>15</v>
       </c>
-      <c r="K280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12">
+      <c r="K280" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1026</v>
       </c>
@@ -14192,11 +15051,14 @@
       <c r="J281" t="s">
         <v>1030</v>
       </c>
-      <c r="K281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12">
+      <c r="K281" s="5">
+        <v>0.98176980018615723</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1031</v>
       </c>
@@ -14227,11 +15089,14 @@
       <c r="J282" t="s">
         <v>15</v>
       </c>
-      <c r="K282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12">
+      <c r="K282" s="5">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1033</v>
       </c>
@@ -14262,14 +15127,17 @@
       <c r="J283" t="s">
         <v>1037</v>
       </c>
-      <c r="K283">
-        <v>0</v>
-      </c>
-      <c r="L283" t="s">
+      <c r="K283" s="5">
+        <v>0.53353506326675415</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1039</v>
       </c>
@@ -14300,11 +15168,14 @@
       <c r="J284" t="s">
         <v>15</v>
       </c>
-      <c r="K284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12">
+      <c r="K284" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1043</v>
       </c>
@@ -14335,11 +15206,14 @@
       <c r="J285" t="s">
         <v>15</v>
       </c>
-      <c r="K285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12">
+      <c r="K285" s="5">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1045</v>
       </c>
@@ -14370,11 +15244,14 @@
       <c r="J286" t="s">
         <v>78</v>
       </c>
-      <c r="K286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12">
+      <c r="K286" s="5">
+        <v>0.99839490652084351</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1048</v>
       </c>
@@ -14405,11 +15282,14 @@
       <c r="J287" t="s">
         <v>1052</v>
       </c>
-      <c r="K287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12">
+      <c r="K287" s="5">
+        <v>0.99304568767547607</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1053</v>
       </c>
@@ -14440,14 +15320,17 @@
       <c r="J288" t="s">
         <v>1057</v>
       </c>
-      <c r="K288">
-        <v>1</v>
-      </c>
-      <c r="L288" t="s">
+      <c r="K288" s="5">
+        <v>0.9460100531578064</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1059</v>
       </c>
@@ -14478,14 +15361,17 @@
       <c r="J289" t="s">
         <v>1063</v>
       </c>
-      <c r="K289">
-        <v>1</v>
-      </c>
-      <c r="L289" t="s">
+      <c r="K289" s="5">
+        <v>0.96889328956604004</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1065</v>
       </c>
@@ -14516,14 +15402,17 @@
       <c r="J290" t="s">
         <v>1069</v>
       </c>
-      <c r="K290">
-        <v>0</v>
-      </c>
-      <c r="L290" t="s">
+      <c r="K290" s="5">
+        <v>0.76959699392318726</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1071</v>
       </c>
@@ -14554,14 +15443,17 @@
       <c r="J291" t="s">
         <v>1075</v>
       </c>
-      <c r="K291">
-        <v>0</v>
-      </c>
-      <c r="L291" t="s">
+      <c r="K291" s="5">
+        <v>0.59913396835327148</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1076</v>
       </c>
@@ -14592,14 +15484,17 @@
       <c r="J292" t="s">
         <v>1080</v>
       </c>
-      <c r="K292">
-        <v>0</v>
-      </c>
-      <c r="L292" t="s">
+      <c r="K292" s="5">
+        <v>0.96880221366882324</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1082</v>
       </c>
@@ -14630,11 +15525,14 @@
       <c r="J293" t="s">
         <v>15</v>
       </c>
-      <c r="K293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12">
+      <c r="K293" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1084</v>
       </c>
@@ -14665,14 +15563,17 @@
       <c r="J294" t="s">
         <v>1088</v>
       </c>
-      <c r="K294">
-        <v>0</v>
-      </c>
-      <c r="L294" t="s">
+      <c r="K294" s="5">
+        <v>0.90732502937316895</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1089</v>
       </c>
@@ -14703,11 +15604,14 @@
       <c r="J295" t="s">
         <v>301</v>
       </c>
-      <c r="K295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12">
+      <c r="K295" s="5">
+        <v>0.83700227737426758</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1093</v>
       </c>
@@ -14738,11 +15642,14 @@
       <c r="J296" t="s">
         <v>1097</v>
       </c>
-      <c r="K296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12">
+      <c r="K296" s="5">
+        <v>0.99243974685668945</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1098</v>
       </c>
@@ -14773,11 +15680,14 @@
       <c r="J297" t="s">
         <v>1052</v>
       </c>
-      <c r="K297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12">
+      <c r="K297" s="5">
+        <v>0.96138811111450195</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1102</v>
       </c>
@@ -14808,11 +15718,14 @@
       <c r="J298" t="s">
         <v>1106</v>
       </c>
-      <c r="K298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12">
+      <c r="K298" s="5">
+        <v>0.80040860176086426</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1107</v>
       </c>
@@ -14843,11 +15756,14 @@
       <c r="J299" t="s">
         <v>15</v>
       </c>
-      <c r="K299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12">
+      <c r="K299" s="5">
+        <v>1</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1109</v>
       </c>
@@ -14878,11 +15794,14 @@
       <c r="J300" t="s">
         <v>15</v>
       </c>
-      <c r="K300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12">
+      <c r="K300" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1111</v>
       </c>
@@ -14913,14 +15832,17 @@
       <c r="J301" t="s">
         <v>894</v>
       </c>
-      <c r="K301">
-        <v>0</v>
-      </c>
-      <c r="L301" t="s">
+      <c r="K301" s="5">
+        <v>0.84727025032043457</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1116</v>
       </c>
@@ -14951,11 +15873,14 @@
       <c r="J302" t="s">
         <v>1120</v>
       </c>
-      <c r="K302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12">
+      <c r="K302" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1121</v>
       </c>
@@ -14986,14 +15911,17 @@
       <c r="J303" t="s">
         <v>1125</v>
       </c>
-      <c r="K303">
-        <v>0</v>
-      </c>
-      <c r="L303" t="s">
+      <c r="K303" s="5">
+        <v>0.64725017547607422</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1127</v>
       </c>
@@ -15024,14 +15952,17 @@
       <c r="J304" t="s">
         <v>1131</v>
       </c>
-      <c r="K304">
-        <v>0</v>
-      </c>
-      <c r="L304" t="s">
+      <c r="K304" s="5">
+        <v>0.88942766189575195</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1132</v>
       </c>
@@ -15062,14 +15993,17 @@
       <c r="J305" t="s">
         <v>1136</v>
       </c>
-      <c r="K305">
-        <v>1</v>
-      </c>
-      <c r="L305" t="s">
+      <c r="K305" s="5">
+        <v>0.84611642360687256</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1138</v>
       </c>
@@ -15100,14 +16034,17 @@
       <c r="J306" t="s">
         <v>1142</v>
       </c>
-      <c r="K306">
-        <v>0</v>
-      </c>
-      <c r="L306" t="s">
+      <c r="K306" s="5">
+        <v>0.97264194488525391</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1144</v>
       </c>
@@ -15138,11 +16075,14 @@
       <c r="J307" t="s">
         <v>1148</v>
       </c>
-      <c r="K307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12">
+      <c r="K307" s="5">
+        <v>0.99827700853347778</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1149</v>
       </c>
@@ -15173,14 +16113,17 @@
       <c r="J308" t="s">
         <v>1153</v>
       </c>
-      <c r="K308">
-        <v>0</v>
-      </c>
-      <c r="L308" t="s">
+      <c r="K308" s="5">
+        <v>0.85101318359375</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="M308" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1155</v>
       </c>
@@ -15211,11 +16154,14 @@
       <c r="J309" t="s">
         <v>1159</v>
       </c>
-      <c r="K309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12">
+      <c r="K309" s="5">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1160</v>
       </c>
@@ -15246,11 +16192,14 @@
       <c r="J310" t="s">
         <v>15</v>
       </c>
-      <c r="K310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12">
+      <c r="K310" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1162</v>
       </c>
@@ -15281,11 +16230,14 @@
       <c r="J311" t="s">
         <v>15</v>
       </c>
-      <c r="K311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12">
+      <c r="K311" s="5">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1164</v>
       </c>
@@ -15316,14 +16268,17 @@
       <c r="J312" t="s">
         <v>1168</v>
       </c>
-      <c r="K312">
-        <v>0</v>
-      </c>
-      <c r="L312" t="s">
+      <c r="K312" s="5">
+        <v>0.93089693784713745</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1170</v>
       </c>
@@ -15354,11 +16309,14 @@
       <c r="J313" t="s">
         <v>1174</v>
       </c>
-      <c r="K313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12">
+      <c r="K313" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1175</v>
       </c>
@@ -15389,14 +16347,17 @@
       <c r="J314" t="s">
         <v>78</v>
       </c>
-      <c r="K314">
-        <v>1</v>
-      </c>
-      <c r="L314" t="s">
+      <c r="K314" s="5">
+        <v>0.98944711685180664</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1180</v>
       </c>
@@ -15427,14 +16388,17 @@
       <c r="J315" t="s">
         <v>1184</v>
       </c>
-      <c r="K315">
-        <v>0</v>
-      </c>
-      <c r="L315" t="s">
+      <c r="K315" s="5">
+        <v>0.9968908429145813</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+      <c r="M315" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1186</v>
       </c>
@@ -15465,11 +16429,14 @@
       <c r="J316" t="s">
         <v>1190</v>
       </c>
-      <c r="K316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12">
+      <c r="K316" s="5">
+        <v>0.98666006326675415</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1191</v>
       </c>
@@ -15500,14 +16467,17 @@
       <c r="J317" t="s">
         <v>1195</v>
       </c>
-      <c r="K317">
-        <v>0</v>
-      </c>
-      <c r="L317" t="s">
+      <c r="K317" s="5">
+        <v>0.96208202838897705</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+      <c r="M317" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1196</v>
       </c>
@@ -15538,14 +16508,17 @@
       <c r="J318" t="s">
         <v>1200</v>
       </c>
-      <c r="K318">
-        <v>1</v>
-      </c>
-      <c r="L318" t="s">
+      <c r="K318" s="5">
+        <v>0.97301095724105835</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1202</v>
       </c>
@@ -15576,14 +16549,17 @@
       <c r="J319" t="s">
         <v>1206</v>
       </c>
-      <c r="K319">
-        <v>0</v>
-      </c>
-      <c r="L319" t="s">
+      <c r="K319" s="5">
+        <v>0.94702774286270142</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1208</v>
       </c>
@@ -15614,11 +16590,14 @@
       <c r="J320" t="s">
         <v>1212</v>
       </c>
-      <c r="K320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11">
+      <c r="K320" s="5">
+        <v>0.99243175983428955</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1213</v>
       </c>
@@ -15649,11 +16628,14 @@
       <c r="J321" t="s">
         <v>15</v>
       </c>
-      <c r="K321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11">
+      <c r="K321" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1215</v>
       </c>
@@ -15684,11 +16666,14 @@
       <c r="J322" t="s">
         <v>15</v>
       </c>
-      <c r="K322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11">
+      <c r="K322" s="5">
+        <v>1</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1217</v>
       </c>
@@ -15719,11 +16704,14 @@
       <c r="J323" t="s">
         <v>15</v>
       </c>
-      <c r="K323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11">
+      <c r="K323" s="5">
+        <v>1</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1219</v>
       </c>
@@ -15754,11 +16742,14 @@
       <c r="J324" t="s">
         <v>1120</v>
       </c>
-      <c r="K324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11">
+      <c r="K324" s="5">
+        <v>0.97439342737197876</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1223</v>
       </c>
@@ -15789,11 +16780,14 @@
       <c r="J325" t="s">
         <v>1120</v>
       </c>
-      <c r="K325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11">
+      <c r="K325" s="5">
+        <v>1</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1227</v>
       </c>
@@ -15824,11 +16818,14 @@
       <c r="J326" t="s">
         <v>15</v>
       </c>
-      <c r="K326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11">
+      <c r="K326" s="5">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1229</v>
       </c>
@@ -15859,7 +16856,10 @@
       <c r="J327" t="s">
         <v>15</v>
       </c>
-      <c r="K327">
+      <c r="K327" s="5">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L327">
         <v>1</v>
       </c>
     </row>

--- a/HE/W_in_progress/AnalisiCodeGen.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE53EE1D-6B9C-4617-BA7A-CFF8FD42C706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD828D53-91E5-4ED9-8267-352A22CFCD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4272" yWindow="2460" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1584" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1233">
   <si>
     <t>IN</t>
   </si>
@@ -3768,6 +3768,9 @@
   </si>
   <si>
     <t>SBERT_M</t>
+  </si>
+  <si>
+    <t>WMD_M</t>
   </si>
 </sst>
 </file>
@@ -3842,7 +3845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3852,7 +3855,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4155,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M327"/>
+  <dimension ref="A1:N327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4168,12 +4170,11 @@
     <col min="6" max="6" width="33.5546875" customWidth="1"/>
     <col min="7" max="7" width="28.5546875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="5"/>
-    <col min="12" max="12" width="46" customWidth="1"/>
-    <col min="13" max="13" width="43.44140625" customWidth="1"/>
+    <col min="13" max="13" width="46" customWidth="1"/>
+    <col min="14" max="14" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4208,13 +4209,16 @@
         <v>1231</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4245,14 +4249,17 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2">
         <v>1.0000002384185791</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4283,14 +4290,17 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <v>1.00000011920929</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4321,14 +4331,17 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <v>0.99999994039535522</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4359,14 +4372,17 @@
       <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>0.93770146369934082</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4397,14 +4413,17 @@
       <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>0.90151584148406982</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.72724840068161289</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4435,14 +4454,17 @@
       <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>0.98906844854354858</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.94277333044620915</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4473,14 +4495,17 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>0.99999988079071045</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4511,14 +4536,17 @@
       <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>0.94637870788574219</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.83819981832033241</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -4549,14 +4577,17 @@
       <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>0.99999994039535522</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -4587,14 +4618,17 @@
       <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>1.00000011920929</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4625,14 +4659,17 @@
       <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4663,14 +4700,17 @@
       <c r="J13" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>0.60222941637039185</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.78851326398786425</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -4701,14 +4741,17 @@
       <c r="J14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>0.99999982118606567</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -4739,14 +4782,17 @@
       <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>1.00000011920929</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -4777,14 +4823,17 @@
       <c r="J16" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
         <v>0.99999988079071045</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -4815,14 +4864,17 @@
       <c r="J17" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <v>0.98839724063873291</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -4853,14 +4905,17 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -4891,14 +4946,17 @@
       <c r="J19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19">
         <v>1.00000011920929</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -4929,14 +4987,17 @@
       <c r="J20" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20">
         <v>0.99999994039535522</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -4967,14 +5028,17 @@
       <c r="J21" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
         <v>0.68708539009094238</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.78849945597593785</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -5005,14 +5069,17 @@
       <c r="J22" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22">
         <v>0.64884746074676514</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.66196825453927333</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -5043,14 +5110,17 @@
       <c r="J23" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23">
         <v>1.00000011920929</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -5081,14 +5151,17 @@
       <c r="J24" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24">
         <v>1.00000011920929</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -5119,14 +5192,17 @@
       <c r="J25" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25">
         <v>0.99999982118606567</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -5157,14 +5233,17 @@
       <c r="J26" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -5195,17 +5274,20 @@
       <c r="J27" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27">
         <v>0.9247506856918335</v>
       </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
+        <v>0.84261261561263678</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -5236,14 +5318,17 @@
       <c r="J28" t="s">
         <v>99</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28">
         <v>0.97275996208190918</v>
       </c>
       <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.91523906741822159</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -5274,14 +5359,17 @@
       <c r="J29" t="s">
         <v>104</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29">
         <v>0.99999988079071045</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -5312,14 +5400,17 @@
       <c r="J30" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -5350,14 +5441,17 @@
       <c r="J31" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31">
         <v>1.00000011920929</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -5388,14 +5482,17 @@
       <c r="J32" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -5426,14 +5523,17 @@
       <c r="J33" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33">
         <v>1.00000011920929</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -5464,14 +5564,17 @@
       <c r="J34" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -5502,14 +5605,17 @@
       <c r="J35" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -5540,14 +5646,17 @@
       <c r="J36" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36">
         <v>1.0000002384185791</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -5578,14 +5687,17 @@
       <c r="J37" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -5616,14 +5728,17 @@
       <c r="J38" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38">
         <v>0.99999994039535522</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -5654,14 +5769,17 @@
       <c r="J39" t="s">
         <v>127</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39">
         <v>0.89366382360458374</v>
       </c>
       <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.75597595203448187</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>128</v>
       </c>
@@ -5692,14 +5810,17 @@
       <c r="J40" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -5730,14 +5851,17 @@
       <c r="J41" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41">
         <v>1.00000011920929</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -5768,14 +5892,17 @@
       <c r="J42" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42">
         <v>0.99999994039535522</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -5806,14 +5933,17 @@
       <c r="J43" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43">
         <v>1.0000002384185791</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -5844,14 +5974,17 @@
       <c r="J44" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44">
         <v>1.00000011920929</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -5882,14 +6015,17 @@
       <c r="J45" t="s">
         <v>67</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45">
         <v>0.98834908008575439</v>
       </c>
       <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -5920,14 +6056,17 @@
       <c r="J46" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46">
         <v>0.99999988079071045</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -5958,14 +6097,17 @@
       <c r="J47" t="s">
         <v>148</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47">
         <v>0.7089429497718811</v>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.7185518498371084</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -5996,14 +6138,17 @@
       <c r="J48" t="s">
         <v>153</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48">
         <v>0.99999994039535522</v>
       </c>
       <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -6034,14 +6179,17 @@
       <c r="J49" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -6072,14 +6220,17 @@
       <c r="J50" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6110,14 +6261,17 @@
       <c r="J51" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51">
         <v>0.99999994039535522</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -6148,14 +6302,17 @@
       <c r="J52" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -6186,14 +6343,17 @@
       <c r="J53" t="s">
         <v>165</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53">
         <v>0.99999988079071045</v>
       </c>
       <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -6224,14 +6384,17 @@
       <c r="J54" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54">
         <v>1.00000011920929</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -6262,14 +6425,17 @@
       <c r="J55" t="s">
         <v>15</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55">
         <v>1.00000011920929</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -6300,14 +6466,17 @@
       <c r="J56" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -6338,14 +6507,17 @@
       <c r="J57" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -6376,14 +6548,17 @@
       <c r="J58" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>176</v>
       </c>
@@ -6414,14 +6589,17 @@
       <c r="J59" t="s">
         <v>180</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59">
         <v>0.76025748252868652</v>
       </c>
       <c r="L59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.60883750319447949</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -6452,14 +6630,17 @@
       <c r="J60" t="s">
         <v>185</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60">
         <v>0.85486292839050293</v>
       </c>
       <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.68604076688404225</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -6490,14 +6671,17 @@
       <c r="J61" t="s">
         <v>15</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61">
         <v>0.99999988079071045</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -6528,14 +6712,17 @@
       <c r="J62" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62">
         <v>0.99999982118606567</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -6566,14 +6753,17 @@
       <c r="J63" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63">
         <v>0.99999982118606567</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>192</v>
       </c>
@@ -6604,14 +6794,17 @@
       <c r="J64" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64">
         <v>1.0000002384185791</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>194</v>
       </c>
@@ -6642,14 +6835,17 @@
       <c r="J65" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65">
         <v>1.00000011920929</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -6680,14 +6876,17 @@
       <c r="J66" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66">
         <v>1.0000002384185791</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -6718,14 +6917,17 @@
       <c r="J67" t="s">
         <v>201</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67">
         <v>0.7943655252456665</v>
       </c>
       <c r="L67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.53569585439422696</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -6756,14 +6958,17 @@
       <c r="J68" t="s">
         <v>206</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68">
         <v>0.67339718341827393</v>
       </c>
       <c r="L68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.44895859189167597</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -6794,14 +6999,17 @@
       <c r="J69" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69">
         <v>1</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -6832,14 +7040,17 @@
       <c r="J70" t="s">
         <v>213</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70">
         <v>0.94716519117355347</v>
       </c>
       <c r="L70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.8980982525165947</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -6870,14 +7081,17 @@
       <c r="J71" t="s">
         <v>218</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71">
         <v>0.93708515167236328</v>
       </c>
       <c r="L71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.81269784038784376</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>219</v>
       </c>
@@ -6908,14 +7122,17 @@
       <c r="J72" t="s">
         <v>223</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72">
         <v>0.55685055255889893</v>
       </c>
       <c r="L72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.38644212919165077</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>224</v>
       </c>
@@ -6946,14 +7163,17 @@
       <c r="J73" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73">
         <v>1.00000011920929</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -6984,14 +7204,17 @@
       <c r="J74" t="s">
         <v>15</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>228</v>
       </c>
@@ -7022,14 +7245,17 @@
       <c r="J75" t="s">
         <v>232</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75">
         <v>0.8720245361328125</v>
       </c>
       <c r="L75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.49764716661800368</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -7060,14 +7286,17 @@
       <c r="J76" t="s">
         <v>236</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76">
         <v>0.90311896800994873</v>
       </c>
       <c r="L76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.56150932910828977</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>237</v>
       </c>
@@ -7098,14 +7327,17 @@
       <c r="J77" t="s">
         <v>15</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77">
         <v>1.00000011920929</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -7136,14 +7368,17 @@
       <c r="J78" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78">
         <v>1.00000011920929</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>241</v>
       </c>
@@ -7174,14 +7409,17 @@
       <c r="J79" t="s">
         <v>245</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79">
         <v>0.76873135566711426</v>
       </c>
       <c r="L79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.50886776100585185</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>246</v>
       </c>
@@ -7212,14 +7450,17 @@
       <c r="J80" t="s">
         <v>223</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80">
         <v>0.55685055255889893</v>
       </c>
       <c r="L80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.38644212919165077</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -7250,14 +7491,17 @@
       <c r="J81" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81">
         <v>1</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>249</v>
       </c>
@@ -7288,14 +7532,17 @@
       <c r="J82" t="s">
         <v>253</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82">
         <v>0.48976981639862061</v>
       </c>
       <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.26843241738312812</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -7326,14 +7573,17 @@
       <c r="J83" t="s">
         <v>223</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83">
         <v>0.63186430931091309</v>
       </c>
       <c r="L83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.43053943889377261</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>258</v>
       </c>
@@ -7364,14 +7614,17 @@
       <c r="J84" t="s">
         <v>15</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84">
         <v>1</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>260</v>
       </c>
@@ -7402,14 +7655,17 @@
       <c r="J85" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85">
         <v>0.9999997615814209</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -7440,14 +7696,17 @@
       <c r="J86" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86">
         <v>1.00000011920929</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -7478,14 +7737,17 @@
       <c r="J87" t="s">
         <v>15</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87">
         <v>0.99999988079071045</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>266</v>
       </c>
@@ -7516,14 +7778,17 @@
       <c r="J88" t="s">
         <v>15</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88">
         <v>1</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -7554,14 +7819,17 @@
       <c r="J89" t="s">
         <v>15</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89">
         <v>1.0000002384185791</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -7592,14 +7860,17 @@
       <c r="J90" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90">
         <v>0.99999988079071045</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>272</v>
       </c>
@@ -7630,14 +7901,17 @@
       <c r="J91" t="s">
         <v>15</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91">
         <v>1.00000011920929</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -7668,14 +7942,17 @@
       <c r="J92" t="s">
         <v>278</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92">
         <v>0.95519459247589111</v>
       </c>
       <c r="L92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.94778313273184422</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>270</v>
       </c>
@@ -7706,14 +7983,17 @@
       <c r="J93" t="s">
         <v>15</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93">
         <v>0.99999988079071045</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>279</v>
       </c>
@@ -7744,14 +8024,17 @@
       <c r="J94" t="s">
         <v>15</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94">
         <v>0.99999988079071045</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -7782,14 +8065,17 @@
       <c r="J95" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95">
         <v>1</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>283</v>
       </c>
@@ -7820,14 +8106,17 @@
       <c r="J96" t="s">
         <v>15</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96">
         <v>1.00000011920929</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -7858,14 +8147,17 @@
       <c r="J97" t="s">
         <v>15</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97">
         <v>1</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>287</v>
       </c>
@@ -7896,14 +8188,17 @@
       <c r="J98" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K98">
         <v>1.0000002384185791</v>
       </c>
       <c r="L98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>288</v>
       </c>
@@ -7934,14 +8229,17 @@
       <c r="J99" t="s">
         <v>15</v>
       </c>
-      <c r="K99" s="5">
+      <c r="K99">
         <v>1.00000011920929</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>289</v>
       </c>
@@ -7972,14 +8270,17 @@
       <c r="J100" t="s">
         <v>15</v>
       </c>
-      <c r="K100" s="5">
+      <c r="K100">
         <v>1.0000002384185791</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -8010,14 +8311,17 @@
       <c r="J101" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K101">
         <v>1</v>
       </c>
       <c r="L101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>293</v>
       </c>
@@ -8048,14 +8352,17 @@
       <c r="J102" t="s">
         <v>15</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102">
         <v>1</v>
       </c>
       <c r="L102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>295</v>
       </c>
@@ -8086,14 +8393,17 @@
       <c r="J103" t="s">
         <v>15</v>
       </c>
-      <c r="K103" s="5">
+      <c r="K103">
         <v>1</v>
       </c>
       <c r="L103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>297</v>
       </c>
@@ -8124,14 +8434,17 @@
       <c r="J104" t="s">
         <v>301</v>
       </c>
-      <c r="K104" s="5">
+      <c r="K104">
         <v>1.00000011920929</v>
       </c>
       <c r="L104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -8162,14 +8475,17 @@
       <c r="J105" t="s">
         <v>306</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K105">
         <v>0.84117007255554199</v>
       </c>
       <c r="L105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.75039164204452569</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>307</v>
       </c>
@@ -8200,14 +8516,17 @@
       <c r="J106" t="s">
         <v>15</v>
       </c>
-      <c r="K106" s="5">
+      <c r="K106">
         <v>1</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>309</v>
       </c>
@@ -8238,14 +8557,17 @@
       <c r="J107" t="s">
         <v>313</v>
       </c>
-      <c r="K107" s="5">
+      <c r="K107">
         <v>0.5536806583404541</v>
       </c>
       <c r="L107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.58907730641760159</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>314</v>
       </c>
@@ -8276,14 +8598,17 @@
       <c r="J108" t="s">
         <v>15</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108">
         <v>1.00000011920929</v>
       </c>
       <c r="L108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>316</v>
       </c>
@@ -8314,14 +8639,17 @@
       <c r="J109" t="s">
         <v>15</v>
       </c>
-      <c r="K109" s="5">
+      <c r="K109">
         <v>1</v>
       </c>
       <c r="L109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>318</v>
       </c>
@@ -8352,14 +8680,17 @@
       <c r="J110" t="s">
         <v>322</v>
       </c>
-      <c r="K110" s="5">
+      <c r="K110">
         <v>0.78941267728805542</v>
       </c>
       <c r="L110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.87804549990509706</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>323</v>
       </c>
@@ -8390,14 +8721,17 @@
       <c r="J111" t="s">
         <v>15</v>
       </c>
-      <c r="K111" s="5">
+      <c r="K111">
         <v>0.99999988079071045</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -8428,14 +8762,17 @@
       <c r="J112" t="s">
         <v>329</v>
       </c>
-      <c r="K112" s="5">
+      <c r="K112">
         <v>0.84814083576202393</v>
       </c>
       <c r="L112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.82319392161959581</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>323</v>
       </c>
@@ -8466,14 +8803,17 @@
       <c r="J113" t="s">
         <v>15</v>
       </c>
-      <c r="K113" s="5">
+      <c r="K113">
         <v>0.99999988079071045</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>330</v>
       </c>
@@ -8504,14 +8844,17 @@
       <c r="J114" t="s">
         <v>15</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K114">
         <v>1.0000002384185791</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -8542,14 +8885,17 @@
       <c r="J115" t="s">
         <v>15</v>
       </c>
-      <c r="K115" s="5">
+      <c r="K115">
         <v>1</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>336</v>
       </c>
@@ -8580,14 +8926,17 @@
       <c r="J116" t="s">
         <v>15</v>
       </c>
-      <c r="K116" s="5">
+      <c r="K116">
         <v>0.99999988079071045</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>338</v>
       </c>
@@ -8618,14 +8967,17 @@
       <c r="J117" t="s">
         <v>342</v>
       </c>
-      <c r="K117" s="5">
+      <c r="K117">
         <v>0.68815529346466064</v>
       </c>
       <c r="L117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.65903724344350922</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>343</v>
       </c>
@@ -8656,14 +9008,17 @@
       <c r="J118" t="s">
         <v>15</v>
       </c>
-      <c r="K118" s="5">
+      <c r="K118">
         <v>0.99999994039535522</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -8694,14 +9049,17 @@
       <c r="J119" t="s">
         <v>15</v>
       </c>
-      <c r="K119" s="5">
+      <c r="K119">
         <v>1.00000011920929</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>347</v>
       </c>
@@ -8732,14 +9090,17 @@
       <c r="J120" t="s">
         <v>15</v>
       </c>
-      <c r="K120" s="5">
+      <c r="K120">
         <v>1.0000002384185791</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>349</v>
       </c>
@@ -8770,14 +9131,17 @@
       <c r="J121" t="s">
         <v>15</v>
       </c>
-      <c r="K121" s="5">
+      <c r="K121">
         <v>0.99999988079071045</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>350</v>
       </c>
@@ -8808,14 +9172,17 @@
       <c r="J122" t="s">
         <v>15</v>
       </c>
-      <c r="K122" s="5">
+      <c r="K122">
         <v>1</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>352</v>
       </c>
@@ -8846,14 +9213,17 @@
       <c r="J123" t="s">
         <v>356</v>
       </c>
-      <c r="K123" s="5">
+      <c r="K123">
         <v>1</v>
       </c>
       <c r="L123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>357</v>
       </c>
@@ -8884,14 +9254,17 @@
       <c r="J124" t="s">
         <v>361</v>
       </c>
-      <c r="K124" s="5">
+      <c r="K124">
         <v>0.92094016075134277</v>
       </c>
       <c r="L124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.87305043996919884</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>362</v>
       </c>
@@ -8922,14 +9295,17 @@
       <c r="J125" t="s">
         <v>366</v>
       </c>
-      <c r="K125" s="5">
+      <c r="K125">
         <v>1</v>
       </c>
       <c r="L125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>367</v>
       </c>
@@ -8960,14 +9336,17 @@
       <c r="J126" t="s">
         <v>15</v>
       </c>
-      <c r="K126" s="5">
+      <c r="K126">
         <v>1</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>369</v>
       </c>
@@ -8998,14 +9377,17 @@
       <c r="J127" t="s">
         <v>15</v>
       </c>
-      <c r="K127" s="5">
+      <c r="K127">
         <v>1</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>371</v>
       </c>
@@ -9036,14 +9418,17 @@
       <c r="J128" t="s">
         <v>223</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128">
         <v>0.32670849561691279</v>
       </c>
       <c r="L128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.39646871640563708</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>375</v>
       </c>
@@ -9074,14 +9459,17 @@
       <c r="J129" t="s">
         <v>379</v>
       </c>
-      <c r="K129" s="5">
+      <c r="K129">
         <v>0.60131931304931641</v>
       </c>
       <c r="L129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.80110003790455553</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>380</v>
       </c>
@@ -9112,14 +9500,17 @@
       <c r="J130" t="s">
         <v>366</v>
       </c>
-      <c r="K130" s="5">
+      <c r="K130">
         <v>0.99568814039230347</v>
       </c>
       <c r="L130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.96013982956600075</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>383</v>
       </c>
@@ -9150,14 +9541,17 @@
       <c r="J131" t="s">
         <v>15</v>
       </c>
-      <c r="K131" s="5">
+      <c r="K131">
         <v>1</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>385</v>
       </c>
@@ -9188,14 +9582,17 @@
       <c r="J132" t="s">
         <v>389</v>
       </c>
-      <c r="K132" s="5">
+      <c r="K132">
         <v>1</v>
       </c>
       <c r="L132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>390</v>
       </c>
@@ -9226,14 +9623,17 @@
       <c r="J133" t="s">
         <v>15</v>
       </c>
-      <c r="K133" s="5">
+      <c r="K133">
         <v>1.0000002384185791</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>392</v>
       </c>
@@ -9264,14 +9664,17 @@
       <c r="J134" t="s">
         <v>15</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134">
         <v>1</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>394</v>
       </c>
@@ -9302,14 +9705,17 @@
       <c r="J135" t="s">
         <v>15</v>
       </c>
-      <c r="K135" s="5">
+      <c r="K135">
         <v>1.00000011920929</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>396</v>
       </c>
@@ -9340,14 +9746,17 @@
       <c r="J136" t="s">
         <v>15</v>
       </c>
-      <c r="K136" s="5">
+      <c r="K136">
         <v>1.00000011920929</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>398</v>
       </c>
@@ -9378,14 +9787,17 @@
       <c r="J137" t="s">
         <v>15</v>
       </c>
-      <c r="K137" s="5">
+      <c r="K137">
         <v>1</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>400</v>
       </c>
@@ -9416,14 +9828,17 @@
       <c r="J138" t="s">
         <v>15</v>
       </c>
-      <c r="K138" s="5">
+      <c r="K138">
         <v>1.0000002384185791</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -9454,14 +9869,17 @@
       <c r="J139" t="s">
         <v>15</v>
       </c>
-      <c r="K139" s="5">
+      <c r="K139">
         <v>1</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>404</v>
       </c>
@@ -9492,14 +9910,17 @@
       <c r="J140" t="s">
         <v>408</v>
       </c>
-      <c r="K140" s="5">
+      <c r="K140">
         <v>0.99461233615875244</v>
       </c>
       <c r="L140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.53543322133297089</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>409</v>
       </c>
@@ -9530,14 +9951,17 @@
       <c r="J141" t="s">
         <v>15</v>
       </c>
-      <c r="K141" s="5">
+      <c r="K141">
         <v>1</v>
       </c>
       <c r="L141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>413</v>
       </c>
@@ -9568,14 +9992,17 @@
       <c r="J142" t="s">
         <v>15</v>
       </c>
-      <c r="K142" s="5">
+      <c r="K142">
         <v>1</v>
       </c>
       <c r="L142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>415</v>
       </c>
@@ -9606,14 +10033,17 @@
       <c r="J143" t="s">
         <v>15</v>
       </c>
-      <c r="K143" s="5">
+      <c r="K143">
         <v>0.99999988079071045</v>
       </c>
       <c r="L143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -9644,14 +10074,17 @@
       <c r="J144" t="s">
         <v>421</v>
       </c>
-      <c r="K144" s="5">
+      <c r="K144">
         <v>0.87065434455871582</v>
       </c>
       <c r="L144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.82419581436610945</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>422</v>
       </c>
@@ -9682,14 +10115,17 @@
       <c r="J145" t="s">
         <v>426</v>
       </c>
-      <c r="K145" s="5">
+      <c r="K145">
         <v>0.91317653656005859</v>
       </c>
       <c r="L145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.59406319435472787</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>427</v>
       </c>
@@ -9720,14 +10156,17 @@
       <c r="J146" t="s">
         <v>430</v>
       </c>
-      <c r="K146" s="5">
+      <c r="K146">
         <v>0.91443192958831787</v>
       </c>
       <c r="L146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.62621124816304996</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>431</v>
       </c>
@@ -9758,14 +10197,17 @@
       <c r="J147" t="s">
         <v>15</v>
       </c>
-      <c r="K147" s="5">
+      <c r="K147">
         <v>1</v>
       </c>
       <c r="L147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>433</v>
       </c>
@@ -9796,14 +10238,17 @@
       <c r="J148" t="s">
         <v>15</v>
       </c>
-      <c r="K148" s="5">
+      <c r="K148">
         <v>1.00000011920929</v>
       </c>
       <c r="L148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>435</v>
       </c>
@@ -9834,14 +10279,17 @@
       <c r="J149" t="s">
         <v>439</v>
       </c>
-      <c r="K149" s="5">
+      <c r="K149">
         <v>0.97432982921600342</v>
       </c>
       <c r="L149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.94667849550723815</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>440</v>
       </c>
@@ -9872,14 +10320,17 @@
       <c r="J150" t="s">
         <v>444</v>
       </c>
-      <c r="K150" s="5">
+      <c r="K150">
         <v>0.96999210119247437</v>
       </c>
       <c r="L150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.97237870298948392</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>445</v>
       </c>
@@ -9910,14 +10361,17 @@
       <c r="J151" t="s">
         <v>78</v>
       </c>
-      <c r="K151" s="5">
+      <c r="K151">
         <v>0.92256712913513184</v>
       </c>
       <c r="L151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.94513955173456798</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>449</v>
       </c>
@@ -9948,14 +10402,17 @@
       <c r="J152" t="s">
         <v>453</v>
       </c>
-      <c r="K152" s="5">
+      <c r="K152">
         <v>0.79580259323120117</v>
       </c>
       <c r="L152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.79586041598069879</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>454</v>
       </c>
@@ -9986,14 +10443,17 @@
       <c r="J153" t="s">
         <v>458</v>
       </c>
-      <c r="K153" s="5">
+      <c r="K153">
         <v>0.9568030834197998</v>
       </c>
       <c r="L153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.97956681768273679</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>459</v>
       </c>
@@ -10024,14 +10484,17 @@
       <c r="J154" t="s">
         <v>463</v>
       </c>
-      <c r="K154" s="5">
+      <c r="K154">
         <v>0.89043211936950684</v>
       </c>
       <c r="L154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.72539464313099877</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>464</v>
       </c>
@@ -10062,14 +10525,17 @@
       <c r="J155" t="s">
         <v>15</v>
       </c>
-      <c r="K155" s="5">
+      <c r="K155">
         <v>1</v>
       </c>
       <c r="L155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>466</v>
       </c>
@@ -10100,14 +10566,17 @@
       <c r="J156" t="s">
         <v>470</v>
       </c>
-      <c r="K156" s="5">
+      <c r="K156">
         <v>0.91516649723052979</v>
       </c>
       <c r="L156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.90364830031002474</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>471</v>
       </c>
@@ -10138,14 +10607,17 @@
       <c r="J157" t="s">
         <v>475</v>
       </c>
-      <c r="K157" s="5">
+      <c r="K157">
         <v>0.67791849374771118</v>
       </c>
       <c r="L157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52214795080940335</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>476</v>
       </c>
@@ -10176,14 +10648,17 @@
       <c r="J158" t="s">
         <v>480</v>
       </c>
-      <c r="K158" s="5">
+      <c r="K158">
         <v>0.9776570200920105</v>
       </c>
       <c r="L158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9713312433164949</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>481</v>
       </c>
@@ -10214,14 +10689,17 @@
       <c r="J159" t="s">
         <v>485</v>
       </c>
-      <c r="K159" s="5">
+      <c r="K159">
         <v>0.90442860126495361</v>
       </c>
       <c r="L159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.81124990290929133</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>486</v>
       </c>
@@ -10252,14 +10730,17 @@
       <c r="J160" t="s">
         <v>223</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160">
         <v>0.49243497848510742</v>
       </c>
       <c r="L160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.50698329401071984</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>490</v>
       </c>
@@ -10290,14 +10771,17 @@
       <c r="J161" t="s">
         <v>494</v>
       </c>
-      <c r="K161" s="5">
+      <c r="K161">
         <v>1.0000002384185791</v>
       </c>
       <c r="L161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>495</v>
       </c>
@@ -10328,14 +10812,17 @@
       <c r="J162" t="s">
         <v>15</v>
       </c>
-      <c r="K162" s="5">
+      <c r="K162">
         <v>1.00000011920929</v>
       </c>
       <c r="L162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>497</v>
       </c>
@@ -10366,14 +10853,17 @@
       <c r="J163" t="s">
         <v>15</v>
       </c>
-      <c r="K163" s="5">
+      <c r="K163">
         <v>1.00000011920929</v>
       </c>
       <c r="L163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>499</v>
       </c>
@@ -10404,14 +10894,17 @@
       <c r="J164" t="s">
         <v>15</v>
       </c>
-      <c r="K164" s="5">
+      <c r="K164">
         <v>1.00000011920929</v>
       </c>
       <c r="L164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>501</v>
       </c>
@@ -10442,14 +10935,17 @@
       <c r="J165" t="s">
         <v>15</v>
       </c>
-      <c r="K165" s="5">
+      <c r="K165">
         <v>1</v>
       </c>
       <c r="L165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>503</v>
       </c>
@@ -10480,14 +10976,17 @@
       <c r="J166" t="s">
         <v>507</v>
       </c>
-      <c r="K166" s="5">
+      <c r="K166">
         <v>0.88592898845672607</v>
       </c>
       <c r="L166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.8511932539180127</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>508</v>
       </c>
@@ -10518,14 +11017,17 @@
       <c r="J167" t="s">
         <v>15</v>
       </c>
-      <c r="K167" s="5">
+      <c r="K167">
         <v>1.0000002384185791</v>
       </c>
       <c r="L167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -10556,14 +11058,17 @@
       <c r="J168" t="s">
         <v>15</v>
       </c>
-      <c r="K168" s="5">
+      <c r="K168">
         <v>1</v>
       </c>
       <c r="L168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>512</v>
       </c>
@@ -10594,14 +11099,17 @@
       <c r="J169" t="s">
         <v>516</v>
       </c>
-      <c r="K169" s="5">
+      <c r="K169">
         <v>0.87995094060897827</v>
       </c>
       <c r="L169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.66903816561999463</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>517</v>
       </c>
@@ -10632,14 +11140,17 @@
       <c r="J170" t="s">
         <v>15</v>
       </c>
-      <c r="K170" s="5">
+      <c r="K170">
         <v>1</v>
       </c>
       <c r="L170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>519</v>
       </c>
@@ -10670,14 +11181,17 @@
       <c r="J171" t="s">
         <v>523</v>
       </c>
-      <c r="K171" s="5">
+      <c r="K171">
         <v>0.75529533624649048</v>
       </c>
       <c r="L171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.83128631091740013</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>524</v>
       </c>
@@ -10708,14 +11222,17 @@
       <c r="J172" t="s">
         <v>15</v>
       </c>
-      <c r="K172" s="5">
+      <c r="K172">
         <v>1.0000002384185791</v>
       </c>
       <c r="L172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>525</v>
       </c>
@@ -10746,14 +11263,17 @@
       <c r="J173" t="s">
         <v>15</v>
       </c>
-      <c r="K173" s="5">
+      <c r="K173">
         <v>1</v>
       </c>
       <c r="L173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>527</v>
       </c>
@@ -10784,14 +11304,17 @@
       <c r="J174" t="s">
         <v>15</v>
       </c>
-      <c r="K174" s="5">
+      <c r="K174">
         <v>0.99999988079071045</v>
       </c>
       <c r="L174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>529</v>
       </c>
@@ -10822,17 +11345,20 @@
       <c r="J175" t="s">
         <v>533</v>
       </c>
-      <c r="K175" s="5">
+      <c r="K175">
         <v>0.91576802730560303</v>
       </c>
       <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="M175" t="s">
+        <v>0.81857038109318592</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>535</v>
       </c>
@@ -10863,17 +11389,20 @@
       <c r="J176" t="s">
         <v>539</v>
       </c>
-      <c r="K176" s="5">
+      <c r="K176">
         <v>0.80612003803253174</v>
       </c>
       <c r="L176">
-        <v>1</v>
-      </c>
-      <c r="M176" t="s">
+        <v>0.68848026010197816</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>541</v>
       </c>
@@ -10904,14 +11433,17 @@
       <c r="J177" t="s">
         <v>15</v>
       </c>
-      <c r="K177" s="5">
+      <c r="K177">
         <v>1.00000011920929</v>
       </c>
       <c r="L177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>542</v>
       </c>
@@ -10942,14 +11474,17 @@
       <c r="J178" t="s">
         <v>546</v>
       </c>
-      <c r="K178" s="5">
+      <c r="K178">
         <v>0.97910624742507935</v>
       </c>
       <c r="L178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.89152870769610504</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>547</v>
       </c>
@@ -10980,14 +11515,17 @@
       <c r="J179" t="s">
         <v>15</v>
       </c>
-      <c r="K179" s="5">
+      <c r="K179">
         <v>1.00000011920929</v>
       </c>
       <c r="L179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>549</v>
       </c>
@@ -11018,17 +11556,20 @@
       <c r="J180" t="s">
         <v>552</v>
       </c>
-      <c r="K180" s="5">
+      <c r="K180">
         <v>0.81044620275497437</v>
       </c>
       <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="M180" t="s">
+        <v>0.65412827234888016</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>554</v>
       </c>
@@ -11059,17 +11600,20 @@
       <c r="J181" t="s">
         <v>558</v>
       </c>
-      <c r="K181" s="5">
+      <c r="K181">
         <v>0.94833546876907349</v>
       </c>
       <c r="L181">
-        <v>0</v>
-      </c>
-      <c r="M181" t="s">
+        <v>0.79951597251530515</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>560</v>
       </c>
@@ -11100,17 +11644,20 @@
       <c r="J182" t="s">
         <v>223</v>
       </c>
-      <c r="K182" s="5">
+      <c r="K182">
         <v>0.19451224803924561</v>
       </c>
       <c r="L182">
-        <v>0</v>
-      </c>
-      <c r="M182" t="s">
+        <v>-8.8160202059996751E-2</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>564</v>
       </c>
@@ -11141,14 +11688,17 @@
       <c r="J183" t="s">
         <v>15</v>
       </c>
-      <c r="K183" s="5">
+      <c r="K183">
         <v>1</v>
       </c>
       <c r="L183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>566</v>
       </c>
@@ -11179,14 +11729,17 @@
       <c r="J184" t="s">
         <v>15</v>
       </c>
-      <c r="K184" s="5">
+      <c r="K184">
         <v>1</v>
       </c>
       <c r="L184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>568</v>
       </c>
@@ -11217,17 +11770,20 @@
       <c r="J185" t="s">
         <v>572</v>
       </c>
-      <c r="K185" s="5">
+      <c r="K185">
         <v>0.91081517934799194</v>
       </c>
       <c r="L185">
-        <v>0</v>
-      </c>
-      <c r="M185" t="s">
+        <v>0.81277618742936997</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>574</v>
       </c>
@@ -11258,17 +11814,20 @@
       <c r="J186" t="s">
         <v>578</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186">
         <v>0.94051820039749146</v>
       </c>
       <c r="L186">
-        <v>0</v>
-      </c>
-      <c r="M186" t="s">
+        <v>0.85831934064308357</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>580</v>
       </c>
@@ -11299,17 +11858,20 @@
       <c r="J187" t="s">
         <v>584</v>
       </c>
-      <c r="K187" s="5">
+      <c r="K187">
         <v>0.93045830726623535</v>
       </c>
       <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="M187" t="s">
+        <v>0.81988664307376724</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>585</v>
       </c>
@@ -11340,17 +11902,20 @@
       <c r="J188" t="s">
         <v>589</v>
       </c>
-      <c r="K188" s="5">
+      <c r="K188">
         <v>0.67294692993164063</v>
       </c>
       <c r="L188">
-        <v>0</v>
-      </c>
-      <c r="M188" t="s">
+        <v>0.74564949911474598</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>591</v>
       </c>
@@ -11381,17 +11946,20 @@
       <c r="J189" t="s">
         <v>595</v>
       </c>
-      <c r="K189" s="5">
+      <c r="K189">
         <v>0.97756272554397583</v>
       </c>
       <c r="L189">
-        <v>0</v>
-      </c>
-      <c r="M189" t="s">
+        <v>0.9637661007359638</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>597</v>
       </c>
@@ -11422,14 +11990,17 @@
       <c r="J190" t="s">
         <v>15</v>
       </c>
-      <c r="K190" s="5">
+      <c r="K190">
         <v>0.99999994039535522</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>599</v>
       </c>
@@ -11460,14 +12031,17 @@
       <c r="J191" t="s">
         <v>15</v>
       </c>
-      <c r="K191" s="5">
+      <c r="K191">
         <v>1</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>601</v>
       </c>
@@ -11498,14 +12072,17 @@
       <c r="J192" t="s">
         <v>15</v>
       </c>
-      <c r="K192" s="5">
+      <c r="K192">
         <v>1</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>603</v>
       </c>
@@ -11536,17 +12113,20 @@
       <c r="J193" t="s">
         <v>223</v>
       </c>
-      <c r="K193" s="5">
+      <c r="K193">
         <v>4.1713863611221307E-2</v>
       </c>
       <c r="L193">
-        <v>0</v>
-      </c>
-      <c r="M193" t="s">
+        <v>-0.23958320953337961</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>608</v>
       </c>
@@ -11577,14 +12157,17 @@
       <c r="J194" t="s">
         <v>15</v>
       </c>
-      <c r="K194" s="5">
+      <c r="K194">
         <v>0.99999988079071045</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>610</v>
       </c>
@@ -11615,17 +12198,20 @@
       <c r="J195" t="s">
         <v>614</v>
       </c>
-      <c r="K195" s="5">
+      <c r="K195">
         <v>0.99714303016662598</v>
       </c>
       <c r="L195">
-        <v>0</v>
-      </c>
-      <c r="M195" t="s">
+        <v>0.95674923902627129</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>616</v>
       </c>
@@ -11656,17 +12242,20 @@
       <c r="J196" t="s">
         <v>620</v>
       </c>
-      <c r="K196" s="5">
+      <c r="K196">
         <v>0.97899055480957031</v>
       </c>
       <c r="L196">
-        <v>0</v>
-      </c>
-      <c r="M196" t="s">
+        <v>0.87839338759327235</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>622</v>
       </c>
@@ -11697,14 +12286,17 @@
       <c r="J197" t="s">
         <v>626</v>
       </c>
-      <c r="K197" s="5">
+      <c r="K197">
         <v>1.0000002384185791</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>627</v>
       </c>
@@ -11735,14 +12327,17 @@
       <c r="J198" t="s">
         <v>15</v>
       </c>
-      <c r="K198" s="5">
+      <c r="K198">
         <v>1.00000011920929</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>629</v>
       </c>
@@ -11773,17 +12368,20 @@
       <c r="J199" t="s">
         <v>165</v>
       </c>
-      <c r="K199" s="5">
+      <c r="K199">
         <v>0.9658966064453125</v>
       </c>
       <c r="L199">
-        <v>1</v>
-      </c>
-      <c r="M199" t="s">
+        <v>0.90770165342676568</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>634</v>
       </c>
@@ -11814,17 +12412,20 @@
       <c r="J200" t="s">
         <v>638</v>
       </c>
-      <c r="K200" s="5">
+      <c r="K200">
         <v>0.47445797920227051</v>
       </c>
       <c r="L200">
-        <v>0</v>
-      </c>
-      <c r="M200" t="s">
+        <v>0.7737236808816057</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>640</v>
       </c>
@@ -11855,17 +12456,20 @@
       <c r="J201" t="s">
         <v>644</v>
       </c>
-      <c r="K201" s="5">
+      <c r="K201">
         <v>0.83508491516113281</v>
       </c>
       <c r="L201">
-        <v>0</v>
-      </c>
-      <c r="M201" t="s">
+        <v>0.84309475175344761</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>646</v>
       </c>
@@ -11896,17 +12500,20 @@
       <c r="J202" t="s">
         <v>578</v>
       </c>
-      <c r="K202" s="5">
+      <c r="K202">
         <v>0.67153966426849365</v>
       </c>
       <c r="L202">
-        <v>1</v>
-      </c>
-      <c r="M202" t="s">
+        <v>0.61452435625924873</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>651</v>
       </c>
@@ -11937,17 +12544,20 @@
       <c r="J203" t="s">
         <v>655</v>
       </c>
-      <c r="K203" s="5">
+      <c r="K203">
         <v>0.78539806604385376</v>
       </c>
       <c r="L203">
-        <v>0</v>
-      </c>
-      <c r="M203" t="s">
+        <v>0.89895539520681356</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>656</v>
       </c>
@@ -11978,14 +12588,17 @@
       <c r="J204" t="s">
         <v>15</v>
       </c>
-      <c r="K204" s="5">
+      <c r="K204">
         <v>1</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>658</v>
       </c>
@@ -12016,14 +12629,17 @@
       <c r="J205" t="s">
         <v>15</v>
       </c>
-      <c r="K205" s="5">
+      <c r="K205">
         <v>1</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>660</v>
       </c>
@@ -12054,14 +12670,17 @@
       <c r="J206" t="s">
         <v>614</v>
       </c>
-      <c r="K206" s="5">
+      <c r="K206">
         <v>0.99914586544036865</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>664</v>
       </c>
@@ -12092,14 +12711,17 @@
       <c r="J207" t="s">
         <v>15</v>
       </c>
-      <c r="K207" s="5">
+      <c r="K207">
         <v>1</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>665</v>
       </c>
@@ -12130,14 +12752,17 @@
       <c r="J208" t="s">
         <v>15</v>
       </c>
-      <c r="K208" s="5">
+      <c r="K208">
         <v>1</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>667</v>
       </c>
@@ -12168,14 +12793,17 @@
       <c r="J209" t="s">
         <v>15</v>
       </c>
-      <c r="K209" s="5">
+      <c r="K209">
         <v>1.0000002384185791</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>669</v>
       </c>
@@ -12206,17 +12834,20 @@
       <c r="J210" t="s">
         <v>673</v>
       </c>
-      <c r="K210" s="5">
+      <c r="K210">
         <v>0.69410699605941772</v>
       </c>
       <c r="L210">
-        <v>1</v>
-      </c>
-      <c r="M210" t="s">
+        <v>0.66489596323980038</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>675</v>
       </c>
@@ -12247,14 +12878,17 @@
       <c r="J211" t="s">
         <v>15</v>
       </c>
-      <c r="K211" s="5">
+      <c r="K211">
         <v>1.00000011920929</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>677</v>
       </c>
@@ -12285,14 +12919,17 @@
       <c r="J212" t="s">
         <v>15</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212">
         <v>0.99999994039535522</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>679</v>
       </c>
@@ -12323,17 +12960,20 @@
       <c r="J213" t="s">
         <v>683</v>
       </c>
-      <c r="K213" s="5">
+      <c r="K213">
         <v>0.89455866813659668</v>
       </c>
       <c r="L213">
-        <v>1</v>
-      </c>
-      <c r="M213" t="s">
+        <v>0.86431335356366645</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>685</v>
       </c>
@@ -12364,14 +13004,17 @@
       <c r="J214" t="s">
         <v>15</v>
       </c>
-      <c r="K214" s="5">
+      <c r="K214">
         <v>1</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>687</v>
       </c>
@@ -12402,14 +13045,17 @@
       <c r="J215" t="s">
         <v>15</v>
       </c>
-      <c r="K215" s="5">
+      <c r="K215">
         <v>1</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>689</v>
       </c>
@@ -12440,14 +13086,17 @@
       <c r="J216" t="s">
         <v>15</v>
       </c>
-      <c r="K216" s="5">
+      <c r="K216">
         <v>1</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>691</v>
       </c>
@@ -12478,14 +13127,17 @@
       <c r="J217" t="s">
         <v>15</v>
       </c>
-      <c r="K217" s="5">
+      <c r="K217">
         <v>1</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>693</v>
       </c>
@@ -12516,14 +13168,17 @@
       <c r="J218" t="s">
         <v>15</v>
       </c>
-      <c r="K218" s="5">
+      <c r="K218">
         <v>1.00000011920929</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>695</v>
       </c>
@@ -12554,14 +13209,17 @@
       <c r="J219" t="s">
         <v>15</v>
       </c>
-      <c r="K219" s="5">
+      <c r="K219">
         <v>1</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>697</v>
       </c>
@@ -12592,14 +13250,17 @@
       <c r="J220" t="s">
         <v>15</v>
       </c>
-      <c r="K220" s="5">
+      <c r="K220">
         <v>0.99999988079071045</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>699</v>
       </c>
@@ -12630,17 +13291,20 @@
       <c r="J221" t="s">
         <v>703</v>
       </c>
-      <c r="K221" s="5">
+      <c r="K221">
         <v>0.65596640110015869</v>
       </c>
       <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="M221" t="s">
+        <v>0.61074156044386907</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>705</v>
       </c>
@@ -12671,14 +13335,17 @@
       <c r="J222" t="s">
         <v>15</v>
       </c>
-      <c r="K222" s="5">
+      <c r="K222">
         <v>1.00000011920929</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>707</v>
       </c>
@@ -12709,14 +13376,17 @@
       <c r="J223" t="s">
         <v>15</v>
       </c>
-      <c r="K223" s="5">
+      <c r="K223">
         <v>1</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>709</v>
       </c>
@@ -12747,17 +13417,20 @@
       <c r="J224" t="s">
         <v>713</v>
       </c>
-      <c r="K224" s="5">
+      <c r="K224">
         <v>0.93256890773773193</v>
       </c>
       <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224" t="s">
+        <v>0.81687309919405138</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>715</v>
       </c>
@@ -12788,17 +13461,20 @@
       <c r="J225" t="s">
         <v>719</v>
       </c>
-      <c r="K225" s="5">
+      <c r="K225">
         <v>0.91306805610656738</v>
       </c>
       <c r="L225">
-        <v>1</v>
-      </c>
-      <c r="M225" t="s">
+        <v>0.85457300835080252</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>720</v>
       </c>
@@ -12829,17 +13505,20 @@
       <c r="J226" t="s">
         <v>724</v>
       </c>
-      <c r="K226" s="5">
+      <c r="K226">
         <v>0.84972989559173584</v>
       </c>
       <c r="L226">
-        <v>0</v>
-      </c>
-      <c r="M226" t="s">
+        <v>0.85150990289238981</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>726</v>
       </c>
@@ -12870,14 +13549,17 @@
       <c r="J227" t="s">
         <v>730</v>
       </c>
-      <c r="K227" s="5">
+      <c r="K227">
         <v>0.92996203899383545</v>
       </c>
       <c r="L227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.92889975903895605</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>731</v>
       </c>
@@ -12908,14 +13590,17 @@
       <c r="J228" t="s">
         <v>15</v>
       </c>
-      <c r="K228" s="5">
+      <c r="K228">
         <v>0.99912679195404053</v>
       </c>
       <c r="L228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.99036425757501079</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>735</v>
       </c>
@@ -12946,17 +13631,20 @@
       <c r="J229" t="s">
         <v>739</v>
       </c>
-      <c r="K229" s="5">
+      <c r="K229">
         <v>0.83763939142227173</v>
       </c>
       <c r="L229">
-        <v>0</v>
-      </c>
-      <c r="M229" t="s">
+        <v>0.83172245194417616</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>741</v>
       </c>
@@ -12987,17 +13675,20 @@
       <c r="J230" t="s">
         <v>745</v>
       </c>
-      <c r="K230" s="5">
+      <c r="K230">
         <v>0.91379767656326294</v>
       </c>
       <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230" t="s">
+        <v>0.90844739932592344</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>747</v>
       </c>
@@ -13028,17 +13719,20 @@
       <c r="J231" t="s">
         <v>751</v>
       </c>
-      <c r="K231" s="5">
+      <c r="K231">
         <v>0.75833356380462646</v>
       </c>
       <c r="L231">
-        <v>0</v>
-      </c>
-      <c r="M231" t="s">
+        <v>0.8128362254903434</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>753</v>
       </c>
@@ -13069,17 +13763,20 @@
       <c r="J232" t="s">
         <v>757</v>
       </c>
-      <c r="K232" s="5">
+      <c r="K232">
         <v>0.94577717781066895</v>
       </c>
       <c r="L232">
-        <v>0</v>
-      </c>
-      <c r="M232" t="s">
+        <v>0.86821986592200684</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>759</v>
       </c>
@@ -13110,17 +13807,20 @@
       <c r="J233" t="s">
         <v>724</v>
       </c>
-      <c r="K233" s="5">
+      <c r="K233">
         <v>0.83030062913894653</v>
       </c>
       <c r="L233">
-        <v>1</v>
-      </c>
-      <c r="M233" t="s">
+        <v>0.7906380533953965</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>764</v>
       </c>
@@ -13151,17 +13851,20 @@
       <c r="J234" t="s">
         <v>768</v>
       </c>
-      <c r="K234" s="5">
+      <c r="K234">
         <v>0.95690715312957764</v>
       </c>
       <c r="L234">
-        <v>0</v>
-      </c>
-      <c r="M234" t="s">
+        <v>0.78754434584077559</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>770</v>
       </c>
@@ -13192,17 +13895,20 @@
       <c r="J235" t="s">
         <v>773</v>
       </c>
-      <c r="K235" s="5">
+      <c r="K235">
         <v>0.82689476013183594</v>
       </c>
       <c r="L235">
-        <v>0</v>
-      </c>
-      <c r="M235" t="s">
+        <v>0.7721811984553133</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>775</v>
       </c>
@@ -13233,17 +13939,20 @@
       <c r="J236" t="s">
         <v>779</v>
       </c>
-      <c r="K236" s="5">
+      <c r="K236">
         <v>0.91991263628005981</v>
       </c>
       <c r="L236">
-        <v>1</v>
-      </c>
-      <c r="M236" t="s">
+        <v>0.9129887015291962</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>781</v>
       </c>
@@ -13274,17 +13983,20 @@
       <c r="J237" t="s">
         <v>785</v>
       </c>
-      <c r="K237" s="5">
+      <c r="K237">
         <v>0.95025503635406494</v>
       </c>
       <c r="L237">
-        <v>1</v>
-      </c>
-      <c r="M237" t="s">
+        <v>0.75337871814747615</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>787</v>
       </c>
@@ -13315,17 +14027,20 @@
       <c r="J238" t="s">
         <v>791</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238">
         <v>0.97606837749481201</v>
       </c>
       <c r="L238">
-        <v>1</v>
-      </c>
-      <c r="M238" t="s">
+        <v>0.91468664719416892</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>792</v>
       </c>
@@ -13356,17 +14071,20 @@
       <c r="J239" t="s">
         <v>796</v>
       </c>
-      <c r="K239" s="5">
+      <c r="K239">
         <v>0.9612424373626709</v>
       </c>
       <c r="L239">
-        <v>0</v>
-      </c>
-      <c r="M239" s="3" t="s">
+        <v>0.84480861913908067</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>798</v>
       </c>
@@ -13397,17 +14115,20 @@
       <c r="J240" t="s">
         <v>802</v>
       </c>
-      <c r="K240" s="5">
+      <c r="K240">
         <v>0.82020425796508789</v>
       </c>
       <c r="L240">
-        <v>0</v>
-      </c>
-      <c r="M240" t="s">
+        <v>0.86022133158938474</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>804</v>
       </c>
@@ -13438,17 +14159,20 @@
       <c r="J241" t="s">
         <v>808</v>
       </c>
-      <c r="K241" s="5">
+      <c r="K241">
         <v>0.87945044040679932</v>
       </c>
       <c r="L241">
-        <v>1</v>
-      </c>
-      <c r="M241" t="s">
+        <v>0.80420125232259898</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>810</v>
       </c>
@@ -13479,17 +14203,20 @@
       <c r="J242" t="s">
         <v>814</v>
       </c>
-      <c r="K242" s="5">
+      <c r="K242">
         <v>0.93871605396270752</v>
       </c>
       <c r="L242">
-        <v>1</v>
-      </c>
-      <c r="M242" t="s">
+        <v>0.88732233237548286</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>816</v>
       </c>
@@ -13520,14 +14247,17 @@
       <c r="J243" t="s">
         <v>820</v>
       </c>
-      <c r="K243" s="5">
+      <c r="K243">
         <v>0.93832933902740479</v>
       </c>
       <c r="L243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.82937144456636536</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>821</v>
       </c>
@@ -13558,17 +14288,20 @@
       <c r="J244" t="s">
         <v>825</v>
       </c>
-      <c r="K244" s="5">
+      <c r="K244">
         <v>0.97254782915115356</v>
       </c>
       <c r="L244">
-        <v>0</v>
-      </c>
-      <c r="M244" t="s">
+        <v>0.95089282146819354</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>827</v>
       </c>
@@ -13599,17 +14332,20 @@
       <c r="J245" t="s">
         <v>831</v>
       </c>
-      <c r="K245" s="5">
+      <c r="K245">
         <v>0.95457744598388672</v>
       </c>
       <c r="L245">
-        <v>1</v>
-      </c>
-      <c r="M245" t="s">
+        <v>0.86855342799854041</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>833</v>
       </c>
@@ -13640,17 +14376,20 @@
       <c r="J246" t="s">
         <v>837</v>
       </c>
-      <c r="K246" s="5">
+      <c r="K246">
         <v>0.94909107685089111</v>
       </c>
       <c r="L246">
-        <v>1</v>
-      </c>
-      <c r="M246" t="s">
+        <v>0.84148504392863399</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>839</v>
       </c>
@@ -13681,17 +14420,20 @@
       <c r="J247" t="s">
         <v>843</v>
       </c>
-      <c r="K247" s="5">
+      <c r="K247">
         <v>0.73220163583755493</v>
       </c>
       <c r="L247">
-        <v>1</v>
-      </c>
-      <c r="M247" t="s">
+        <v>0.82715580921254062</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>845</v>
       </c>
@@ -13722,17 +14464,20 @@
       <c r="J248" t="s">
         <v>849</v>
       </c>
-      <c r="K248" s="5">
+      <c r="K248">
         <v>0.84566891193389893</v>
       </c>
       <c r="L248">
-        <v>1</v>
-      </c>
-      <c r="M248" t="s">
+        <v>0.9024571750514272</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>851</v>
       </c>
@@ -13763,17 +14508,20 @@
       <c r="J249" t="s">
         <v>855</v>
       </c>
-      <c r="K249" s="5">
+      <c r="K249">
         <v>0.94167768955230713</v>
       </c>
       <c r="L249">
-        <v>0</v>
-      </c>
-      <c r="M249" t="s">
+        <v>0.90484513633128305</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>857</v>
       </c>
@@ -13804,14 +14552,17 @@
       <c r="J250" t="s">
         <v>861</v>
       </c>
-      <c r="K250" s="5">
+      <c r="K250">
         <v>0.9543689489364624</v>
       </c>
       <c r="L250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.67136296372486748</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>862</v>
       </c>
@@ -13842,17 +14593,20 @@
       <c r="J251" t="s">
         <v>866</v>
       </c>
-      <c r="K251" s="5">
+      <c r="K251">
         <v>0.8312116265296936</v>
       </c>
       <c r="L251">
-        <v>0</v>
-      </c>
-      <c r="M251" t="s">
+        <v>0.48653846329574729</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>868</v>
       </c>
@@ -13883,14 +14637,17 @@
       <c r="J252" t="s">
         <v>872</v>
       </c>
-      <c r="K252" s="5">
+      <c r="K252">
         <v>0.85812503099441528</v>
       </c>
       <c r="L252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.89762230555204847</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>873</v>
       </c>
@@ -13921,17 +14678,20 @@
       <c r="J253" t="s">
         <v>876</v>
       </c>
-      <c r="K253" s="5">
+      <c r="K253">
         <v>0.90870159864425659</v>
       </c>
       <c r="L253">
-        <v>0</v>
-      </c>
-      <c r="M253" t="s">
+        <v>0.8783881873310968</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>878</v>
       </c>
@@ -13962,17 +14722,20 @@
       <c r="J254" t="s">
         <v>882</v>
       </c>
-      <c r="K254" s="5">
+      <c r="K254">
         <v>0.91910994052886963</v>
       </c>
       <c r="L254">
-        <v>1</v>
-      </c>
-      <c r="M254" t="s">
+        <v>0.89456122052987974</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>884</v>
       </c>
@@ -14003,17 +14766,20 @@
       <c r="J255" t="s">
         <v>888</v>
       </c>
-      <c r="K255" s="5">
+      <c r="K255">
         <v>0.97696906328201294</v>
       </c>
       <c r="L255">
-        <v>0</v>
-      </c>
-      <c r="M255" t="s">
+        <v>0.95119356663432975</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>890</v>
       </c>
@@ -14044,14 +14810,17 @@
       <c r="J256" t="s">
         <v>894</v>
       </c>
-      <c r="K256" s="5">
+      <c r="K256">
         <v>0.92695349454879761</v>
       </c>
       <c r="L256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.92600733125633572</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>895</v>
       </c>
@@ -14082,14 +14851,17 @@
       <c r="J257" t="s">
         <v>899</v>
       </c>
-      <c r="K257" s="5">
+      <c r="K257">
         <v>0.96976816654205322</v>
       </c>
       <c r="L257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.79780979936848551</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>900</v>
       </c>
@@ -14120,17 +14892,20 @@
       <c r="J258" t="s">
         <v>904</v>
       </c>
-      <c r="K258" s="5">
+      <c r="K258">
         <v>0.79442054033279419</v>
       </c>
       <c r="L258">
-        <v>0</v>
-      </c>
-      <c r="M258" t="s">
+        <v>0.53482953210613449</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>906</v>
       </c>
@@ -14161,17 +14936,20 @@
       <c r="J259" t="s">
         <v>910</v>
       </c>
-      <c r="K259" s="5">
+      <c r="K259">
         <v>0.78541219234466553</v>
       </c>
       <c r="L259">
-        <v>1</v>
-      </c>
-      <c r="M259" t="s">
+        <v>0.84485908332888604</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>912</v>
       </c>
@@ -14202,17 +14980,20 @@
       <c r="J260" t="s">
         <v>916</v>
       </c>
-      <c r="K260" s="5">
+      <c r="K260">
         <v>0.90610027313232422</v>
       </c>
       <c r="L260">
-        <v>0</v>
-      </c>
-      <c r="M260" t="s">
+        <v>0.86276530505438176</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>918</v>
       </c>
@@ -14243,17 +15024,20 @@
       <c r="J261" t="s">
         <v>922</v>
       </c>
-      <c r="K261" s="5">
+      <c r="K261">
         <v>0.9806475043296814</v>
       </c>
       <c r="L261">
-        <v>1</v>
-      </c>
-      <c r="M261" s="3" t="s">
+        <v>0.93143333045247079</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>924</v>
       </c>
@@ -14284,17 +15068,20 @@
       <c r="J262" t="s">
         <v>928</v>
       </c>
-      <c r="K262" s="5">
+      <c r="K262">
         <v>0.93561214208602905</v>
       </c>
       <c r="L262">
-        <v>1</v>
-      </c>
-      <c r="M262" t="s">
+        <v>0.81721356904076148</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>930</v>
       </c>
@@ -14325,14 +15112,17 @@
       <c r="J263" t="s">
         <v>934</v>
       </c>
-      <c r="K263" s="5">
+      <c r="K263">
         <v>0.91442084312438965</v>
       </c>
       <c r="L263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.94089923278777698</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>935</v>
       </c>
@@ -14363,17 +15153,20 @@
       <c r="J264" t="s">
         <v>939</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264">
         <v>0.85315096378326416</v>
       </c>
       <c r="L264">
-        <v>1</v>
-      </c>
-      <c r="M264" t="s">
+        <v>0.83477160935721118</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>941</v>
       </c>
@@ -14404,17 +15197,20 @@
       <c r="J265" t="s">
         <v>945</v>
       </c>
-      <c r="K265" s="5">
+      <c r="K265">
         <v>0.51244223117828369</v>
       </c>
       <c r="L265">
-        <v>0</v>
-      </c>
-      <c r="M265" t="s">
+        <v>0.65485202613521998</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>947</v>
       </c>
@@ -14445,17 +15241,20 @@
       <c r="J266" t="s">
         <v>951</v>
       </c>
-      <c r="K266" s="5">
+      <c r="K266">
         <v>0.91720724105834961</v>
       </c>
       <c r="L266">
-        <v>1</v>
-      </c>
-      <c r="M266" t="s">
+        <v>0.69248990611232464</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>953</v>
       </c>
@@ -14486,17 +15285,20 @@
       <c r="J267" t="s">
         <v>957</v>
       </c>
-      <c r="K267" s="5">
+      <c r="K267">
         <v>0.9653586745262146</v>
       </c>
       <c r="L267">
-        <v>0</v>
-      </c>
-      <c r="M267" t="s">
+        <v>0.77168937830037565</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>959</v>
       </c>
@@ -14527,14 +15329,17 @@
       <c r="J268" t="s">
         <v>963</v>
       </c>
-      <c r="K268" s="5">
+      <c r="K268">
         <v>0.77140003442764282</v>
       </c>
       <c r="L268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.78040860436517789</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>964</v>
       </c>
@@ -14565,17 +15370,20 @@
       <c r="J269" t="s">
         <v>968</v>
       </c>
-      <c r="K269" s="5">
+      <c r="K269">
         <v>0.94869077205657959</v>
       </c>
       <c r="L269">
-        <v>0</v>
-      </c>
-      <c r="M269" t="s">
+        <v>0.90441898649393304</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>970</v>
       </c>
@@ -14606,17 +15414,20 @@
       <c r="J270" t="s">
         <v>974</v>
       </c>
-      <c r="K270" s="5">
+      <c r="K270">
         <v>0.91772592067718506</v>
       </c>
       <c r="L270">
-        <v>1</v>
-      </c>
-      <c r="M270" t="s">
+        <v>0.7808393552543933</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>976</v>
       </c>
@@ -14647,17 +15458,20 @@
       <c r="J271" t="s">
         <v>980</v>
       </c>
-      <c r="K271" s="5">
+      <c r="K271">
         <v>0.9635547399520874</v>
       </c>
       <c r="L271">
-        <v>1</v>
-      </c>
-      <c r="M271" t="s">
+        <v>0.73377638647285326</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>982</v>
       </c>
@@ -14688,17 +15502,20 @@
       <c r="J272" t="s">
         <v>986</v>
       </c>
-      <c r="K272" s="5">
+      <c r="K272">
         <v>0.94890314340591431</v>
       </c>
       <c r="L272">
-        <v>0</v>
-      </c>
-      <c r="M272" t="s">
+        <v>0.90048221476788193</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>988</v>
       </c>
@@ -14729,17 +15546,20 @@
       <c r="J273" t="s">
         <v>992</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273">
         <v>0.94423240423202515</v>
       </c>
       <c r="L273">
-        <v>1</v>
-      </c>
-      <c r="M273" t="s">
+        <v>0.80393863966610346</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>994</v>
       </c>
@@ -14770,17 +15590,20 @@
       <c r="J274" t="s">
         <v>997</v>
       </c>
-      <c r="K274" s="5">
+      <c r="K274">
         <v>0.8831322193145752</v>
       </c>
       <c r="L274">
-        <v>1</v>
-      </c>
-      <c r="M274" t="s">
+        <v>0.72000145639110702</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>999</v>
       </c>
@@ -14811,17 +15634,20 @@
       <c r="J275" t="s">
         <v>1003</v>
       </c>
-      <c r="K275" s="5">
+      <c r="K275">
         <v>0.75477808713912964</v>
       </c>
       <c r="L275">
-        <v>1</v>
-      </c>
-      <c r="M275" t="s">
+        <v>0.82851990042338075</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1005</v>
       </c>
@@ -14852,17 +15678,20 @@
       <c r="J276" t="s">
         <v>1009</v>
       </c>
-      <c r="K276" s="5">
+      <c r="K276">
         <v>0.94254601001739502</v>
       </c>
       <c r="L276">
-        <v>0</v>
-      </c>
-      <c r="M276" t="s">
+        <v>0.88527403319998577</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1011</v>
       </c>
@@ -14893,17 +15722,20 @@
       <c r="J277" t="s">
         <v>1015</v>
       </c>
-      <c r="K277" s="5">
+      <c r="K277">
         <v>0.98617422580718994</v>
       </c>
       <c r="L277">
-        <v>0</v>
-      </c>
-      <c r="M277" t="s">
+        <v>0.94966725476782643</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1017</v>
       </c>
@@ -14934,14 +15766,17 @@
       <c r="J278" t="s">
         <v>15</v>
       </c>
-      <c r="K278" s="5">
+      <c r="K278">
         <v>1</v>
       </c>
       <c r="L278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1019</v>
       </c>
@@ -14972,17 +15807,20 @@
       <c r="J279" t="s">
         <v>1023</v>
       </c>
-      <c r="K279" s="5">
+      <c r="K279">
         <v>0.84280014038085938</v>
       </c>
       <c r="L279">
-        <v>0</v>
-      </c>
-      <c r="M279" t="s">
+        <v>0.79358140641945629</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1024</v>
       </c>
@@ -15013,14 +15851,17 @@
       <c r="J280" t="s">
         <v>15</v>
       </c>
-      <c r="K280" s="5">
+      <c r="K280">
         <v>1.00000011920929</v>
       </c>
       <c r="L280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1026</v>
       </c>
@@ -15051,14 +15892,17 @@
       <c r="J281" t="s">
         <v>1030</v>
       </c>
-      <c r="K281" s="5">
+      <c r="K281">
         <v>0.98176980018615723</v>
       </c>
       <c r="L281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1031</v>
       </c>
@@ -15089,14 +15933,17 @@
       <c r="J282" t="s">
         <v>15</v>
       </c>
-      <c r="K282" s="5">
+      <c r="K282">
         <v>1</v>
       </c>
       <c r="L282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1033</v>
       </c>
@@ -15127,17 +15974,20 @@
       <c r="J283" t="s">
         <v>1037</v>
       </c>
-      <c r="K283" s="5">
+      <c r="K283">
         <v>0.53353506326675415</v>
       </c>
       <c r="L283">
-        <v>0</v>
-      </c>
-      <c r="M283" t="s">
+        <v>0.6919866170103931</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1039</v>
       </c>
@@ -15168,14 +16018,17 @@
       <c r="J284" t="s">
         <v>15</v>
       </c>
-      <c r="K284" s="5">
+      <c r="K284">
         <v>1.00000011920929</v>
       </c>
       <c r="L284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1043</v>
       </c>
@@ -15206,14 +16059,17 @@
       <c r="J285" t="s">
         <v>15</v>
       </c>
-      <c r="K285" s="5">
+      <c r="K285">
         <v>1</v>
       </c>
       <c r="L285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1045</v>
       </c>
@@ -15244,14 +16100,17 @@
       <c r="J286" t="s">
         <v>78</v>
       </c>
-      <c r="K286" s="5">
+      <c r="K286">
         <v>0.99839490652084351</v>
       </c>
       <c r="L286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1048</v>
       </c>
@@ -15282,14 +16141,17 @@
       <c r="J287" t="s">
         <v>1052</v>
       </c>
-      <c r="K287" s="5">
+      <c r="K287">
         <v>0.99304568767547607</v>
       </c>
       <c r="L287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9912971887886407</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1053</v>
       </c>
@@ -15320,17 +16182,20 @@
       <c r="J288" t="s">
         <v>1057</v>
       </c>
-      <c r="K288" s="5">
+      <c r="K288">
         <v>0.9460100531578064</v>
       </c>
       <c r="L288">
-        <v>1</v>
-      </c>
-      <c r="M288" t="s">
+        <v>0.92475587973155793</v>
+      </c>
+      <c r="M288">
+        <v>1</v>
+      </c>
+      <c r="N288" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1059</v>
       </c>
@@ -15361,17 +16226,20 @@
       <c r="J289" t="s">
         <v>1063</v>
       </c>
-      <c r="K289" s="5">
+      <c r="K289">
         <v>0.96889328956604004</v>
       </c>
       <c r="L289">
-        <v>1</v>
-      </c>
-      <c r="M289" t="s">
+        <v>0.88874822312690083</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1065</v>
       </c>
@@ -15402,17 +16270,20 @@
       <c r="J290" t="s">
         <v>1069</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290">
         <v>0.76959699392318726</v>
       </c>
       <c r="L290">
-        <v>0</v>
-      </c>
-      <c r="M290" t="s">
+        <v>0.6825334316649575</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1071</v>
       </c>
@@ -15443,17 +16314,20 @@
       <c r="J291" t="s">
         <v>1075</v>
       </c>
-      <c r="K291" s="5">
+      <c r="K291">
         <v>0.59913396835327148</v>
       </c>
       <c r="L291">
-        <v>0</v>
-      </c>
-      <c r="M291" t="s">
+        <v>0.57163790862556363</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1076</v>
       </c>
@@ -15484,17 +16358,20 @@
       <c r="J292" t="s">
         <v>1080</v>
       </c>
-      <c r="K292" s="5">
+      <c r="K292">
         <v>0.96880221366882324</v>
       </c>
       <c r="L292">
-        <v>0</v>
-      </c>
-      <c r="M292" t="s">
+        <v>0.96146087534925084</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1082</v>
       </c>
@@ -15525,14 +16402,17 @@
       <c r="J293" t="s">
         <v>15</v>
       </c>
-      <c r="K293" s="5">
+      <c r="K293">
         <v>0.99999994039535522</v>
       </c>
       <c r="L293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1084</v>
       </c>
@@ -15563,17 +16443,20 @@
       <c r="J294" t="s">
         <v>1088</v>
       </c>
-      <c r="K294" s="5">
+      <c r="K294">
         <v>0.90732502937316895</v>
       </c>
       <c r="L294">
-        <v>0</v>
-      </c>
-      <c r="M294" t="s">
+        <v>0.9390905712014358</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1089</v>
       </c>
@@ -15604,14 +16487,17 @@
       <c r="J295" t="s">
         <v>301</v>
       </c>
-      <c r="K295" s="5">
+      <c r="K295">
         <v>0.83700227737426758</v>
       </c>
       <c r="L295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.97865149792744344</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1093</v>
       </c>
@@ -15642,14 +16528,17 @@
       <c r="J296" t="s">
         <v>1097</v>
       </c>
-      <c r="K296" s="5">
+      <c r="K296">
         <v>0.99243974685668945</v>
       </c>
       <c r="L296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.98700691503212235</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1098</v>
       </c>
@@ -15680,14 +16569,17 @@
       <c r="J297" t="s">
         <v>1052</v>
       </c>
-      <c r="K297" s="5">
+      <c r="K297">
         <v>0.96138811111450195</v>
       </c>
       <c r="L297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.95143737724691324</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1102</v>
       </c>
@@ -15718,14 +16610,17 @@
       <c r="J298" t="s">
         <v>1106</v>
       </c>
-      <c r="K298" s="5">
+      <c r="K298">
         <v>0.80040860176086426</v>
       </c>
       <c r="L298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.95137511897337868</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1107</v>
       </c>
@@ -15756,14 +16651,17 @@
       <c r="J299" t="s">
         <v>15</v>
       </c>
-      <c r="K299" s="5">
+      <c r="K299">
         <v>1</v>
       </c>
       <c r="L299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1109</v>
       </c>
@@ -15794,14 +16692,17 @@
       <c r="J300" t="s">
         <v>15</v>
       </c>
-      <c r="K300" s="5">
+      <c r="K300">
         <v>0.99999994039535522</v>
       </c>
       <c r="L300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1111</v>
       </c>
@@ -15832,17 +16733,20 @@
       <c r="J301" t="s">
         <v>894</v>
       </c>
-      <c r="K301" s="5">
+      <c r="K301">
         <v>0.84727025032043457</v>
       </c>
       <c r="L301">
-        <v>0</v>
-      </c>
-      <c r="M301" t="s">
+        <v>0.77416834842271898</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1116</v>
       </c>
@@ -15873,14 +16777,17 @@
       <c r="J302" t="s">
         <v>1120</v>
       </c>
-      <c r="K302" s="5">
+      <c r="K302">
         <v>0.99999994039535522</v>
       </c>
       <c r="L302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1121</v>
       </c>
@@ -15911,17 +16818,20 @@
       <c r="J303" t="s">
         <v>1125</v>
       </c>
-      <c r="K303" s="5">
+      <c r="K303">
         <v>0.64725017547607422</v>
       </c>
       <c r="L303">
-        <v>0</v>
-      </c>
-      <c r="M303" t="s">
+        <v>0.7885079427611873</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1127</v>
       </c>
@@ -15952,17 +16862,20 @@
       <c r="J304" t="s">
         <v>1131</v>
       </c>
-      <c r="K304" s="5">
+      <c r="K304">
         <v>0.88942766189575195</v>
       </c>
       <c r="L304">
-        <v>0</v>
-      </c>
-      <c r="M304" t="s">
+        <v>0.82668214696157916</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1132</v>
       </c>
@@ -15993,17 +16906,20 @@
       <c r="J305" t="s">
         <v>1136</v>
       </c>
-      <c r="K305" s="5">
+      <c r="K305">
         <v>0.84611642360687256</v>
       </c>
       <c r="L305">
-        <v>1</v>
-      </c>
-      <c r="M305" t="s">
+        <v>0.85109221568633842</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+      <c r="N305" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1138</v>
       </c>
@@ -16034,17 +16950,20 @@
       <c r="J306" t="s">
         <v>1142</v>
       </c>
-      <c r="K306" s="5">
+      <c r="K306">
         <v>0.97264194488525391</v>
       </c>
       <c r="L306">
-        <v>0</v>
-      </c>
-      <c r="M306" t="s">
+        <v>0.89898425540491578</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1144</v>
       </c>
@@ -16075,14 +16994,17 @@
       <c r="J307" t="s">
         <v>1148</v>
       </c>
-      <c r="K307" s="5">
+      <c r="K307">
         <v>0.99827700853347778</v>
       </c>
       <c r="L307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1149</v>
       </c>
@@ -16113,17 +17035,20 @@
       <c r="J308" t="s">
         <v>1153</v>
       </c>
-      <c r="K308" s="5">
+      <c r="K308">
         <v>0.85101318359375</v>
       </c>
       <c r="L308">
-        <v>0</v>
-      </c>
-      <c r="M308" t="s">
+        <v>0.57572754507549906</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1155</v>
       </c>
@@ -16154,14 +17079,17 @@
       <c r="J309" t="s">
         <v>1159</v>
       </c>
-      <c r="K309" s="5">
+      <c r="K309">
         <v>1.0000002384185791</v>
       </c>
       <c r="L309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1160</v>
       </c>
@@ -16192,14 +17120,17 @@
       <c r="J310" t="s">
         <v>15</v>
       </c>
-      <c r="K310" s="5">
+      <c r="K310">
         <v>1.00000011920929</v>
       </c>
       <c r="L310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1162</v>
       </c>
@@ -16230,14 +17161,17 @@
       <c r="J311" t="s">
         <v>15</v>
       </c>
-      <c r="K311" s="5">
+      <c r="K311">
         <v>0.99999988079071045</v>
       </c>
       <c r="L311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1164</v>
       </c>
@@ -16268,17 +17202,20 @@
       <c r="J312" t="s">
         <v>1168</v>
       </c>
-      <c r="K312" s="5">
+      <c r="K312">
         <v>0.93089693784713745</v>
       </c>
       <c r="L312">
-        <v>0</v>
-      </c>
-      <c r="M312" t="s">
+        <v>0.72360503151461308</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1170</v>
       </c>
@@ -16309,14 +17246,17 @@
       <c r="J313" t="s">
         <v>1174</v>
       </c>
-      <c r="K313" s="5">
+      <c r="K313">
         <v>0.99999994039535522</v>
       </c>
       <c r="L313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.87271543591439493</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1175</v>
       </c>
@@ -16347,17 +17287,20 @@
       <c r="J314" t="s">
         <v>78</v>
       </c>
-      <c r="K314" s="5">
+      <c r="K314">
         <v>0.98944711685180664</v>
       </c>
       <c r="L314">
-        <v>1</v>
-      </c>
-      <c r="M314" t="s">
+        <v>0.94784672900243794</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+      <c r="N314" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1180</v>
       </c>
@@ -16388,17 +17331,20 @@
       <c r="J315" t="s">
         <v>1184</v>
       </c>
-      <c r="K315" s="5">
+      <c r="K315">
         <v>0.9968908429145813</v>
       </c>
       <c r="L315">
-        <v>0</v>
-      </c>
-      <c r="M315" t="s">
+        <v>0.99031711659269062</v>
+      </c>
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1186</v>
       </c>
@@ -16429,14 +17375,17 @@
       <c r="J316" t="s">
         <v>1190</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316">
         <v>0.98666006326675415</v>
       </c>
       <c r="L316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.96916923189101201</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1191</v>
       </c>
@@ -16467,17 +17416,20 @@
       <c r="J317" t="s">
         <v>1195</v>
       </c>
-      <c r="K317" s="5">
+      <c r="K317">
         <v>0.96208202838897705</v>
       </c>
       <c r="L317">
-        <v>0</v>
-      </c>
-      <c r="M317" t="s">
+        <v>0.81387235015948467</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1196</v>
       </c>
@@ -16508,17 +17460,20 @@
       <c r="J318" t="s">
         <v>1200</v>
       </c>
-      <c r="K318" s="5">
+      <c r="K318">
         <v>0.97301095724105835</v>
       </c>
       <c r="L318">
-        <v>1</v>
-      </c>
-      <c r="M318" t="s">
+        <v>0.8691199921301288</v>
+      </c>
+      <c r="M318">
+        <v>1</v>
+      </c>
+      <c r="N318" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1202</v>
       </c>
@@ -16549,17 +17504,20 @@
       <c r="J319" t="s">
         <v>1206</v>
       </c>
-      <c r="K319" s="5">
+      <c r="K319">
         <v>0.94702774286270142</v>
       </c>
       <c r="L319">
-        <v>0</v>
-      </c>
-      <c r="M319" t="s">
+        <v>0.87824778109698654</v>
+      </c>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1208</v>
       </c>
@@ -16590,14 +17548,17 @@
       <c r="J320" t="s">
         <v>1212</v>
       </c>
-      <c r="K320" s="5">
+      <c r="K320">
         <v>0.99243175983428955</v>
       </c>
       <c r="L320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.94085142732558269</v>
+      </c>
+      <c r="M320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1213</v>
       </c>
@@ -16628,14 +17589,17 @@
       <c r="J321" t="s">
         <v>15</v>
       </c>
-      <c r="K321" s="5">
+      <c r="K321">
         <v>1.00000011920929</v>
       </c>
       <c r="L321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1215</v>
       </c>
@@ -16666,14 +17630,17 @@
       <c r="J322" t="s">
         <v>15</v>
       </c>
-      <c r="K322" s="5">
+      <c r="K322">
         <v>1</v>
       </c>
       <c r="L322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1217</v>
       </c>
@@ -16704,14 +17671,17 @@
       <c r="J323" t="s">
         <v>15</v>
       </c>
-      <c r="K323" s="5">
+      <c r="K323">
         <v>1</v>
       </c>
       <c r="L323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1219</v>
       </c>
@@ -16742,14 +17712,17 @@
       <c r="J324" t="s">
         <v>1120</v>
       </c>
-      <c r="K324" s="5">
+      <c r="K324">
         <v>0.97439342737197876</v>
       </c>
       <c r="L324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9250560703103794</v>
+      </c>
+      <c r="M324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1223</v>
       </c>
@@ -16780,14 +17753,17 @@
       <c r="J325" t="s">
         <v>1120</v>
       </c>
-      <c r="K325" s="5">
+      <c r="K325">
         <v>1</v>
       </c>
       <c r="L325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1227</v>
       </c>
@@ -16818,14 +17794,17 @@
       <c r="J326" t="s">
         <v>15</v>
       </c>
-      <c r="K326" s="5">
+      <c r="K326">
         <v>0.99999994039535522</v>
       </c>
       <c r="L326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1229</v>
       </c>
@@ -16856,10 +17835,13 @@
       <c r="J327" t="s">
         <v>15</v>
       </c>
-      <c r="K327" s="5">
+      <c r="K327">
         <v>1.00000011920929</v>
       </c>
       <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327">
         <v>1</v>
       </c>
     </row>
